--- a/data/ATUALIZAÇÕES_Final.xlsx
+++ b/data/ATUALIZAÇÕES_Final.xlsx
@@ -35,12 +35,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$R$ -416]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="168" formatCode="d/m"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$R$ -416]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -119,62 +120,72 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -188,816 +199,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>SOJA, MILHO e TRIGO</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Página1'!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Página1'!$A$2:$A$147</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Página1'!$B$2:$B$147</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Página1'!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA4335">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="EA4335"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Página1'!$A$2:$A$147</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Página1'!$C$2:$C$147</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Página1'!$D$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FBBC04">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FBBC04"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Página1'!$A$2:$A$147</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Página1'!$D$2:$D$147</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1140718278"/>
-        <c:axId val="721248837"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1140718278"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="721248837"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="721248837"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1140718278"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Compra versus Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Página1'!$E$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>'Página1'!$E$2:$E$143</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1532433873"/>
-        <c:axId val="1552968409"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1532433873"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Data</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1552968409"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1552968409"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Compra</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1532433873"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Venda versus Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Página1'!$F$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>'Página1'!$F$2:$F$143</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1674602195"/>
-        <c:axId val="1460400931"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1674602195"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Data</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1460400931"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1460400931"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Venda</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1674602195"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="14373225" cy="7343775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4054,6040 +3257,6988 @@
       <c r="D143" s="5">
         <v>77.0</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="16">
         <v>5.7737</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="16">
         <v>5.7743</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="4">
+        <v>45617.0</v>
+      </c>
+      <c r="B144" s="5">
+        <v>129.0</v>
+      </c>
+      <c r="C144" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D144" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="E144" s="16">
+        <v>5.8167</v>
+      </c>
+      <c r="F144" s="16">
+        <v>5.8173</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4">
+        <v>45618.0</v>
+      </c>
+      <c r="B145" s="5">
+        <v>129.0</v>
+      </c>
+      <c r="C145" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D145" s="5">
+        <v>76.0</v>
+      </c>
+      <c r="E145" s="17">
+        <v>5.8118</v>
+      </c>
+      <c r="F145" s="17">
+        <v>5.8124</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4">
+        <v>45621.0</v>
+      </c>
+      <c r="B146" s="5">
+        <v>128.0</v>
+      </c>
+      <c r="C146" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D146" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="E146" s="16">
+        <v>5.7996</v>
+      </c>
+      <c r="F146" s="16">
+        <v>5.8002</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4">
+        <v>45622.0</v>
+      </c>
+      <c r="B147" s="5">
+        <v>128.0</v>
+      </c>
+      <c r="C147" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D147" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>5.7984</v>
+      </c>
+      <c r="F147" s="17">
+        <v>5.799</v>
+      </c>
+    </row>
     <row r="148">
-      <c r="A148" s="16"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="F148" s="18"/>
+      <c r="A148" s="4">
+        <v>45623.0</v>
+      </c>
+      <c r="B148" s="5">
+        <v>128.0</v>
+      </c>
+      <c r="C148" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D148" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="E148" s="16">
+        <v>5.8285</v>
+      </c>
+      <c r="F148" s="16">
+        <v>5.8291</v>
+      </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
     </row>
     <row r="149">
-      <c r="A149" s="16"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="F149" s="18"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="22"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
     </row>
     <row r="150">
-      <c r="A150" s="16"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="F150" s="18"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="22"/>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="16"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="F151" s="18"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="22"/>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
     </row>
     <row r="152">
-      <c r="A152" s="16"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="F152" s="18"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="22"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
     </row>
     <row r="153">
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="F153" s="18"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="22"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
     </row>
     <row r="154">
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="F154" s="18"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="22"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
     </row>
     <row r="155">
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="F155" s="18"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="22"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
     </row>
     <row r="156">
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="F156" s="18"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="22"/>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
     </row>
     <row r="157">
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="F157" s="18"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="22"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
     </row>
     <row r="158">
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="F158" s="18"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="22"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
     </row>
     <row r="159">
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="F159" s="18"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="22"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
     </row>
     <row r="160">
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="F160" s="18"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="22"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
       <c r="I160" s="18"/>
     </row>
     <row r="161">
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="F161" s="18"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="22"/>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
     </row>
     <row r="162">
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="F162" s="18"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="22"/>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
     </row>
     <row r="163">
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="F163" s="18"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="22"/>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
       <c r="I163" s="18"/>
     </row>
     <row r="164">
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="F164" s="18"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="22"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
     </row>
     <row r="165">
-      <c r="A165" s="19"/>
-      <c r="F165" s="18"/>
+      <c r="A165" s="23"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="22"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
     </row>
     <row r="166">
-      <c r="A166" s="19"/>
-      <c r="F166" s="18"/>
+      <c r="A166" s="23"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="22"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
     </row>
     <row r="167">
-      <c r="A167" s="19"/>
-      <c r="F167" s="18"/>
+      <c r="A167" s="23"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="22"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
     </row>
     <row r="168">
-      <c r="A168" s="19"/>
-      <c r="F168" s="18"/>
+      <c r="A168" s="23"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="22"/>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
     </row>
     <row r="169">
-      <c r="A169" s="19"/>
-      <c r="F169" s="18"/>
+      <c r="A169" s="23"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="22"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
     </row>
     <row r="170">
-      <c r="A170" s="19"/>
-      <c r="F170" s="18"/>
+      <c r="A170" s="23"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="22"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
     </row>
     <row r="171">
-      <c r="A171" s="19"/>
-      <c r="F171" s="18"/>
+      <c r="A171" s="23"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="22"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
     </row>
     <row r="172">
-      <c r="A172" s="19"/>
-      <c r="F172" s="18"/>
+      <c r="A172" s="23"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="22"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
     </row>
     <row r="173">
-      <c r="A173" s="19"/>
-      <c r="F173" s="18"/>
+      <c r="A173" s="23"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="22"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
     </row>
     <row r="174">
-      <c r="A174" s="19"/>
-      <c r="F174" s="18"/>
+      <c r="A174" s="23"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="22"/>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
       <c r="I174" s="18"/>
     </row>
     <row r="175">
-      <c r="A175" s="19"/>
-      <c r="F175" s="18"/>
+      <c r="A175" s="23"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="22"/>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
       <c r="I175" s="18"/>
     </row>
     <row r="176">
-      <c r="A176" s="19"/>
-      <c r="F176" s="18"/>
+      <c r="A176" s="23"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="22"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
     </row>
     <row r="177">
-      <c r="A177" s="19"/>
-      <c r="F177" s="18"/>
+      <c r="A177" s="23"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="22"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
     </row>
     <row r="178">
-      <c r="A178" s="19"/>
-      <c r="F178" s="18"/>
+      <c r="A178" s="23"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="22"/>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
     </row>
     <row r="179">
-      <c r="A179" s="19"/>
-      <c r="F179" s="18"/>
+      <c r="A179" s="23"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="22"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
       <c r="I179" s="18"/>
     </row>
     <row r="180">
-      <c r="A180" s="19"/>
-      <c r="F180" s="18"/>
+      <c r="A180" s="23"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="22"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
     </row>
     <row r="181">
-      <c r="A181" s="19"/>
-      <c r="F181" s="18"/>
+      <c r="A181" s="23"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="22"/>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
     </row>
     <row r="182">
-      <c r="A182" s="19"/>
-      <c r="F182" s="18"/>
+      <c r="A182" s="23"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="22"/>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
       <c r="I182" s="18"/>
     </row>
     <row r="183">
-      <c r="A183" s="19"/>
-      <c r="F183" s="18"/>
+      <c r="A183" s="23"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="22"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
     </row>
     <row r="184">
-      <c r="A184" s="19"/>
-      <c r="F184" s="18"/>
+      <c r="A184" s="23"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="22"/>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
     </row>
     <row r="185">
-      <c r="A185" s="19"/>
-      <c r="F185" s="18"/>
+      <c r="A185" s="23"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="22"/>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
       <c r="I185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="19"/>
-      <c r="F186" s="18"/>
+      <c r="A186" s="23"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="22"/>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
     </row>
     <row r="187">
-      <c r="A187" s="19"/>
-      <c r="F187" s="18"/>
+      <c r="A187" s="23"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="22"/>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
       <c r="I187" s="18"/>
     </row>
     <row r="188">
-      <c r="A188" s="19"/>
-      <c r="F188" s="18"/>
+      <c r="A188" s="23"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="22"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
     </row>
     <row r="189">
-      <c r="A189" s="19"/>
-      <c r="F189" s="18"/>
+      <c r="A189" s="23"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="22"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
     </row>
     <row r="190">
-      <c r="A190" s="19"/>
-      <c r="F190" s="18"/>
+      <c r="A190" s="23"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="22"/>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
       <c r="I190" s="18"/>
     </row>
     <row r="191">
-      <c r="A191" s="19"/>
-      <c r="F191" s="18"/>
+      <c r="A191" s="23"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="22"/>
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
     </row>
     <row r="192">
-      <c r="A192" s="19"/>
-      <c r="F192" s="18"/>
+      <c r="A192" s="23"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="22"/>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
     </row>
     <row r="193">
-      <c r="A193" s="19"/>
-      <c r="F193" s="18"/>
+      <c r="A193" s="23"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="22"/>
       <c r="G193" s="18"/>
       <c r="H193" s="18"/>
       <c r="I193" s="18"/>
     </row>
     <row r="194">
-      <c r="A194" s="19"/>
-      <c r="F194" s="18"/>
+      <c r="A194" s="23"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="22"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
     </row>
     <row r="195">
-      <c r="A195" s="19"/>
-      <c r="F195" s="18"/>
+      <c r="A195" s="23"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="22"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
       <c r="I195" s="18"/>
     </row>
     <row r="196">
-      <c r="A196" s="19"/>
-      <c r="F196" s="18"/>
+      <c r="A196" s="23"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="22"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
       <c r="I196" s="18"/>
     </row>
     <row r="197">
-      <c r="A197" s="19"/>
-      <c r="F197" s="18"/>
+      <c r="A197" s="23"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="22"/>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
     </row>
     <row r="198">
-      <c r="A198" s="19"/>
-      <c r="F198" s="18"/>
+      <c r="A198" s="23"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="22"/>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
       <c r="I198" s="18"/>
     </row>
     <row r="199">
-      <c r="A199" s="19"/>
-      <c r="F199" s="18"/>
+      <c r="A199" s="23"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="22"/>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
       <c r="I199" s="18"/>
     </row>
     <row r="200">
-      <c r="A200" s="19"/>
-      <c r="F200" s="18"/>
+      <c r="A200" s="23"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="22"/>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
       <c r="I200" s="18"/>
     </row>
     <row r="201">
-      <c r="A201" s="19"/>
-      <c r="F201" s="18"/>
+      <c r="A201" s="23"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="22"/>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
       <c r="I201" s="18"/>
     </row>
     <row r="202">
-      <c r="A202" s="19"/>
-      <c r="F202" s="18"/>
+      <c r="A202" s="23"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="22"/>
       <c r="G202" s="18"/>
       <c r="H202" s="18"/>
       <c r="I202" s="18"/>
     </row>
     <row r="203">
-      <c r="A203" s="19"/>
-      <c r="F203" s="18"/>
+      <c r="A203" s="23"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="22"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
       <c r="I203" s="18"/>
     </row>
     <row r="204">
-      <c r="A204" s="19"/>
-      <c r="F204" s="18"/>
+      <c r="A204" s="23"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="22"/>
       <c r="G204" s="18"/>
       <c r="H204" s="18"/>
       <c r="I204" s="18"/>
     </row>
     <row r="205">
-      <c r="A205" s="19"/>
-      <c r="F205" s="18"/>
+      <c r="A205" s="23"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="22"/>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
       <c r="I205" s="18"/>
     </row>
     <row r="206">
-      <c r="A206" s="19"/>
-      <c r="F206" s="18"/>
+      <c r="A206" s="23"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="22"/>
       <c r="G206" s="18"/>
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="19"/>
-      <c r="F207" s="18"/>
+      <c r="A207" s="23"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="22"/>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
     </row>
     <row r="208">
-      <c r="A208" s="19"/>
-      <c r="F208" s="18"/>
+      <c r="A208" s="23"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="22"/>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="19"/>
-      <c r="F209" s="18"/>
+      <c r="A209" s="23"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="22"/>
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="19"/>
-      <c r="F210" s="18"/>
+      <c r="A210" s="23"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="22"/>
       <c r="G210" s="18"/>
       <c r="H210" s="18"/>
       <c r="I210" s="18"/>
     </row>
     <row r="211">
-      <c r="A211" s="19"/>
-      <c r="F211" s="18"/>
+      <c r="A211" s="23"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="22"/>
       <c r="G211" s="18"/>
       <c r="H211" s="18"/>
       <c r="I211" s="18"/>
     </row>
     <row r="212">
-      <c r="A212" s="19"/>
-      <c r="F212" s="18"/>
+      <c r="A212" s="23"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="22"/>
       <c r="G212" s="18"/>
       <c r="H212" s="18"/>
       <c r="I212" s="18"/>
     </row>
     <row r="213">
-      <c r="A213" s="19"/>
-      <c r="F213" s="18"/>
+      <c r="A213" s="23"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="22"/>
       <c r="G213" s="18"/>
       <c r="H213" s="18"/>
       <c r="I213" s="18"/>
     </row>
     <row r="214">
-      <c r="A214" s="19"/>
-      <c r="F214" s="18"/>
+      <c r="A214" s="23"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="22"/>
       <c r="G214" s="18"/>
       <c r="H214" s="18"/>
       <c r="I214" s="18"/>
     </row>
     <row r="215">
-      <c r="A215" s="19"/>
-      <c r="F215" s="18"/>
+      <c r="A215" s="23"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="22"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
       <c r="I215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="19"/>
-      <c r="F216" s="18"/>
+      <c r="A216" s="23"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="22"/>
       <c r="G216" s="18"/>
       <c r="H216" s="18"/>
       <c r="I216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="19"/>
-      <c r="F217" s="18"/>
+      <c r="A217" s="23"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="22"/>
       <c r="G217" s="18"/>
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="19"/>
-      <c r="F218" s="18"/>
+      <c r="A218" s="23"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="22"/>
       <c r="G218" s="18"/>
       <c r="H218" s="18"/>
       <c r="I218" s="18"/>
     </row>
     <row r="219">
-      <c r="A219" s="19"/>
-      <c r="F219" s="18"/>
+      <c r="A219" s="23"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="22"/>
       <c r="G219" s="18"/>
       <c r="H219" s="18"/>
       <c r="I219" s="18"/>
     </row>
     <row r="220">
-      <c r="A220" s="19"/>
-      <c r="F220" s="18"/>
+      <c r="A220" s="23"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="22"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18"/>
       <c r="I220" s="18"/>
     </row>
     <row r="221">
-      <c r="A221" s="19"/>
-      <c r="F221" s="18"/>
+      <c r="A221" s="23"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="22"/>
       <c r="G221" s="18"/>
       <c r="H221" s="18"/>
       <c r="I221" s="18"/>
     </row>
     <row r="222">
-      <c r="A222" s="19"/>
-      <c r="F222" s="18"/>
+      <c r="A222" s="23"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="22"/>
       <c r="G222" s="18"/>
       <c r="H222" s="18"/>
       <c r="I222" s="18"/>
     </row>
     <row r="223">
-      <c r="A223" s="19"/>
-      <c r="F223" s="18"/>
+      <c r="A223" s="23"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="22"/>
       <c r="G223" s="18"/>
       <c r="H223" s="18"/>
       <c r="I223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="19"/>
-      <c r="F224" s="18"/>
+      <c r="A224" s="23"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="22"/>
       <c r="G224" s="18"/>
       <c r="H224" s="18"/>
       <c r="I224" s="18"/>
     </row>
     <row r="225">
-      <c r="A225" s="19"/>
-      <c r="F225" s="18"/>
+      <c r="A225" s="23"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="22"/>
       <c r="G225" s="18"/>
       <c r="H225" s="18"/>
       <c r="I225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="19"/>
-      <c r="F226" s="18"/>
+      <c r="A226" s="23"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="22"/>
       <c r="G226" s="18"/>
       <c r="H226" s="18"/>
       <c r="I226" s="18"/>
     </row>
     <row r="227">
-      <c r="A227" s="19"/>
-      <c r="F227" s="18"/>
+      <c r="A227" s="23"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="22"/>
       <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
     </row>
     <row r="228">
-      <c r="A228" s="19"/>
-      <c r="F228" s="18"/>
+      <c r="A228" s="23"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="22"/>
       <c r="G228" s="18"/>
       <c r="H228" s="18"/>
       <c r="I228" s="18"/>
     </row>
     <row r="229">
-      <c r="A229" s="19"/>
-      <c r="F229" s="18"/>
+      <c r="A229" s="23"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="22"/>
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
       <c r="I229" s="18"/>
     </row>
     <row r="230">
-      <c r="A230" s="19"/>
-      <c r="F230" s="18"/>
+      <c r="A230" s="23"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="22"/>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
       <c r="I230" s="18"/>
     </row>
     <row r="231">
-      <c r="A231" s="19"/>
-      <c r="F231" s="18"/>
+      <c r="A231" s="23"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="22"/>
       <c r="G231" s="18"/>
       <c r="H231" s="18"/>
       <c r="I231" s="18"/>
     </row>
     <row r="232">
-      <c r="A232" s="19"/>
-      <c r="F232" s="18"/>
+      <c r="A232" s="23"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="22"/>
       <c r="G232" s="18"/>
       <c r="H232" s="18"/>
       <c r="I232" s="18"/>
     </row>
     <row r="233">
-      <c r="A233" s="19"/>
-      <c r="F233" s="18"/>
+      <c r="A233" s="23"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="22"/>
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
       <c r="I233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="19"/>
-      <c r="F234" s="18"/>
+      <c r="A234" s="23"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="22"/>
       <c r="G234" s="18"/>
       <c r="H234" s="18"/>
       <c r="I234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="19"/>
-      <c r="F235" s="18"/>
+      <c r="A235" s="23"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="22"/>
       <c r="G235" s="18"/>
       <c r="H235" s="18"/>
       <c r="I235" s="18"/>
     </row>
     <row r="236">
-      <c r="A236" s="19"/>
-      <c r="F236" s="18"/>
+      <c r="A236" s="23"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="22"/>
       <c r="G236" s="18"/>
       <c r="H236" s="18"/>
       <c r="I236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="19"/>
-      <c r="F237" s="18"/>
+      <c r="A237" s="23"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="22"/>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
       <c r="I237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="19"/>
-      <c r="F238" s="18"/>
+      <c r="A238" s="23"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="22"/>
       <c r="G238" s="18"/>
       <c r="H238" s="18"/>
       <c r="I238" s="18"/>
     </row>
     <row r="239">
-      <c r="A239" s="19"/>
-      <c r="F239" s="18"/>
+      <c r="A239" s="23"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="22"/>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
       <c r="I239" s="18"/>
     </row>
     <row r="240">
-      <c r="A240" s="19"/>
-      <c r="F240" s="18"/>
+      <c r="A240" s="23"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="22"/>
       <c r="G240" s="18"/>
       <c r="H240" s="18"/>
       <c r="I240" s="18"/>
     </row>
     <row r="241">
-      <c r="A241" s="19"/>
-      <c r="F241" s="18"/>
+      <c r="A241" s="23"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="22"/>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
       <c r="I241" s="18"/>
     </row>
     <row r="242">
-      <c r="A242" s="19"/>
-      <c r="F242" s="18"/>
+      <c r="A242" s="23"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="22"/>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
       <c r="I242" s="18"/>
     </row>
     <row r="243">
-      <c r="A243" s="19"/>
-      <c r="F243" s="18"/>
+      <c r="A243" s="23"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="22"/>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
       <c r="I243" s="18"/>
     </row>
     <row r="244">
-      <c r="A244" s="19"/>
-      <c r="F244" s="18"/>
+      <c r="A244" s="23"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="22"/>
       <c r="G244" s="18"/>
       <c r="H244" s="18"/>
       <c r="I244" s="18"/>
     </row>
     <row r="245">
-      <c r="A245" s="19"/>
-      <c r="F245" s="18"/>
+      <c r="A245" s="23"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="22"/>
       <c r="G245" s="18"/>
       <c r="H245" s="18"/>
       <c r="I245" s="18"/>
     </row>
     <row r="246">
-      <c r="A246" s="19"/>
-      <c r="F246" s="18"/>
+      <c r="A246" s="23"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="22"/>
       <c r="G246" s="18"/>
       <c r="H246" s="18"/>
       <c r="I246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="19"/>
-      <c r="F247" s="18"/>
+      <c r="A247" s="23"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="22"/>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
       <c r="I247" s="18"/>
     </row>
     <row r="248">
-      <c r="A248" s="19"/>
-      <c r="F248" s="18"/>
+      <c r="A248" s="23"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="22"/>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
       <c r="I248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="19"/>
-      <c r="F249" s="18"/>
+      <c r="A249" s="23"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="22"/>
       <c r="G249" s="18"/>
       <c r="H249" s="18"/>
       <c r="I249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="19"/>
-      <c r="F250" s="18"/>
+      <c r="A250" s="23"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="22"/>
       <c r="G250" s="18"/>
       <c r="H250" s="18"/>
       <c r="I250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="19"/>
-      <c r="F251" s="18"/>
+      <c r="A251" s="23"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="22"/>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="19"/>
-      <c r="F252" s="18"/>
+      <c r="A252" s="23"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="22"/>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
       <c r="I252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="19"/>
-      <c r="F253" s="18"/>
+      <c r="A253" s="23"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="22"/>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
       <c r="I253" s="18"/>
     </row>
     <row r="254">
-      <c r="A254" s="19"/>
-      <c r="F254" s="18"/>
+      <c r="A254" s="23"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="22"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
       <c r="I254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="19"/>
-      <c r="F255" s="18"/>
+      <c r="A255" s="23"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="22"/>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
       <c r="I255" s="18"/>
     </row>
     <row r="256">
-      <c r="A256" s="19"/>
-      <c r="F256" s="18"/>
+      <c r="A256" s="23"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="22"/>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
       <c r="I256" s="18"/>
     </row>
     <row r="257">
-      <c r="A257" s="19"/>
-      <c r="F257" s="18"/>
+      <c r="A257" s="23"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="22"/>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
     </row>
     <row r="258">
-      <c r="A258" s="19"/>
-      <c r="F258" s="18"/>
+      <c r="A258" s="23"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="22"/>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
     </row>
     <row r="259">
-      <c r="A259" s="19"/>
-      <c r="F259" s="18"/>
+      <c r="A259" s="23"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="22"/>
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
       <c r="I259" s="18"/>
     </row>
     <row r="260">
-      <c r="A260" s="19"/>
-      <c r="F260" s="18"/>
+      <c r="A260" s="23"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="22"/>
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="19"/>
-      <c r="F261" s="18"/>
+      <c r="A261" s="23"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="22"/>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
     </row>
     <row r="262">
-      <c r="A262" s="19"/>
-      <c r="F262" s="18"/>
+      <c r="A262" s="23"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="22"/>
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
     </row>
     <row r="263">
-      <c r="A263" s="19"/>
-      <c r="F263" s="18"/>
+      <c r="A263" s="23"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="22"/>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
     </row>
     <row r="264">
-      <c r="A264" s="19"/>
-      <c r="F264" s="18"/>
+      <c r="A264" s="23"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="22"/>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
       <c r="I264" s="18"/>
     </row>
     <row r="265">
-      <c r="A265" s="19"/>
-      <c r="F265" s="18"/>
+      <c r="A265" s="23"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="22"/>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
       <c r="I265" s="18"/>
     </row>
     <row r="266">
-      <c r="A266" s="19"/>
-      <c r="F266" s="18"/>
+      <c r="A266" s="23"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="22"/>
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
       <c r="I266" s="18"/>
     </row>
     <row r="267">
-      <c r="A267" s="19"/>
-      <c r="F267" s="18"/>
+      <c r="A267" s="23"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="22"/>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
     </row>
     <row r="268">
-      <c r="A268" s="19"/>
-      <c r="F268" s="18"/>
+      <c r="A268" s="23"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="22"/>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
     </row>
     <row r="269">
-      <c r="A269" s="19"/>
-      <c r="F269" s="18"/>
+      <c r="A269" s="23"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="22"/>
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
     </row>
     <row r="270">
-      <c r="A270" s="19"/>
-      <c r="F270" s="18"/>
+      <c r="A270" s="23"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="22"/>
       <c r="G270" s="18"/>
       <c r="H270" s="18"/>
       <c r="I270" s="18"/>
     </row>
     <row r="271">
-      <c r="A271" s="19"/>
-      <c r="F271" s="18"/>
+      <c r="A271" s="23"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="22"/>
       <c r="G271" s="18"/>
       <c r="H271" s="18"/>
       <c r="I271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="19"/>
-      <c r="F272" s="18"/>
+      <c r="A272" s="23"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="22"/>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
       <c r="I272" s="18"/>
     </row>
     <row r="273">
-      <c r="A273" s="19"/>
-      <c r="F273" s="18"/>
+      <c r="A273" s="23"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="22"/>
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
       <c r="I273" s="18"/>
     </row>
     <row r="274">
-      <c r="A274" s="19"/>
-      <c r="F274" s="18"/>
+      <c r="A274" s="23"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="22"/>
       <c r="G274" s="18"/>
       <c r="H274" s="18"/>
       <c r="I274" s="18"/>
     </row>
     <row r="275">
-      <c r="A275" s="19"/>
-      <c r="F275" s="18"/>
+      <c r="A275" s="23"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="22"/>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
       <c r="I275" s="18"/>
     </row>
     <row r="276">
-      <c r="A276" s="19"/>
-      <c r="F276" s="18"/>
+      <c r="A276" s="23"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="22"/>
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
       <c r="I276" s="18"/>
     </row>
     <row r="277">
-      <c r="A277" s="19"/>
-      <c r="F277" s="18"/>
+      <c r="A277" s="23"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="22"/>
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
       <c r="I277" s="18"/>
     </row>
     <row r="278">
-      <c r="A278" s="19"/>
-      <c r="F278" s="18"/>
+      <c r="A278" s="23"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="22"/>
       <c r="G278" s="18"/>
       <c r="H278" s="18"/>
       <c r="I278" s="18"/>
     </row>
     <row r="279">
-      <c r="A279" s="19"/>
-      <c r="F279" s="18"/>
+      <c r="A279" s="23"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="22"/>
       <c r="G279" s="18"/>
       <c r="H279" s="18"/>
       <c r="I279" s="18"/>
     </row>
     <row r="280">
-      <c r="A280" s="19"/>
-      <c r="F280" s="18"/>
+      <c r="A280" s="23"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="22"/>
       <c r="G280" s="18"/>
       <c r="H280" s="18"/>
       <c r="I280" s="18"/>
     </row>
     <row r="281">
-      <c r="A281" s="19"/>
-      <c r="F281" s="18"/>
+      <c r="A281" s="23"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="22"/>
       <c r="G281" s="18"/>
       <c r="H281" s="18"/>
       <c r="I281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="19"/>
-      <c r="F282" s="18"/>
+      <c r="A282" s="23"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="22"/>
       <c r="G282" s="18"/>
       <c r="H282" s="18"/>
       <c r="I282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="19"/>
-      <c r="F283" s="18"/>
+      <c r="A283" s="23"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="22"/>
       <c r="G283" s="18"/>
       <c r="H283" s="18"/>
       <c r="I283" s="18"/>
     </row>
     <row r="284">
-      <c r="A284" s="19"/>
-      <c r="F284" s="18"/>
+      <c r="A284" s="23"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="22"/>
       <c r="G284" s="18"/>
       <c r="H284" s="18"/>
       <c r="I284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="19"/>
-      <c r="F285" s="18"/>
+      <c r="A285" s="23"/>
+      <c r="E285" s="21"/>
+      <c r="F285" s="22"/>
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
       <c r="I285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="19"/>
-      <c r="F286" s="18"/>
+      <c r="A286" s="23"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="22"/>
       <c r="G286" s="18"/>
       <c r="H286" s="18"/>
       <c r="I286" s="18"/>
     </row>
     <row r="287">
-      <c r="A287" s="19"/>
-      <c r="F287" s="18"/>
+      <c r="A287" s="23"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="22"/>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18"/>
     </row>
     <row r="288">
-      <c r="A288" s="19"/>
-      <c r="F288" s="18"/>
+      <c r="A288" s="23"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="22"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
     </row>
     <row r="289">
-      <c r="A289" s="19"/>
-      <c r="F289" s="18"/>
+      <c r="A289" s="23"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="22"/>
       <c r="G289" s="18"/>
       <c r="H289" s="18"/>
       <c r="I289" s="18"/>
     </row>
     <row r="290">
-      <c r="A290" s="19"/>
-      <c r="F290" s="18"/>
+      <c r="A290" s="23"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="22"/>
       <c r="G290" s="18"/>
       <c r="H290" s="18"/>
       <c r="I290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="19"/>
-      <c r="F291" s="18"/>
+      <c r="A291" s="23"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="22"/>
       <c r="G291" s="18"/>
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="19"/>
-      <c r="F292" s="18"/>
+      <c r="A292" s="23"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="22"/>
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
       <c r="I292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="19"/>
-      <c r="F293" s="18"/>
+      <c r="A293" s="23"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="22"/>
       <c r="G293" s="18"/>
       <c r="H293" s="18"/>
       <c r="I293" s="18"/>
     </row>
     <row r="294">
-      <c r="A294" s="19"/>
-      <c r="F294" s="18"/>
+      <c r="A294" s="23"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="22"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="19"/>
-      <c r="F295" s="18"/>
+      <c r="A295" s="23"/>
+      <c r="E295" s="21"/>
+      <c r="F295" s="22"/>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
     </row>
     <row r="296">
-      <c r="A296" s="19"/>
-      <c r="F296" s="18"/>
+      <c r="A296" s="23"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="22"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
     </row>
     <row r="297">
-      <c r="A297" s="19"/>
-      <c r="F297" s="18"/>
+      <c r="A297" s="23"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="22"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
       <c r="I297" s="18"/>
     </row>
     <row r="298">
-      <c r="A298" s="19"/>
-      <c r="F298" s="18"/>
+      <c r="A298" s="23"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="22"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
     </row>
     <row r="299">
-      <c r="A299" s="19"/>
-      <c r="F299" s="18"/>
+      <c r="A299" s="23"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="22"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
       <c r="I299" s="18"/>
     </row>
     <row r="300">
-      <c r="A300" s="19"/>
-      <c r="F300" s="18"/>
+      <c r="A300" s="23"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="22"/>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
       <c r="I300" s="18"/>
     </row>
     <row r="301">
-      <c r="A301" s="19"/>
-      <c r="F301" s="18"/>
+      <c r="A301" s="23"/>
+      <c r="E301" s="21"/>
+      <c r="F301" s="22"/>
       <c r="G301" s="18"/>
       <c r="H301" s="18"/>
       <c r="I301" s="18"/>
     </row>
     <row r="302">
-      <c r="A302" s="19"/>
-      <c r="F302" s="18"/>
+      <c r="A302" s="23"/>
+      <c r="E302" s="21"/>
+      <c r="F302" s="22"/>
       <c r="G302" s="18"/>
       <c r="H302" s="18"/>
       <c r="I302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="19"/>
-      <c r="F303" s="18"/>
+      <c r="A303" s="23"/>
+      <c r="E303" s="21"/>
+      <c r="F303" s="22"/>
       <c r="G303" s="18"/>
       <c r="H303" s="18"/>
       <c r="I303" s="18"/>
     </row>
     <row r="304">
-      <c r="A304" s="19"/>
-      <c r="F304" s="18"/>
+      <c r="A304" s="23"/>
+      <c r="E304" s="21"/>
+      <c r="F304" s="22"/>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
       <c r="I304" s="18"/>
     </row>
     <row r="305">
-      <c r="A305" s="19"/>
-      <c r="F305" s="18"/>
+      <c r="A305" s="23"/>
+      <c r="E305" s="21"/>
+      <c r="F305" s="22"/>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
       <c r="I305" s="18"/>
     </row>
     <row r="306">
-      <c r="A306" s="19"/>
-      <c r="F306" s="18"/>
+      <c r="A306" s="23"/>
+      <c r="E306" s="21"/>
+      <c r="F306" s="22"/>
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="19"/>
-      <c r="F307" s="18"/>
+      <c r="A307" s="23"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="22"/>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
       <c r="I307" s="18"/>
     </row>
     <row r="308">
-      <c r="A308" s="19"/>
-      <c r="F308" s="18"/>
+      <c r="A308" s="23"/>
+      <c r="E308" s="21"/>
+      <c r="F308" s="22"/>
       <c r="G308" s="18"/>
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
     </row>
     <row r="309">
-      <c r="A309" s="19"/>
-      <c r="F309" s="18"/>
+      <c r="A309" s="23"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="22"/>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
       <c r="I309" s="18"/>
     </row>
     <row r="310">
-      <c r="A310" s="19"/>
-      <c r="F310" s="18"/>
+      <c r="A310" s="23"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="22"/>
       <c r="G310" s="18"/>
       <c r="H310" s="18"/>
       <c r="I310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="19"/>
-      <c r="F311" s="18"/>
+      <c r="A311" s="23"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="22"/>
       <c r="G311" s="18"/>
       <c r="H311" s="18"/>
       <c r="I311" s="18"/>
     </row>
     <row r="312">
-      <c r="A312" s="19"/>
-      <c r="F312" s="18"/>
+      <c r="A312" s="23"/>
+      <c r="E312" s="21"/>
+      <c r="F312" s="22"/>
       <c r="G312" s="18"/>
       <c r="H312" s="18"/>
       <c r="I312" s="18"/>
     </row>
     <row r="313">
-      <c r="A313" s="19"/>
-      <c r="F313" s="18"/>
+      <c r="A313" s="23"/>
+      <c r="E313" s="21"/>
+      <c r="F313" s="22"/>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
       <c r="I313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="19"/>
-      <c r="F314" s="18"/>
+      <c r="A314" s="23"/>
+      <c r="E314" s="21"/>
+      <c r="F314" s="22"/>
       <c r="G314" s="18"/>
       <c r="H314" s="18"/>
       <c r="I314" s="18"/>
     </row>
     <row r="315">
-      <c r="A315" s="19"/>
-      <c r="F315" s="18"/>
+      <c r="A315" s="23"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="22"/>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
     </row>
     <row r="316">
-      <c r="A316" s="19"/>
-      <c r="F316" s="18"/>
+      <c r="A316" s="23"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="22"/>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
       <c r="I316" s="18"/>
     </row>
     <row r="317">
-      <c r="A317" s="19"/>
-      <c r="F317" s="18"/>
+      <c r="A317" s="23"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="22"/>
       <c r="G317" s="18"/>
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="19"/>
-      <c r="F318" s="18"/>
+      <c r="A318" s="23"/>
+      <c r="E318" s="21"/>
+      <c r="F318" s="22"/>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
       <c r="I318" s="18"/>
     </row>
     <row r="319">
-      <c r="A319" s="19"/>
-      <c r="F319" s="18"/>
+      <c r="A319" s="23"/>
+      <c r="E319" s="21"/>
+      <c r="F319" s="22"/>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
       <c r="I319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="19"/>
-      <c r="F320" s="18"/>
+      <c r="A320" s="23"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="22"/>
       <c r="G320" s="18"/>
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
     </row>
     <row r="321">
-      <c r="A321" s="19"/>
-      <c r="F321" s="18"/>
+      <c r="A321" s="23"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="22"/>
       <c r="G321" s="18"/>
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
     </row>
     <row r="322">
-      <c r="A322" s="19"/>
-      <c r="F322" s="18"/>
+      <c r="A322" s="23"/>
+      <c r="E322" s="21"/>
+      <c r="F322" s="22"/>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
     </row>
     <row r="323">
-      <c r="A323" s="19"/>
-      <c r="F323" s="18"/>
+      <c r="A323" s="23"/>
+      <c r="E323" s="21"/>
+      <c r="F323" s="22"/>
       <c r="G323" s="18"/>
       <c r="H323" s="18"/>
       <c r="I323" s="18"/>
     </row>
     <row r="324">
-      <c r="A324" s="19"/>
-      <c r="F324" s="18"/>
+      <c r="A324" s="23"/>
+      <c r="E324" s="21"/>
+      <c r="F324" s="22"/>
       <c r="G324" s="18"/>
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
     </row>
     <row r="325">
-      <c r="A325" s="19"/>
-      <c r="F325" s="18"/>
+      <c r="A325" s="23"/>
+      <c r="E325" s="21"/>
+      <c r="F325" s="22"/>
       <c r="G325" s="18"/>
       <c r="H325" s="18"/>
       <c r="I325" s="18"/>
     </row>
     <row r="326">
-      <c r="A326" s="19"/>
-      <c r="F326" s="18"/>
+      <c r="A326" s="23"/>
+      <c r="E326" s="21"/>
+      <c r="F326" s="22"/>
       <c r="G326" s="18"/>
       <c r="H326" s="18"/>
       <c r="I326" s="18"/>
     </row>
     <row r="327">
-      <c r="A327" s="19"/>
-      <c r="F327" s="18"/>
+      <c r="A327" s="23"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="22"/>
       <c r="G327" s="18"/>
       <c r="H327" s="18"/>
       <c r="I327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="19"/>
-      <c r="F328" s="18"/>
+      <c r="A328" s="23"/>
+      <c r="E328" s="21"/>
+      <c r="F328" s="22"/>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
       <c r="I328" s="18"/>
     </row>
     <row r="329">
-      <c r="A329" s="19"/>
-      <c r="F329" s="18"/>
+      <c r="A329" s="23"/>
+      <c r="E329" s="21"/>
+      <c r="F329" s="22"/>
       <c r="G329" s="18"/>
       <c r="H329" s="18"/>
       <c r="I329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="19"/>
-      <c r="F330" s="18"/>
+      <c r="A330" s="23"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="22"/>
       <c r="G330" s="18"/>
       <c r="H330" s="18"/>
       <c r="I330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="19"/>
-      <c r="F331" s="18"/>
+      <c r="A331" s="23"/>
+      <c r="E331" s="21"/>
+      <c r="F331" s="22"/>
       <c r="G331" s="18"/>
       <c r="H331" s="18"/>
       <c r="I331" s="18"/>
     </row>
     <row r="332">
-      <c r="A332" s="19"/>
-      <c r="F332" s="18"/>
+      <c r="A332" s="23"/>
+      <c r="E332" s="21"/>
+      <c r="F332" s="22"/>
       <c r="G332" s="18"/>
       <c r="H332" s="18"/>
       <c r="I332" s="18"/>
     </row>
     <row r="333">
-      <c r="A333" s="19"/>
-      <c r="F333" s="18"/>
+      <c r="A333" s="23"/>
+      <c r="E333" s="21"/>
+      <c r="F333" s="22"/>
       <c r="G333" s="18"/>
       <c r="H333" s="18"/>
       <c r="I333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="19"/>
-      <c r="F334" s="18"/>
+      <c r="A334" s="23"/>
+      <c r="E334" s="21"/>
+      <c r="F334" s="22"/>
       <c r="G334" s="18"/>
       <c r="H334" s="18"/>
       <c r="I334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="19"/>
-      <c r="F335" s="18"/>
+      <c r="A335" s="23"/>
+      <c r="E335" s="21"/>
+      <c r="F335" s="22"/>
       <c r="G335" s="18"/>
       <c r="H335" s="18"/>
       <c r="I335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="19"/>
-      <c r="F336" s="18"/>
+      <c r="A336" s="23"/>
+      <c r="E336" s="21"/>
+      <c r="F336" s="22"/>
       <c r="G336" s="18"/>
       <c r="H336" s="18"/>
       <c r="I336" s="18"/>
     </row>
     <row r="337">
-      <c r="A337" s="19"/>
-      <c r="F337" s="18"/>
+      <c r="A337" s="23"/>
+      <c r="E337" s="21"/>
+      <c r="F337" s="22"/>
       <c r="G337" s="18"/>
       <c r="H337" s="18"/>
       <c r="I337" s="18"/>
     </row>
     <row r="338">
-      <c r="A338" s="19"/>
-      <c r="F338" s="18"/>
+      <c r="A338" s="23"/>
+      <c r="E338" s="21"/>
+      <c r="F338" s="22"/>
       <c r="G338" s="18"/>
       <c r="H338" s="18"/>
       <c r="I338" s="18"/>
     </row>
     <row r="339">
-      <c r="A339" s="19"/>
-      <c r="F339" s="18"/>
+      <c r="A339" s="23"/>
+      <c r="E339" s="21"/>
+      <c r="F339" s="22"/>
       <c r="G339" s="18"/>
       <c r="H339" s="18"/>
       <c r="I339" s="18"/>
     </row>
     <row r="340">
-      <c r="A340" s="19"/>
-      <c r="F340" s="18"/>
+      <c r="A340" s="23"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="22"/>
       <c r="G340" s="18"/>
       <c r="H340" s="18"/>
       <c r="I340" s="18"/>
     </row>
     <row r="341">
-      <c r="A341" s="19"/>
-      <c r="F341" s="18"/>
+      <c r="A341" s="23"/>
+      <c r="E341" s="21"/>
+      <c r="F341" s="22"/>
       <c r="G341" s="18"/>
       <c r="H341" s="18"/>
       <c r="I341" s="18"/>
     </row>
     <row r="342">
-      <c r="A342" s="19"/>
-      <c r="F342" s="18"/>
+      <c r="A342" s="23"/>
+      <c r="E342" s="21"/>
+      <c r="F342" s="22"/>
       <c r="G342" s="18"/>
       <c r="H342" s="18"/>
       <c r="I342" s="18"/>
     </row>
     <row r="343">
-      <c r="A343" s="19"/>
-      <c r="F343" s="18"/>
+      <c r="A343" s="23"/>
+      <c r="E343" s="21"/>
+      <c r="F343" s="22"/>
       <c r="G343" s="18"/>
       <c r="H343" s="18"/>
       <c r="I343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="19"/>
-      <c r="F344" s="18"/>
+      <c r="A344" s="23"/>
+      <c r="E344" s="21"/>
+      <c r="F344" s="22"/>
       <c r="G344" s="18"/>
       <c r="H344" s="18"/>
       <c r="I344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="19"/>
-      <c r="F345" s="18"/>
+      <c r="A345" s="23"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="22"/>
       <c r="G345" s="18"/>
       <c r="H345" s="18"/>
       <c r="I345" s="18"/>
     </row>
     <row r="346">
-      <c r="A346" s="19"/>
-      <c r="F346" s="18"/>
+      <c r="A346" s="23"/>
+      <c r="E346" s="21"/>
+      <c r="F346" s="22"/>
       <c r="G346" s="18"/>
       <c r="H346" s="18"/>
       <c r="I346" s="18"/>
     </row>
     <row r="347">
-      <c r="A347" s="19"/>
-      <c r="F347" s="18"/>
+      <c r="A347" s="23"/>
+      <c r="E347" s="21"/>
+      <c r="F347" s="22"/>
       <c r="G347" s="18"/>
       <c r="H347" s="18"/>
       <c r="I347" s="18"/>
     </row>
     <row r="348">
-      <c r="A348" s="19"/>
-      <c r="F348" s="18"/>
+      <c r="A348" s="23"/>
+      <c r="E348" s="21"/>
+      <c r="F348" s="22"/>
       <c r="G348" s="18"/>
       <c r="H348" s="18"/>
       <c r="I348" s="18"/>
     </row>
     <row r="349">
-      <c r="A349" s="19"/>
-      <c r="F349" s="18"/>
+      <c r="A349" s="23"/>
+      <c r="E349" s="21"/>
+      <c r="F349" s="22"/>
       <c r="G349" s="18"/>
       <c r="H349" s="18"/>
       <c r="I349" s="18"/>
     </row>
     <row r="350">
-      <c r="A350" s="19"/>
-      <c r="F350" s="18"/>
+      <c r="A350" s="23"/>
+      <c r="E350" s="21"/>
+      <c r="F350" s="22"/>
       <c r="G350" s="18"/>
       <c r="H350" s="18"/>
       <c r="I350" s="18"/>
     </row>
     <row r="351">
-      <c r="A351" s="19"/>
-      <c r="F351" s="18"/>
+      <c r="A351" s="23"/>
+      <c r="E351" s="21"/>
+      <c r="F351" s="22"/>
       <c r="G351" s="18"/>
       <c r="H351" s="18"/>
       <c r="I351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="19"/>
-      <c r="F352" s="18"/>
+      <c r="A352" s="23"/>
+      <c r="E352" s="21"/>
+      <c r="F352" s="22"/>
       <c r="G352" s="18"/>
       <c r="H352" s="18"/>
       <c r="I352" s="18"/>
     </row>
     <row r="353">
-      <c r="A353" s="19"/>
-      <c r="F353" s="18"/>
+      <c r="A353" s="23"/>
+      <c r="E353" s="21"/>
+      <c r="F353" s="22"/>
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
       <c r="I353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="19"/>
-      <c r="F354" s="18"/>
+      <c r="A354" s="23"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="22"/>
       <c r="G354" s="18"/>
       <c r="H354" s="18"/>
       <c r="I354" s="18"/>
     </row>
     <row r="355">
-      <c r="A355" s="19"/>
-      <c r="F355" s="18"/>
+      <c r="A355" s="23"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="22"/>
       <c r="G355" s="18"/>
       <c r="H355" s="18"/>
       <c r="I355" s="18"/>
     </row>
     <row r="356">
-      <c r="A356" s="19"/>
-      <c r="F356" s="18"/>
+      <c r="A356" s="23"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="22"/>
       <c r="G356" s="18"/>
       <c r="H356" s="18"/>
       <c r="I356" s="18"/>
     </row>
     <row r="357">
-      <c r="A357" s="19"/>
-      <c r="F357" s="18"/>
+      <c r="A357" s="23"/>
+      <c r="E357" s="21"/>
+      <c r="F357" s="22"/>
       <c r="G357" s="18"/>
       <c r="H357" s="18"/>
       <c r="I357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="19"/>
-      <c r="F358" s="18"/>
+      <c r="A358" s="23"/>
+      <c r="E358" s="21"/>
+      <c r="F358" s="22"/>
       <c r="G358" s="18"/>
       <c r="H358" s="18"/>
       <c r="I358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="19"/>
-      <c r="F359" s="18"/>
+      <c r="A359" s="23"/>
+      <c r="E359" s="21"/>
+      <c r="F359" s="22"/>
       <c r="G359" s="18"/>
       <c r="H359" s="18"/>
       <c r="I359" s="18"/>
     </row>
     <row r="360">
-      <c r="A360" s="19"/>
-      <c r="F360" s="18"/>
+      <c r="A360" s="23"/>
+      <c r="E360" s="21"/>
+      <c r="F360" s="22"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
       <c r="I360" s="18"/>
     </row>
     <row r="361">
-      <c r="A361" s="19"/>
-      <c r="F361" s="18"/>
+      <c r="A361" s="23"/>
+      <c r="E361" s="21"/>
+      <c r="F361" s="22"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
     </row>
     <row r="362">
-      <c r="A362" s="19"/>
-      <c r="F362" s="18"/>
+      <c r="A362" s="23"/>
+      <c r="E362" s="21"/>
+      <c r="F362" s="22"/>
       <c r="G362" s="18"/>
       <c r="H362" s="18"/>
       <c r="I362" s="18"/>
     </row>
     <row r="363">
-      <c r="A363" s="19"/>
-      <c r="F363" s="18"/>
+      <c r="A363" s="23"/>
+      <c r="E363" s="21"/>
+      <c r="F363" s="22"/>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="19"/>
-      <c r="F364" s="18"/>
+      <c r="A364" s="23"/>
+      <c r="E364" s="21"/>
+      <c r="F364" s="22"/>
       <c r="G364" s="18"/>
       <c r="H364" s="18"/>
       <c r="I364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="19"/>
-      <c r="F365" s="18"/>
+      <c r="A365" s="23"/>
+      <c r="E365" s="21"/>
+      <c r="F365" s="22"/>
       <c r="G365" s="18"/>
       <c r="H365" s="18"/>
       <c r="I365" s="18"/>
     </row>
     <row r="366">
-      <c r="A366" s="19"/>
-      <c r="F366" s="18"/>
+      <c r="A366" s="23"/>
+      <c r="E366" s="21"/>
+      <c r="F366" s="22"/>
       <c r="G366" s="18"/>
       <c r="H366" s="18"/>
       <c r="I366" s="18"/>
     </row>
     <row r="367">
-      <c r="A367" s="19"/>
-      <c r="F367" s="18"/>
+      <c r="A367" s="23"/>
+      <c r="E367" s="21"/>
+      <c r="F367" s="22"/>
       <c r="G367" s="18"/>
       <c r="H367" s="18"/>
       <c r="I367" s="18"/>
     </row>
     <row r="368">
-      <c r="A368" s="19"/>
-      <c r="F368" s="18"/>
+      <c r="A368" s="23"/>
+      <c r="E368" s="21"/>
+      <c r="F368" s="22"/>
       <c r="G368" s="18"/>
       <c r="H368" s="18"/>
       <c r="I368" s="18"/>
     </row>
     <row r="369">
-      <c r="A369" s="19"/>
-      <c r="F369" s="18"/>
+      <c r="A369" s="23"/>
+      <c r="E369" s="21"/>
+      <c r="F369" s="22"/>
       <c r="G369" s="18"/>
       <c r="H369" s="18"/>
       <c r="I369" s="18"/>
     </row>
     <row r="370">
-      <c r="A370" s="19"/>
-      <c r="F370" s="18"/>
+      <c r="A370" s="23"/>
+      <c r="E370" s="21"/>
+      <c r="F370" s="22"/>
       <c r="G370" s="18"/>
       <c r="H370" s="18"/>
       <c r="I370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="19"/>
-      <c r="F371" s="18"/>
+      <c r="A371" s="23"/>
+      <c r="E371" s="21"/>
+      <c r="F371" s="22"/>
       <c r="G371" s="18"/>
       <c r="H371" s="18"/>
       <c r="I371" s="18"/>
     </row>
     <row r="372">
-      <c r="A372" s="19"/>
-      <c r="F372" s="18"/>
+      <c r="A372" s="23"/>
+      <c r="E372" s="21"/>
+      <c r="F372" s="22"/>
       <c r="G372" s="18"/>
       <c r="H372" s="18"/>
       <c r="I372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="19"/>
-      <c r="F373" s="18"/>
+      <c r="A373" s="23"/>
+      <c r="E373" s="21"/>
+      <c r="F373" s="22"/>
       <c r="G373" s="18"/>
       <c r="H373" s="18"/>
       <c r="I373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="19"/>
-      <c r="F374" s="18"/>
+      <c r="A374" s="23"/>
+      <c r="E374" s="21"/>
+      <c r="F374" s="22"/>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
       <c r="I374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="19"/>
-      <c r="F375" s="18"/>
+      <c r="A375" s="23"/>
+      <c r="E375" s="21"/>
+      <c r="F375" s="22"/>
       <c r="G375" s="18"/>
       <c r="H375" s="18"/>
       <c r="I375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="19"/>
-      <c r="F376" s="18"/>
+      <c r="A376" s="23"/>
+      <c r="E376" s="21"/>
+      <c r="F376" s="22"/>
       <c r="G376" s="18"/>
       <c r="H376" s="18"/>
       <c r="I376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="19"/>
-      <c r="F377" s="18"/>
+      <c r="A377" s="23"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="22"/>
       <c r="G377" s="18"/>
       <c r="H377" s="18"/>
       <c r="I377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="19"/>
-      <c r="F378" s="18"/>
+      <c r="A378" s="23"/>
+      <c r="E378" s="21"/>
+      <c r="F378" s="22"/>
       <c r="G378" s="18"/>
       <c r="H378" s="18"/>
       <c r="I378" s="18"/>
     </row>
     <row r="379">
-      <c r="A379" s="19"/>
-      <c r="F379" s="18"/>
+      <c r="A379" s="23"/>
+      <c r="E379" s="21"/>
+      <c r="F379" s="22"/>
       <c r="G379" s="18"/>
       <c r="H379" s="18"/>
       <c r="I379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="19"/>
-      <c r="F380" s="18"/>
+      <c r="A380" s="23"/>
+      <c r="E380" s="21"/>
+      <c r="F380" s="22"/>
       <c r="G380" s="18"/>
       <c r="H380" s="18"/>
       <c r="I380" s="18"/>
     </row>
     <row r="381">
-      <c r="A381" s="19"/>
-      <c r="F381" s="18"/>
+      <c r="A381" s="23"/>
+      <c r="E381" s="21"/>
+      <c r="F381" s="22"/>
       <c r="G381" s="18"/>
       <c r="H381" s="18"/>
       <c r="I381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="19"/>
-      <c r="F382" s="18"/>
+      <c r="A382" s="23"/>
+      <c r="E382" s="21"/>
+      <c r="F382" s="22"/>
       <c r="G382" s="18"/>
       <c r="H382" s="18"/>
       <c r="I382" s="18"/>
     </row>
     <row r="383">
-      <c r="A383" s="19"/>
-      <c r="F383" s="18"/>
+      <c r="A383" s="23"/>
+      <c r="E383" s="21"/>
+      <c r="F383" s="22"/>
       <c r="G383" s="18"/>
       <c r="H383" s="18"/>
       <c r="I383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="19"/>
-      <c r="F384" s="18"/>
+      <c r="A384" s="23"/>
+      <c r="E384" s="21"/>
+      <c r="F384" s="22"/>
       <c r="G384" s="18"/>
       <c r="H384" s="18"/>
       <c r="I384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="19"/>
-      <c r="F385" s="18"/>
+      <c r="A385" s="23"/>
+      <c r="E385" s="21"/>
+      <c r="F385" s="22"/>
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
       <c r="I385" s="18"/>
     </row>
     <row r="386">
-      <c r="A386" s="19"/>
-      <c r="F386" s="18"/>
+      <c r="A386" s="23"/>
+      <c r="E386" s="21"/>
+      <c r="F386" s="22"/>
       <c r="G386" s="18"/>
       <c r="H386" s="18"/>
       <c r="I386" s="18"/>
     </row>
     <row r="387">
-      <c r="A387" s="19"/>
-      <c r="F387" s="18"/>
+      <c r="A387" s="23"/>
+      <c r="E387" s="21"/>
+      <c r="F387" s="22"/>
       <c r="G387" s="18"/>
       <c r="H387" s="18"/>
       <c r="I387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="19"/>
-      <c r="F388" s="18"/>
+      <c r="A388" s="23"/>
+      <c r="E388" s="21"/>
+      <c r="F388" s="22"/>
       <c r="G388" s="18"/>
       <c r="H388" s="18"/>
       <c r="I388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="19"/>
-      <c r="F389" s="18"/>
+      <c r="A389" s="23"/>
+      <c r="E389" s="21"/>
+      <c r="F389" s="22"/>
       <c r="G389" s="18"/>
       <c r="H389" s="18"/>
       <c r="I389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="19"/>
-      <c r="F390" s="18"/>
+      <c r="A390" s="23"/>
+      <c r="E390" s="21"/>
+      <c r="F390" s="22"/>
       <c r="G390" s="18"/>
       <c r="H390" s="18"/>
       <c r="I390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="19"/>
-      <c r="F391" s="18"/>
+      <c r="A391" s="23"/>
+      <c r="E391" s="21"/>
+      <c r="F391" s="22"/>
       <c r="G391" s="18"/>
       <c r="H391" s="18"/>
       <c r="I391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="19"/>
-      <c r="F392" s="18"/>
+      <c r="A392" s="23"/>
+      <c r="E392" s="21"/>
+      <c r="F392" s="22"/>
       <c r="G392" s="18"/>
       <c r="H392" s="18"/>
       <c r="I392" s="18"/>
     </row>
     <row r="393">
-      <c r="A393" s="19"/>
-      <c r="F393" s="18"/>
+      <c r="A393" s="23"/>
+      <c r="E393" s="21"/>
+      <c r="F393" s="22"/>
       <c r="G393" s="18"/>
       <c r="H393" s="18"/>
       <c r="I393" s="18"/>
     </row>
     <row r="394">
-      <c r="A394" s="19"/>
-      <c r="F394" s="18"/>
+      <c r="A394" s="23"/>
+      <c r="E394" s="21"/>
+      <c r="F394" s="22"/>
       <c r="G394" s="18"/>
       <c r="H394" s="18"/>
       <c r="I394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="19"/>
-      <c r="F395" s="18"/>
+      <c r="A395" s="23"/>
+      <c r="E395" s="21"/>
+      <c r="F395" s="22"/>
       <c r="G395" s="18"/>
       <c r="H395" s="18"/>
       <c r="I395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="19"/>
-      <c r="F396" s="18"/>
+      <c r="A396" s="23"/>
+      <c r="E396" s="21"/>
+      <c r="F396" s="22"/>
       <c r="G396" s="18"/>
       <c r="H396" s="18"/>
       <c r="I396" s="18"/>
     </row>
     <row r="397">
-      <c r="A397" s="19"/>
-      <c r="F397" s="18"/>
+      <c r="A397" s="23"/>
+      <c r="E397" s="21"/>
+      <c r="F397" s="22"/>
       <c r="G397" s="18"/>
       <c r="H397" s="18"/>
       <c r="I397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="19"/>
-      <c r="F398" s="18"/>
+      <c r="A398" s="23"/>
+      <c r="E398" s="21"/>
+      <c r="F398" s="22"/>
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
       <c r="I398" s="18"/>
     </row>
     <row r="399">
-      <c r="A399" s="19"/>
-      <c r="F399" s="18"/>
+      <c r="A399" s="23"/>
+      <c r="E399" s="21"/>
+      <c r="F399" s="22"/>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
       <c r="I399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="19"/>
-      <c r="F400" s="18"/>
+      <c r="A400" s="23"/>
+      <c r="E400" s="21"/>
+      <c r="F400" s="22"/>
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
       <c r="I400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="19"/>
-      <c r="F401" s="18"/>
+      <c r="A401" s="23"/>
+      <c r="E401" s="21"/>
+      <c r="F401" s="22"/>
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
       <c r="I401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="19"/>
-      <c r="F402" s="18"/>
+      <c r="A402" s="23"/>
+      <c r="E402" s="21"/>
+      <c r="F402" s="22"/>
       <c r="G402" s="18"/>
       <c r="H402" s="18"/>
       <c r="I402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="19"/>
-      <c r="F403" s="18"/>
+      <c r="A403" s="23"/>
+      <c r="E403" s="21"/>
+      <c r="F403" s="22"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
       <c r="I403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="19"/>
-      <c r="F404" s="18"/>
+      <c r="A404" s="23"/>
+      <c r="E404" s="21"/>
+      <c r="F404" s="22"/>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
       <c r="I404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="19"/>
-      <c r="F405" s="18"/>
+      <c r="A405" s="23"/>
+      <c r="E405" s="21"/>
+      <c r="F405" s="22"/>
       <c r="G405" s="18"/>
       <c r="H405" s="18"/>
       <c r="I405" s="18"/>
     </row>
     <row r="406">
-      <c r="A406" s="19"/>
-      <c r="F406" s="18"/>
+      <c r="A406" s="23"/>
+      <c r="E406" s="21"/>
+      <c r="F406" s="22"/>
       <c r="G406" s="18"/>
       <c r="H406" s="18"/>
       <c r="I406" s="18"/>
     </row>
     <row r="407">
-      <c r="A407" s="19"/>
-      <c r="F407" s="18"/>
+      <c r="A407" s="23"/>
+      <c r="E407" s="21"/>
+      <c r="F407" s="22"/>
       <c r="G407" s="18"/>
       <c r="H407" s="18"/>
       <c r="I407" s="18"/>
     </row>
     <row r="408">
-      <c r="A408" s="19"/>
-      <c r="F408" s="18"/>
+      <c r="A408" s="23"/>
+      <c r="E408" s="21"/>
+      <c r="F408" s="22"/>
       <c r="G408" s="18"/>
       <c r="H408" s="18"/>
       <c r="I408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="19"/>
-      <c r="F409" s="18"/>
+      <c r="A409" s="23"/>
+      <c r="E409" s="21"/>
+      <c r="F409" s="22"/>
       <c r="G409" s="18"/>
       <c r="H409" s="18"/>
       <c r="I409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="19"/>
-      <c r="F410" s="18"/>
+      <c r="A410" s="23"/>
+      <c r="E410" s="21"/>
+      <c r="F410" s="22"/>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
       <c r="I410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="19"/>
-      <c r="F411" s="18"/>
+      <c r="A411" s="23"/>
+      <c r="E411" s="21"/>
+      <c r="F411" s="22"/>
       <c r="G411" s="18"/>
       <c r="H411" s="18"/>
       <c r="I411" s="18"/>
     </row>
     <row r="412">
-      <c r="A412" s="19"/>
-      <c r="F412" s="18"/>
+      <c r="A412" s="23"/>
+      <c r="E412" s="21"/>
+      <c r="F412" s="22"/>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
       <c r="I412" s="18"/>
     </row>
     <row r="413">
-      <c r="A413" s="19"/>
-      <c r="F413" s="18"/>
+      <c r="A413" s="23"/>
+      <c r="E413" s="21"/>
+      <c r="F413" s="22"/>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
       <c r="I413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="19"/>
-      <c r="F414" s="18"/>
+      <c r="A414" s="23"/>
+      <c r="E414" s="21"/>
+      <c r="F414" s="22"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
       <c r="I414" s="18"/>
     </row>
     <row r="415">
-      <c r="A415" s="19"/>
-      <c r="F415" s="18"/>
+      <c r="A415" s="23"/>
+      <c r="E415" s="21"/>
+      <c r="F415" s="22"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
     </row>
     <row r="416">
-      <c r="A416" s="19"/>
-      <c r="F416" s="18"/>
+      <c r="A416" s="23"/>
+      <c r="E416" s="21"/>
+      <c r="F416" s="22"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
       <c r="I416" s="18"/>
     </row>
     <row r="417">
-      <c r="A417" s="19"/>
-      <c r="F417" s="18"/>
+      <c r="A417" s="23"/>
+      <c r="E417" s="21"/>
+      <c r="F417" s="22"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="19"/>
-      <c r="F418" s="18"/>
+      <c r="A418" s="23"/>
+      <c r="E418" s="21"/>
+      <c r="F418" s="22"/>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
       <c r="I418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="19"/>
-      <c r="F419" s="18"/>
+      <c r="A419" s="23"/>
+      <c r="E419" s="21"/>
+      <c r="F419" s="22"/>
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
       <c r="I419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="19"/>
-      <c r="F420" s="18"/>
+      <c r="A420" s="23"/>
+      <c r="E420" s="21"/>
+      <c r="F420" s="22"/>
       <c r="G420" s="18"/>
       <c r="H420" s="18"/>
       <c r="I420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="19"/>
-      <c r="F421" s="18"/>
+      <c r="A421" s="23"/>
+      <c r="E421" s="21"/>
+      <c r="F421" s="22"/>
       <c r="G421" s="18"/>
       <c r="H421" s="18"/>
       <c r="I421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="19"/>
-      <c r="F422" s="18"/>
+      <c r="A422" s="23"/>
+      <c r="E422" s="21"/>
+      <c r="F422" s="22"/>
       <c r="G422" s="18"/>
       <c r="H422" s="18"/>
       <c r="I422" s="18"/>
     </row>
     <row r="423">
-      <c r="A423" s="19"/>
-      <c r="F423" s="18"/>
+      <c r="A423" s="23"/>
+      <c r="E423" s="21"/>
+      <c r="F423" s="22"/>
       <c r="G423" s="18"/>
       <c r="H423" s="18"/>
       <c r="I423" s="18"/>
     </row>
     <row r="424">
-      <c r="A424" s="19"/>
-      <c r="F424" s="18"/>
+      <c r="A424" s="23"/>
+      <c r="E424" s="21"/>
+      <c r="F424" s="22"/>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
       <c r="I424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="19"/>
-      <c r="F425" s="18"/>
+      <c r="A425" s="23"/>
+      <c r="E425" s="21"/>
+      <c r="F425" s="22"/>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
       <c r="I425" s="18"/>
     </row>
     <row r="426">
-      <c r="A426" s="19"/>
-      <c r="F426" s="18"/>
+      <c r="A426" s="23"/>
+      <c r="E426" s="21"/>
+      <c r="F426" s="22"/>
       <c r="G426" s="18"/>
       <c r="H426" s="18"/>
       <c r="I426" s="18"/>
     </row>
     <row r="427">
-      <c r="A427" s="19"/>
-      <c r="F427" s="18"/>
+      <c r="A427" s="23"/>
+      <c r="E427" s="21"/>
+      <c r="F427" s="22"/>
       <c r="G427" s="18"/>
       <c r="H427" s="18"/>
       <c r="I427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="19"/>
-      <c r="F428" s="18"/>
+      <c r="A428" s="23"/>
+      <c r="E428" s="21"/>
+      <c r="F428" s="22"/>
       <c r="G428" s="18"/>
       <c r="H428" s="18"/>
       <c r="I428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="19"/>
-      <c r="F429" s="18"/>
+      <c r="A429" s="23"/>
+      <c r="E429" s="21"/>
+      <c r="F429" s="22"/>
       <c r="G429" s="18"/>
       <c r="H429" s="18"/>
       <c r="I429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="19"/>
-      <c r="F430" s="18"/>
+      <c r="A430" s="23"/>
+      <c r="E430" s="21"/>
+      <c r="F430" s="22"/>
       <c r="G430" s="18"/>
       <c r="H430" s="18"/>
       <c r="I430" s="18"/>
     </row>
     <row r="431">
-      <c r="A431" s="19"/>
-      <c r="F431" s="18"/>
+      <c r="A431" s="23"/>
+      <c r="E431" s="21"/>
+      <c r="F431" s="22"/>
       <c r="G431" s="18"/>
       <c r="H431" s="18"/>
       <c r="I431" s="18"/>
     </row>
     <row r="432">
-      <c r="A432" s="19"/>
-      <c r="F432" s="18"/>
+      <c r="A432" s="23"/>
+      <c r="E432" s="21"/>
+      <c r="F432" s="22"/>
       <c r="G432" s="18"/>
       <c r="H432" s="18"/>
       <c r="I432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="19"/>
-      <c r="F433" s="18"/>
+      <c r="A433" s="23"/>
+      <c r="E433" s="21"/>
+      <c r="F433" s="22"/>
       <c r="G433" s="18"/>
       <c r="H433" s="18"/>
       <c r="I433" s="18"/>
     </row>
     <row r="434">
-      <c r="A434" s="19"/>
-      <c r="F434" s="18"/>
+      <c r="A434" s="23"/>
+      <c r="E434" s="21"/>
+      <c r="F434" s="22"/>
       <c r="G434" s="18"/>
       <c r="H434" s="18"/>
       <c r="I434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="19"/>
-      <c r="F435" s="18"/>
+      <c r="A435" s="23"/>
+      <c r="E435" s="21"/>
+      <c r="F435" s="22"/>
       <c r="G435" s="18"/>
       <c r="H435" s="18"/>
       <c r="I435" s="18"/>
     </row>
     <row r="436">
-      <c r="A436" s="19"/>
-      <c r="F436" s="18"/>
+      <c r="A436" s="23"/>
+      <c r="E436" s="21"/>
+      <c r="F436" s="22"/>
       <c r="G436" s="18"/>
       <c r="H436" s="18"/>
       <c r="I436" s="18"/>
     </row>
     <row r="437">
-      <c r="A437" s="19"/>
-      <c r="F437" s="18"/>
+      <c r="A437" s="23"/>
+      <c r="E437" s="21"/>
+      <c r="F437" s="22"/>
       <c r="G437" s="18"/>
       <c r="H437" s="18"/>
       <c r="I437" s="18"/>
     </row>
     <row r="438">
-      <c r="A438" s="19"/>
-      <c r="F438" s="18"/>
+      <c r="A438" s="23"/>
+      <c r="E438" s="21"/>
+      <c r="F438" s="22"/>
       <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="19"/>
-      <c r="F439" s="18"/>
+      <c r="A439" s="23"/>
+      <c r="E439" s="21"/>
+      <c r="F439" s="22"/>
       <c r="G439" s="18"/>
       <c r="H439" s="18"/>
       <c r="I439" s="18"/>
     </row>
     <row r="440">
-      <c r="A440" s="19"/>
-      <c r="F440" s="18"/>
+      <c r="A440" s="23"/>
+      <c r="E440" s="21"/>
+      <c r="F440" s="22"/>
       <c r="G440" s="18"/>
       <c r="H440" s="18"/>
       <c r="I440" s="18"/>
     </row>
     <row r="441">
-      <c r="A441" s="19"/>
-      <c r="F441" s="18"/>
+      <c r="A441" s="23"/>
+      <c r="E441" s="21"/>
+      <c r="F441" s="22"/>
       <c r="G441" s="18"/>
       <c r="H441" s="18"/>
       <c r="I441" s="18"/>
     </row>
     <row r="442">
-      <c r="A442" s="19"/>
-      <c r="F442" s="18"/>
+      <c r="A442" s="23"/>
+      <c r="E442" s="21"/>
+      <c r="F442" s="22"/>
       <c r="G442" s="18"/>
       <c r="H442" s="18"/>
       <c r="I442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="19"/>
-      <c r="F443" s="18"/>
+      <c r="A443" s="23"/>
+      <c r="E443" s="21"/>
+      <c r="F443" s="22"/>
       <c r="G443" s="18"/>
       <c r="H443" s="18"/>
       <c r="I443" s="18"/>
     </row>
     <row r="444">
-      <c r="A444" s="19"/>
-      <c r="F444" s="18"/>
+      <c r="A444" s="23"/>
+      <c r="E444" s="21"/>
+      <c r="F444" s="22"/>
       <c r="G444" s="18"/>
       <c r="H444" s="18"/>
       <c r="I444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="19"/>
-      <c r="F445" s="18"/>
+      <c r="A445" s="23"/>
+      <c r="E445" s="21"/>
+      <c r="F445" s="22"/>
       <c r="G445" s="18"/>
       <c r="H445" s="18"/>
       <c r="I445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="19"/>
-      <c r="F446" s="18"/>
+      <c r="A446" s="23"/>
+      <c r="E446" s="21"/>
+      <c r="F446" s="22"/>
       <c r="G446" s="18"/>
       <c r="H446" s="18"/>
       <c r="I446" s="18"/>
     </row>
     <row r="447">
-      <c r="A447" s="19"/>
-      <c r="F447" s="18"/>
+      <c r="A447" s="23"/>
+      <c r="E447" s="21"/>
+      <c r="F447" s="22"/>
       <c r="G447" s="18"/>
       <c r="H447" s="18"/>
       <c r="I447" s="18"/>
     </row>
     <row r="448">
-      <c r="A448" s="19"/>
-      <c r="F448" s="18"/>
+      <c r="A448" s="23"/>
+      <c r="E448" s="21"/>
+      <c r="F448" s="22"/>
       <c r="G448" s="18"/>
       <c r="H448" s="18"/>
       <c r="I448" s="18"/>
     </row>
     <row r="449">
-      <c r="A449" s="19"/>
-      <c r="F449" s="18"/>
+      <c r="A449" s="23"/>
+      <c r="E449" s="21"/>
+      <c r="F449" s="22"/>
       <c r="G449" s="18"/>
       <c r="H449" s="18"/>
       <c r="I449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="19"/>
-      <c r="F450" s="18"/>
+      <c r="A450" s="23"/>
+      <c r="E450" s="21"/>
+      <c r="F450" s="22"/>
       <c r="G450" s="18"/>
       <c r="H450" s="18"/>
       <c r="I450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="19"/>
-      <c r="F451" s="18"/>
+      <c r="A451" s="23"/>
+      <c r="E451" s="21"/>
+      <c r="F451" s="22"/>
       <c r="G451" s="18"/>
       <c r="H451" s="18"/>
       <c r="I451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="19"/>
-      <c r="F452" s="18"/>
+      <c r="A452" s="23"/>
+      <c r="E452" s="21"/>
+      <c r="F452" s="22"/>
       <c r="G452" s="18"/>
       <c r="H452" s="18"/>
       <c r="I452" s="18"/>
     </row>
     <row r="453">
-      <c r="A453" s="19"/>
-      <c r="F453" s="18"/>
+      <c r="A453" s="23"/>
+      <c r="E453" s="21"/>
+      <c r="F453" s="22"/>
       <c r="G453" s="18"/>
       <c r="H453" s="18"/>
       <c r="I453" s="18"/>
     </row>
     <row r="454">
-      <c r="A454" s="19"/>
-      <c r="F454" s="18"/>
+      <c r="A454" s="23"/>
+      <c r="E454" s="21"/>
+      <c r="F454" s="22"/>
       <c r="G454" s="18"/>
       <c r="H454" s="18"/>
       <c r="I454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="19"/>
-      <c r="F455" s="18"/>
+      <c r="A455" s="23"/>
+      <c r="E455" s="21"/>
+      <c r="F455" s="22"/>
       <c r="G455" s="18"/>
       <c r="H455" s="18"/>
       <c r="I455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="19"/>
-      <c r="F456" s="18"/>
+      <c r="A456" s="23"/>
+      <c r="E456" s="21"/>
+      <c r="F456" s="22"/>
       <c r="G456" s="18"/>
       <c r="H456" s="18"/>
       <c r="I456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="19"/>
-      <c r="F457" s="18"/>
+      <c r="A457" s="23"/>
+      <c r="E457" s="21"/>
+      <c r="F457" s="22"/>
       <c r="G457" s="18"/>
       <c r="H457" s="18"/>
       <c r="I457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="19"/>
-      <c r="F458" s="18"/>
+      <c r="A458" s="23"/>
+      <c r="E458" s="21"/>
+      <c r="F458" s="22"/>
       <c r="G458" s="18"/>
       <c r="H458" s="18"/>
       <c r="I458" s="18"/>
     </row>
     <row r="459">
-      <c r="A459" s="19"/>
-      <c r="F459" s="18"/>
+      <c r="A459" s="23"/>
+      <c r="E459" s="21"/>
+      <c r="F459" s="22"/>
       <c r="G459" s="18"/>
       <c r="H459" s="18"/>
       <c r="I459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="19"/>
-      <c r="F460" s="18"/>
+      <c r="A460" s="23"/>
+      <c r="E460" s="21"/>
+      <c r="F460" s="22"/>
       <c r="G460" s="18"/>
       <c r="H460" s="18"/>
       <c r="I460" s="18"/>
     </row>
     <row r="461">
-      <c r="A461" s="19"/>
-      <c r="F461" s="18"/>
+      <c r="A461" s="23"/>
+      <c r="E461" s="21"/>
+      <c r="F461" s="22"/>
       <c r="G461" s="18"/>
       <c r="H461" s="18"/>
       <c r="I461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="19"/>
-      <c r="F462" s="18"/>
+      <c r="A462" s="23"/>
+      <c r="E462" s="21"/>
+      <c r="F462" s="22"/>
       <c r="G462" s="18"/>
       <c r="H462" s="18"/>
       <c r="I462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="19"/>
-      <c r="F463" s="18"/>
+      <c r="A463" s="23"/>
+      <c r="E463" s="21"/>
+      <c r="F463" s="22"/>
       <c r="G463" s="18"/>
       <c r="H463" s="18"/>
       <c r="I463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="19"/>
-      <c r="F464" s="18"/>
+      <c r="A464" s="23"/>
+      <c r="E464" s="21"/>
+      <c r="F464" s="22"/>
       <c r="G464" s="18"/>
       <c r="H464" s="18"/>
       <c r="I464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="19"/>
-      <c r="F465" s="18"/>
+      <c r="A465" s="23"/>
+      <c r="E465" s="21"/>
+      <c r="F465" s="22"/>
       <c r="G465" s="18"/>
       <c r="H465" s="18"/>
       <c r="I465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="19"/>
-      <c r="F466" s="18"/>
+      <c r="A466" s="23"/>
+      <c r="E466" s="21"/>
+      <c r="F466" s="22"/>
       <c r="G466" s="18"/>
       <c r="H466" s="18"/>
       <c r="I466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="19"/>
-      <c r="F467" s="18"/>
+      <c r="A467" s="23"/>
+      <c r="E467" s="21"/>
+      <c r="F467" s="22"/>
       <c r="G467" s="18"/>
       <c r="H467" s="18"/>
       <c r="I467" s="18"/>
     </row>
     <row r="468">
-      <c r="A468" s="19"/>
-      <c r="F468" s="18"/>
+      <c r="A468" s="23"/>
+      <c r="E468" s="21"/>
+      <c r="F468" s="22"/>
       <c r="G468" s="18"/>
       <c r="H468" s="18"/>
       <c r="I468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="19"/>
-      <c r="F469" s="18"/>
+      <c r="A469" s="23"/>
+      <c r="E469" s="21"/>
+      <c r="F469" s="22"/>
       <c r="G469" s="18"/>
       <c r="H469" s="18"/>
       <c r="I469" s="18"/>
     </row>
     <row r="470">
-      <c r="A470" s="19"/>
-      <c r="F470" s="18"/>
+      <c r="A470" s="23"/>
+      <c r="E470" s="21"/>
+      <c r="F470" s="22"/>
       <c r="G470" s="18"/>
       <c r="H470" s="18"/>
       <c r="I470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="19"/>
-      <c r="F471" s="18"/>
+      <c r="A471" s="23"/>
+      <c r="E471" s="21"/>
+      <c r="F471" s="22"/>
       <c r="G471" s="18"/>
       <c r="H471" s="18"/>
       <c r="I471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="19"/>
-      <c r="F472" s="18"/>
+      <c r="A472" s="23"/>
+      <c r="E472" s="21"/>
+      <c r="F472" s="22"/>
       <c r="G472" s="18"/>
       <c r="H472" s="18"/>
       <c r="I472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="19"/>
-      <c r="F473" s="18"/>
+      <c r="A473" s="23"/>
+      <c r="E473" s="21"/>
+      <c r="F473" s="22"/>
       <c r="G473" s="18"/>
       <c r="H473" s="18"/>
       <c r="I473" s="18"/>
     </row>
     <row r="474">
-      <c r="A474" s="19"/>
-      <c r="F474" s="18"/>
+      <c r="A474" s="23"/>
+      <c r="E474" s="21"/>
+      <c r="F474" s="22"/>
       <c r="G474" s="18"/>
       <c r="H474" s="18"/>
       <c r="I474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="19"/>
-      <c r="F475" s="18"/>
+      <c r="A475" s="23"/>
+      <c r="E475" s="21"/>
+      <c r="F475" s="22"/>
       <c r="G475" s="18"/>
       <c r="H475" s="18"/>
       <c r="I475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="19"/>
-      <c r="F476" s="18"/>
+      <c r="A476" s="23"/>
+      <c r="E476" s="21"/>
+      <c r="F476" s="22"/>
       <c r="G476" s="18"/>
       <c r="H476" s="18"/>
       <c r="I476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="19"/>
-      <c r="F477" s="18"/>
+      <c r="A477" s="23"/>
+      <c r="E477" s="21"/>
+      <c r="F477" s="22"/>
       <c r="G477" s="18"/>
       <c r="H477" s="18"/>
       <c r="I477" s="18"/>
     </row>
     <row r="478">
-      <c r="A478" s="19"/>
-      <c r="F478" s="18"/>
+      <c r="A478" s="23"/>
+      <c r="E478" s="21"/>
+      <c r="F478" s="22"/>
       <c r="G478" s="18"/>
       <c r="H478" s="18"/>
       <c r="I478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="19"/>
-      <c r="F479" s="18"/>
+      <c r="A479" s="23"/>
+      <c r="E479" s="21"/>
+      <c r="F479" s="22"/>
       <c r="G479" s="18"/>
       <c r="H479" s="18"/>
       <c r="I479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="19"/>
-      <c r="F480" s="18"/>
+      <c r="A480" s="23"/>
+      <c r="E480" s="21"/>
+      <c r="F480" s="22"/>
       <c r="G480" s="18"/>
       <c r="H480" s="18"/>
       <c r="I480" s="18"/>
     </row>
     <row r="481">
-      <c r="A481" s="19"/>
-      <c r="F481" s="18"/>
+      <c r="A481" s="23"/>
+      <c r="E481" s="21"/>
+      <c r="F481" s="22"/>
       <c r="G481" s="18"/>
       <c r="H481" s="18"/>
       <c r="I481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="19"/>
-      <c r="F482" s="18"/>
+      <c r="A482" s="23"/>
+      <c r="E482" s="21"/>
+      <c r="F482" s="22"/>
       <c r="G482" s="18"/>
       <c r="H482" s="18"/>
       <c r="I482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="19"/>
-      <c r="F483" s="18"/>
+      <c r="A483" s="23"/>
+      <c r="E483" s="21"/>
+      <c r="F483" s="22"/>
       <c r="G483" s="18"/>
       <c r="H483" s="18"/>
       <c r="I483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="19"/>
-      <c r="F484" s="18"/>
+      <c r="A484" s="23"/>
+      <c r="E484" s="21"/>
+      <c r="F484" s="22"/>
       <c r="G484" s="18"/>
       <c r="H484" s="18"/>
       <c r="I484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="19"/>
-      <c r="F485" s="18"/>
+      <c r="A485" s="23"/>
+      <c r="E485" s="21"/>
+      <c r="F485" s="22"/>
       <c r="G485" s="18"/>
       <c r="H485" s="18"/>
       <c r="I485" s="18"/>
     </row>
     <row r="486">
-      <c r="A486" s="19"/>
-      <c r="F486" s="18"/>
+      <c r="A486" s="23"/>
+      <c r="E486" s="21"/>
+      <c r="F486" s="22"/>
       <c r="G486" s="18"/>
       <c r="H486" s="18"/>
       <c r="I486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="19"/>
-      <c r="F487" s="18"/>
+      <c r="A487" s="23"/>
+      <c r="E487" s="21"/>
+      <c r="F487" s="22"/>
       <c r="G487" s="18"/>
       <c r="H487" s="18"/>
       <c r="I487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="19"/>
-      <c r="F488" s="18"/>
+      <c r="A488" s="23"/>
+      <c r="E488" s="21"/>
+      <c r="F488" s="22"/>
       <c r="G488" s="18"/>
       <c r="H488" s="18"/>
       <c r="I488" s="18"/>
     </row>
     <row r="489">
-      <c r="A489" s="19"/>
-      <c r="F489" s="18"/>
+      <c r="A489" s="23"/>
+      <c r="E489" s="21"/>
+      <c r="F489" s="22"/>
       <c r="G489" s="18"/>
       <c r="H489" s="18"/>
       <c r="I489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="19"/>
-      <c r="F490" s="18"/>
+      <c r="A490" s="23"/>
+      <c r="E490" s="21"/>
+      <c r="F490" s="22"/>
       <c r="G490" s="18"/>
       <c r="H490" s="18"/>
       <c r="I490" s="18"/>
     </row>
     <row r="491">
-      <c r="A491" s="19"/>
-      <c r="F491" s="18"/>
+      <c r="A491" s="23"/>
+      <c r="E491" s="21"/>
+      <c r="F491" s="22"/>
       <c r="G491" s="18"/>
       <c r="H491" s="18"/>
       <c r="I491" s="18"/>
     </row>
     <row r="492">
-      <c r="A492" s="19"/>
-      <c r="F492" s="18"/>
+      <c r="A492" s="23"/>
+      <c r="E492" s="21"/>
+      <c r="F492" s="22"/>
       <c r="G492" s="18"/>
       <c r="H492" s="18"/>
       <c r="I492" s="18"/>
     </row>
     <row r="493">
-      <c r="A493" s="19"/>
-      <c r="F493" s="18"/>
+      <c r="A493" s="23"/>
+      <c r="E493" s="21"/>
+      <c r="F493" s="22"/>
       <c r="G493" s="18"/>
       <c r="H493" s="18"/>
       <c r="I493" s="18"/>
     </row>
     <row r="494">
-      <c r="A494" s="19"/>
-      <c r="F494" s="18"/>
+      <c r="A494" s="23"/>
+      <c r="E494" s="21"/>
+      <c r="F494" s="22"/>
       <c r="G494" s="18"/>
       <c r="H494" s="18"/>
       <c r="I494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="19"/>
-      <c r="F495" s="18"/>
+      <c r="A495" s="23"/>
+      <c r="E495" s="21"/>
+      <c r="F495" s="22"/>
       <c r="G495" s="18"/>
       <c r="H495" s="18"/>
       <c r="I495" s="18"/>
     </row>
     <row r="496">
-      <c r="A496" s="19"/>
-      <c r="F496" s="18"/>
+      <c r="A496" s="23"/>
+      <c r="E496" s="21"/>
+      <c r="F496" s="22"/>
       <c r="G496" s="18"/>
       <c r="H496" s="18"/>
       <c r="I496" s="18"/>
     </row>
     <row r="497">
-      <c r="A497" s="19"/>
-      <c r="F497" s="18"/>
+      <c r="A497" s="23"/>
+      <c r="E497" s="21"/>
+      <c r="F497" s="22"/>
       <c r="G497" s="18"/>
       <c r="H497" s="18"/>
       <c r="I497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="19"/>
-      <c r="F498" s="18"/>
+      <c r="A498" s="23"/>
+      <c r="E498" s="21"/>
+      <c r="F498" s="22"/>
       <c r="G498" s="18"/>
       <c r="H498" s="18"/>
       <c r="I498" s="18"/>
     </row>
     <row r="499">
-      <c r="A499" s="19"/>
-      <c r="F499" s="18"/>
+      <c r="A499" s="23"/>
+      <c r="E499" s="21"/>
+      <c r="F499" s="22"/>
       <c r="G499" s="18"/>
       <c r="H499" s="18"/>
       <c r="I499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="19"/>
-      <c r="F500" s="18"/>
+      <c r="A500" s="23"/>
+      <c r="E500" s="21"/>
+      <c r="F500" s="22"/>
       <c r="G500" s="18"/>
       <c r="H500" s="18"/>
       <c r="I500" s="18"/>
     </row>
     <row r="501">
-      <c r="A501" s="19"/>
-      <c r="F501" s="18"/>
+      <c r="A501" s="23"/>
+      <c r="E501" s="21"/>
+      <c r="F501" s="22"/>
       <c r="G501" s="18"/>
       <c r="H501" s="18"/>
       <c r="I501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="19"/>
-      <c r="F502" s="18"/>
+      <c r="A502" s="23"/>
+      <c r="E502" s="21"/>
+      <c r="F502" s="22"/>
       <c r="G502" s="18"/>
       <c r="H502" s="18"/>
       <c r="I502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="19"/>
-      <c r="F503" s="18"/>
+      <c r="A503" s="23"/>
+      <c r="E503" s="21"/>
+      <c r="F503" s="22"/>
       <c r="G503" s="18"/>
       <c r="H503" s="18"/>
       <c r="I503" s="18"/>
     </row>
     <row r="504">
-      <c r="A504" s="19"/>
-      <c r="F504" s="18"/>
+      <c r="A504" s="23"/>
+      <c r="E504" s="21"/>
+      <c r="F504" s="22"/>
       <c r="G504" s="18"/>
       <c r="H504" s="18"/>
       <c r="I504" s="18"/>
     </row>
     <row r="505">
-      <c r="A505" s="19"/>
-      <c r="F505" s="18"/>
+      <c r="A505" s="23"/>
+      <c r="E505" s="21"/>
+      <c r="F505" s="22"/>
       <c r="G505" s="18"/>
       <c r="H505" s="18"/>
       <c r="I505" s="18"/>
     </row>
     <row r="506">
-      <c r="A506" s="19"/>
-      <c r="F506" s="18"/>
+      <c r="A506" s="23"/>
+      <c r="E506" s="21"/>
+      <c r="F506" s="22"/>
       <c r="G506" s="18"/>
       <c r="H506" s="18"/>
       <c r="I506" s="18"/>
     </row>
     <row r="507">
-      <c r="A507" s="19"/>
-      <c r="F507" s="18"/>
+      <c r="A507" s="23"/>
+      <c r="E507" s="21"/>
+      <c r="F507" s="22"/>
       <c r="G507" s="18"/>
       <c r="H507" s="18"/>
       <c r="I507" s="18"/>
     </row>
     <row r="508">
-      <c r="A508" s="19"/>
-      <c r="F508" s="18"/>
+      <c r="A508" s="23"/>
+      <c r="E508" s="21"/>
+      <c r="F508" s="22"/>
       <c r="G508" s="18"/>
       <c r="H508" s="18"/>
       <c r="I508" s="18"/>
     </row>
     <row r="509">
-      <c r="A509" s="19"/>
-      <c r="F509" s="18"/>
+      <c r="A509" s="23"/>
+      <c r="E509" s="21"/>
+      <c r="F509" s="22"/>
       <c r="G509" s="18"/>
       <c r="H509" s="18"/>
       <c r="I509" s="18"/>
     </row>
     <row r="510">
-      <c r="A510" s="19"/>
-      <c r="F510" s="18"/>
+      <c r="A510" s="23"/>
+      <c r="E510" s="21"/>
+      <c r="F510" s="22"/>
       <c r="G510" s="18"/>
       <c r="H510" s="18"/>
       <c r="I510" s="18"/>
     </row>
     <row r="511">
-      <c r="A511" s="19"/>
-      <c r="F511" s="18"/>
+      <c r="A511" s="23"/>
+      <c r="E511" s="21"/>
+      <c r="F511" s="22"/>
       <c r="G511" s="18"/>
       <c r="H511" s="18"/>
       <c r="I511" s="18"/>
     </row>
     <row r="512">
-      <c r="A512" s="19"/>
-      <c r="F512" s="18"/>
+      <c r="A512" s="23"/>
+      <c r="E512" s="21"/>
+      <c r="F512" s="22"/>
       <c r="G512" s="18"/>
       <c r="H512" s="18"/>
       <c r="I512" s="18"/>
     </row>
     <row r="513">
-      <c r="A513" s="19"/>
-      <c r="F513" s="18"/>
+      <c r="A513" s="23"/>
+      <c r="E513" s="21"/>
+      <c r="F513" s="22"/>
       <c r="G513" s="18"/>
       <c r="H513" s="18"/>
       <c r="I513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="19"/>
-      <c r="F514" s="18"/>
+      <c r="A514" s="23"/>
+      <c r="E514" s="21"/>
+      <c r="F514" s="22"/>
       <c r="G514" s="18"/>
       <c r="H514" s="18"/>
       <c r="I514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="19"/>
-      <c r="F515" s="18"/>
+      <c r="A515" s="23"/>
+      <c r="E515" s="21"/>
+      <c r="F515" s="22"/>
       <c r="G515" s="18"/>
       <c r="H515" s="18"/>
       <c r="I515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="19"/>
-      <c r="F516" s="18"/>
+      <c r="A516" s="23"/>
+      <c r="E516" s="21"/>
+      <c r="F516" s="22"/>
       <c r="G516" s="18"/>
       <c r="H516" s="18"/>
       <c r="I516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="19"/>
-      <c r="F517" s="18"/>
+      <c r="A517" s="23"/>
+      <c r="E517" s="21"/>
+      <c r="F517" s="22"/>
       <c r="G517" s="18"/>
       <c r="H517" s="18"/>
       <c r="I517" s="18"/>
     </row>
     <row r="518">
-      <c r="A518" s="19"/>
-      <c r="F518" s="18"/>
+      <c r="A518" s="23"/>
+      <c r="E518" s="21"/>
+      <c r="F518" s="22"/>
       <c r="G518" s="18"/>
       <c r="H518" s="18"/>
       <c r="I518" s="18"/>
     </row>
     <row r="519">
-      <c r="A519" s="19"/>
-      <c r="F519" s="18"/>
+      <c r="A519" s="23"/>
+      <c r="E519" s="21"/>
+      <c r="F519" s="22"/>
       <c r="G519" s="18"/>
       <c r="H519" s="18"/>
       <c r="I519" s="18"/>
     </row>
     <row r="520">
-      <c r="A520" s="19"/>
-      <c r="F520" s="18"/>
+      <c r="A520" s="23"/>
+      <c r="E520" s="21"/>
+      <c r="F520" s="22"/>
       <c r="G520" s="18"/>
       <c r="H520" s="18"/>
       <c r="I520" s="18"/>
     </row>
     <row r="521">
-      <c r="A521" s="19"/>
-      <c r="F521" s="18"/>
+      <c r="A521" s="23"/>
+      <c r="E521" s="21"/>
+      <c r="F521" s="22"/>
       <c r="G521" s="18"/>
       <c r="H521" s="18"/>
       <c r="I521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="19"/>
-      <c r="F522" s="18"/>
+      <c r="A522" s="23"/>
+      <c r="E522" s="21"/>
+      <c r="F522" s="22"/>
       <c r="G522" s="18"/>
       <c r="H522" s="18"/>
       <c r="I522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="19"/>
-      <c r="F523" s="18"/>
+      <c r="A523" s="23"/>
+      <c r="E523" s="21"/>
+      <c r="F523" s="22"/>
       <c r="G523" s="18"/>
       <c r="H523" s="18"/>
       <c r="I523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="19"/>
-      <c r="F524" s="18"/>
+      <c r="A524" s="23"/>
+      <c r="E524" s="21"/>
+      <c r="F524" s="22"/>
       <c r="G524" s="18"/>
       <c r="H524" s="18"/>
       <c r="I524" s="18"/>
     </row>
     <row r="525">
-      <c r="A525" s="19"/>
-      <c r="F525" s="18"/>
+      <c r="A525" s="23"/>
+      <c r="E525" s="21"/>
+      <c r="F525" s="22"/>
       <c r="G525" s="18"/>
       <c r="H525" s="18"/>
       <c r="I525" s="18"/>
     </row>
     <row r="526">
-      <c r="A526" s="19"/>
-      <c r="F526" s="18"/>
+      <c r="A526" s="23"/>
+      <c r="E526" s="21"/>
+      <c r="F526" s="22"/>
       <c r="G526" s="18"/>
       <c r="H526" s="18"/>
       <c r="I526" s="18"/>
     </row>
     <row r="527">
-      <c r="A527" s="19"/>
-      <c r="F527" s="18"/>
+      <c r="A527" s="23"/>
+      <c r="E527" s="21"/>
+      <c r="F527" s="22"/>
       <c r="G527" s="18"/>
       <c r="H527" s="18"/>
       <c r="I527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="19"/>
-      <c r="F528" s="18"/>
+      <c r="A528" s="23"/>
+      <c r="E528" s="21"/>
+      <c r="F528" s="22"/>
       <c r="G528" s="18"/>
       <c r="H528" s="18"/>
       <c r="I528" s="18"/>
     </row>
     <row r="529">
-      <c r="A529" s="19"/>
-      <c r="F529" s="18"/>
+      <c r="A529" s="23"/>
+      <c r="E529" s="21"/>
+      <c r="F529" s="22"/>
       <c r="G529" s="18"/>
       <c r="H529" s="18"/>
       <c r="I529" s="18"/>
     </row>
     <row r="530">
-      <c r="A530" s="19"/>
-      <c r="F530" s="18"/>
+      <c r="A530" s="23"/>
+      <c r="E530" s="21"/>
+      <c r="F530" s="22"/>
       <c r="G530" s="18"/>
       <c r="H530" s="18"/>
       <c r="I530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="19"/>
-      <c r="F531" s="18"/>
+      <c r="A531" s="23"/>
+      <c r="E531" s="21"/>
+      <c r="F531" s="22"/>
       <c r="G531" s="18"/>
       <c r="H531" s="18"/>
       <c r="I531" s="18"/>
     </row>
     <row r="532">
-      <c r="A532" s="19"/>
-      <c r="F532" s="18"/>
+      <c r="A532" s="23"/>
+      <c r="E532" s="21"/>
+      <c r="F532" s="22"/>
       <c r="G532" s="18"/>
       <c r="H532" s="18"/>
       <c r="I532" s="18"/>
     </row>
     <row r="533">
-      <c r="A533" s="19"/>
-      <c r="F533" s="18"/>
+      <c r="A533" s="23"/>
+      <c r="E533" s="21"/>
+      <c r="F533" s="22"/>
       <c r="G533" s="18"/>
       <c r="H533" s="18"/>
       <c r="I533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="19"/>
-      <c r="F534" s="18"/>
+      <c r="A534" s="23"/>
+      <c r="E534" s="21"/>
+      <c r="F534" s="22"/>
       <c r="G534" s="18"/>
       <c r="H534" s="18"/>
       <c r="I534" s="18"/>
     </row>
     <row r="535">
-      <c r="A535" s="19"/>
-      <c r="F535" s="18"/>
+      <c r="A535" s="23"/>
+      <c r="E535" s="21"/>
+      <c r="F535" s="22"/>
       <c r="G535" s="18"/>
       <c r="H535" s="18"/>
       <c r="I535" s="18"/>
     </row>
     <row r="536">
-      <c r="A536" s="19"/>
-      <c r="F536" s="18"/>
+      <c r="A536" s="23"/>
+      <c r="E536" s="21"/>
+      <c r="F536" s="22"/>
       <c r="G536" s="18"/>
       <c r="H536" s="18"/>
       <c r="I536" s="18"/>
     </row>
     <row r="537">
-      <c r="A537" s="19"/>
-      <c r="F537" s="18"/>
+      <c r="A537" s="23"/>
+      <c r="E537" s="21"/>
+      <c r="F537" s="22"/>
       <c r="G537" s="18"/>
       <c r="H537" s="18"/>
       <c r="I537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="19"/>
-      <c r="F538" s="18"/>
+      <c r="A538" s="23"/>
+      <c r="E538" s="21"/>
+      <c r="F538" s="22"/>
       <c r="G538" s="18"/>
       <c r="H538" s="18"/>
       <c r="I538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="19"/>
-      <c r="F539" s="18"/>
+      <c r="A539" s="23"/>
+      <c r="E539" s="21"/>
+      <c r="F539" s="22"/>
       <c r="G539" s="18"/>
       <c r="H539" s="18"/>
       <c r="I539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="19"/>
-      <c r="F540" s="18"/>
+      <c r="A540" s="23"/>
+      <c r="E540" s="21"/>
+      <c r="F540" s="22"/>
       <c r="G540" s="18"/>
       <c r="H540" s="18"/>
       <c r="I540" s="18"/>
     </row>
     <row r="541">
-      <c r="A541" s="19"/>
-      <c r="F541" s="18"/>
+      <c r="A541" s="23"/>
+      <c r="E541" s="21"/>
+      <c r="F541" s="22"/>
       <c r="G541" s="18"/>
       <c r="H541" s="18"/>
       <c r="I541" s="18"/>
     </row>
     <row r="542">
-      <c r="A542" s="19"/>
-      <c r="F542" s="18"/>
+      <c r="A542" s="23"/>
+      <c r="E542" s="21"/>
+      <c r="F542" s="22"/>
       <c r="G542" s="18"/>
       <c r="H542" s="18"/>
       <c r="I542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="19"/>
-      <c r="F543" s="18"/>
+      <c r="A543" s="23"/>
+      <c r="E543" s="21"/>
+      <c r="F543" s="22"/>
       <c r="G543" s="18"/>
       <c r="H543" s="18"/>
       <c r="I543" s="18"/>
     </row>
     <row r="544">
-      <c r="A544" s="19"/>
-      <c r="F544" s="18"/>
+      <c r="A544" s="23"/>
+      <c r="E544" s="21"/>
+      <c r="F544" s="22"/>
       <c r="G544" s="18"/>
       <c r="H544" s="18"/>
       <c r="I544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="19"/>
-      <c r="F545" s="18"/>
+      <c r="A545" s="23"/>
+      <c r="E545" s="21"/>
+      <c r="F545" s="22"/>
       <c r="G545" s="18"/>
       <c r="H545" s="18"/>
       <c r="I545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="19"/>
-      <c r="F546" s="18"/>
+      <c r="A546" s="23"/>
+      <c r="E546" s="21"/>
+      <c r="F546" s="22"/>
       <c r="G546" s="18"/>
       <c r="H546" s="18"/>
       <c r="I546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="19"/>
-      <c r="F547" s="18"/>
+      <c r="A547" s="23"/>
+      <c r="E547" s="21"/>
+      <c r="F547" s="22"/>
       <c r="G547" s="18"/>
       <c r="H547" s="18"/>
       <c r="I547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="19"/>
-      <c r="F548" s="18"/>
+      <c r="A548" s="23"/>
+      <c r="E548" s="21"/>
+      <c r="F548" s="22"/>
       <c r="G548" s="18"/>
       <c r="H548" s="18"/>
       <c r="I548" s="18"/>
     </row>
     <row r="549">
-      <c r="A549" s="19"/>
-      <c r="F549" s="18"/>
+      <c r="A549" s="23"/>
+      <c r="E549" s="21"/>
+      <c r="F549" s="22"/>
       <c r="G549" s="18"/>
       <c r="H549" s="18"/>
       <c r="I549" s="18"/>
     </row>
     <row r="550">
-      <c r="A550" s="19"/>
-      <c r="F550" s="18"/>
+      <c r="A550" s="23"/>
+      <c r="E550" s="21"/>
+      <c r="F550" s="22"/>
       <c r="G550" s="18"/>
       <c r="H550" s="18"/>
       <c r="I550" s="18"/>
     </row>
     <row r="551">
-      <c r="A551" s="19"/>
-      <c r="F551" s="18"/>
+      <c r="A551" s="23"/>
+      <c r="E551" s="21"/>
+      <c r="F551" s="22"/>
       <c r="G551" s="18"/>
       <c r="H551" s="18"/>
       <c r="I551" s="18"/>
     </row>
     <row r="552">
-      <c r="A552" s="19"/>
-      <c r="F552" s="18"/>
+      <c r="A552" s="23"/>
+      <c r="E552" s="21"/>
+      <c r="F552" s="22"/>
       <c r="G552" s="18"/>
       <c r="H552" s="18"/>
       <c r="I552" s="18"/>
     </row>
     <row r="553">
-      <c r="A553" s="19"/>
-      <c r="F553" s="18"/>
+      <c r="A553" s="23"/>
+      <c r="E553" s="21"/>
+      <c r="F553" s="22"/>
       <c r="G553" s="18"/>
       <c r="H553" s="18"/>
       <c r="I553" s="18"/>
     </row>
     <row r="554">
-      <c r="A554" s="19"/>
-      <c r="F554" s="18"/>
+      <c r="A554" s="23"/>
+      <c r="E554" s="21"/>
+      <c r="F554" s="22"/>
       <c r="G554" s="18"/>
       <c r="H554" s="18"/>
       <c r="I554" s="18"/>
     </row>
     <row r="555">
-      <c r="A555" s="19"/>
-      <c r="F555" s="18"/>
+      <c r="A555" s="23"/>
+      <c r="E555" s="21"/>
+      <c r="F555" s="22"/>
       <c r="G555" s="18"/>
       <c r="H555" s="18"/>
       <c r="I555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="19"/>
-      <c r="F556" s="18"/>
+      <c r="A556" s="23"/>
+      <c r="E556" s="21"/>
+      <c r="F556" s="22"/>
       <c r="G556" s="18"/>
       <c r="H556" s="18"/>
       <c r="I556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="19"/>
-      <c r="F557" s="18"/>
+      <c r="A557" s="23"/>
+      <c r="E557" s="21"/>
+      <c r="F557" s="22"/>
       <c r="G557" s="18"/>
       <c r="H557" s="18"/>
       <c r="I557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="19"/>
-      <c r="F558" s="18"/>
+      <c r="A558" s="23"/>
+      <c r="E558" s="21"/>
+      <c r="F558" s="22"/>
       <c r="G558" s="18"/>
       <c r="H558" s="18"/>
       <c r="I558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="19"/>
-      <c r="F559" s="18"/>
+      <c r="A559" s="23"/>
+      <c r="E559" s="21"/>
+      <c r="F559" s="22"/>
       <c r="G559" s="18"/>
       <c r="H559" s="18"/>
       <c r="I559" s="18"/>
     </row>
     <row r="560">
-      <c r="A560" s="19"/>
-      <c r="F560" s="18"/>
+      <c r="A560" s="23"/>
+      <c r="E560" s="21"/>
+      <c r="F560" s="22"/>
       <c r="G560" s="18"/>
       <c r="H560" s="18"/>
       <c r="I560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="19"/>
-      <c r="F561" s="18"/>
+      <c r="A561" s="23"/>
+      <c r="E561" s="21"/>
+      <c r="F561" s="22"/>
       <c r="G561" s="18"/>
       <c r="H561" s="18"/>
       <c r="I561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="19"/>
-      <c r="F562" s="18"/>
+      <c r="A562" s="23"/>
+      <c r="E562" s="21"/>
+      <c r="F562" s="22"/>
       <c r="G562" s="18"/>
       <c r="H562" s="18"/>
       <c r="I562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="19"/>
-      <c r="F563" s="18"/>
+      <c r="A563" s="23"/>
+      <c r="E563" s="21"/>
+      <c r="F563" s="22"/>
       <c r="G563" s="18"/>
       <c r="H563" s="18"/>
       <c r="I563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="19"/>
-      <c r="F564" s="18"/>
+      <c r="A564" s="23"/>
+      <c r="E564" s="21"/>
+      <c r="F564" s="22"/>
       <c r="G564" s="18"/>
       <c r="H564" s="18"/>
       <c r="I564" s="18"/>
     </row>
     <row r="565">
-      <c r="A565" s="19"/>
-      <c r="F565" s="18"/>
+      <c r="A565" s="23"/>
+      <c r="E565" s="21"/>
+      <c r="F565" s="22"/>
       <c r="G565" s="18"/>
       <c r="H565" s="18"/>
       <c r="I565" s="18"/>
     </row>
     <row r="566">
-      <c r="A566" s="19"/>
-      <c r="F566" s="18"/>
+      <c r="A566" s="23"/>
+      <c r="E566" s="21"/>
+      <c r="F566" s="22"/>
       <c r="G566" s="18"/>
       <c r="H566" s="18"/>
       <c r="I566" s="18"/>
     </row>
     <row r="567">
-      <c r="A567" s="19"/>
-      <c r="F567" s="18"/>
+      <c r="A567" s="23"/>
+      <c r="E567" s="21"/>
+      <c r="F567" s="22"/>
       <c r="G567" s="18"/>
       <c r="H567" s="18"/>
       <c r="I567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="19"/>
-      <c r="F568" s="18"/>
+      <c r="A568" s="23"/>
+      <c r="E568" s="21"/>
+      <c r="F568" s="22"/>
       <c r="G568" s="18"/>
       <c r="H568" s="18"/>
       <c r="I568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="19"/>
-      <c r="F569" s="18"/>
+      <c r="A569" s="23"/>
+      <c r="E569" s="21"/>
+      <c r="F569" s="22"/>
       <c r="G569" s="18"/>
       <c r="H569" s="18"/>
       <c r="I569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="19"/>
-      <c r="F570" s="18"/>
+      <c r="A570" s="23"/>
+      <c r="E570" s="21"/>
+      <c r="F570" s="22"/>
       <c r="G570" s="18"/>
       <c r="H570" s="18"/>
       <c r="I570" s="18"/>
     </row>
     <row r="571">
-      <c r="A571" s="19"/>
-      <c r="F571" s="18"/>
+      <c r="A571" s="23"/>
+      <c r="E571" s="21"/>
+      <c r="F571" s="22"/>
       <c r="G571" s="18"/>
       <c r="H571" s="18"/>
       <c r="I571" s="18"/>
     </row>
     <row r="572">
-      <c r="A572" s="19"/>
-      <c r="F572" s="18"/>
+      <c r="A572" s="23"/>
+      <c r="E572" s="21"/>
+      <c r="F572" s="22"/>
       <c r="G572" s="18"/>
       <c r="H572" s="18"/>
       <c r="I572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="19"/>
-      <c r="F573" s="18"/>
+      <c r="A573" s="23"/>
+      <c r="E573" s="21"/>
+      <c r="F573" s="22"/>
       <c r="G573" s="18"/>
       <c r="H573" s="18"/>
       <c r="I573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="19"/>
-      <c r="F574" s="18"/>
+      <c r="A574" s="23"/>
+      <c r="E574" s="21"/>
+      <c r="F574" s="22"/>
       <c r="G574" s="18"/>
       <c r="H574" s="18"/>
       <c r="I574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="19"/>
-      <c r="F575" s="18"/>
+      <c r="A575" s="23"/>
+      <c r="E575" s="21"/>
+      <c r="F575" s="22"/>
       <c r="G575" s="18"/>
       <c r="H575" s="18"/>
       <c r="I575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="19"/>
-      <c r="F576" s="18"/>
+      <c r="A576" s="23"/>
+      <c r="E576" s="21"/>
+      <c r="F576" s="22"/>
       <c r="G576" s="18"/>
       <c r="H576" s="18"/>
       <c r="I576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="19"/>
-      <c r="F577" s="18"/>
+      <c r="A577" s="23"/>
+      <c r="E577" s="21"/>
+      <c r="F577" s="22"/>
       <c r="G577" s="18"/>
       <c r="H577" s="18"/>
       <c r="I577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="19"/>
-      <c r="F578" s="18"/>
+      <c r="A578" s="23"/>
+      <c r="E578" s="21"/>
+      <c r="F578" s="22"/>
       <c r="G578" s="18"/>
       <c r="H578" s="18"/>
       <c r="I578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="19"/>
-      <c r="F579" s="18"/>
+      <c r="A579" s="23"/>
+      <c r="E579" s="21"/>
+      <c r="F579" s="22"/>
       <c r="G579" s="18"/>
       <c r="H579" s="18"/>
       <c r="I579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="19"/>
-      <c r="F580" s="18"/>
+      <c r="A580" s="23"/>
+      <c r="E580" s="21"/>
+      <c r="F580" s="22"/>
       <c r="G580" s="18"/>
       <c r="H580" s="18"/>
       <c r="I580" s="18"/>
     </row>
     <row r="581">
-      <c r="A581" s="19"/>
-      <c r="F581" s="18"/>
+      <c r="A581" s="23"/>
+      <c r="E581" s="21"/>
+      <c r="F581" s="22"/>
       <c r="G581" s="18"/>
       <c r="H581" s="18"/>
       <c r="I581" s="18"/>
     </row>
     <row r="582">
-      <c r="A582" s="19"/>
-      <c r="F582" s="18"/>
+      <c r="A582" s="23"/>
+      <c r="E582" s="21"/>
+      <c r="F582" s="22"/>
       <c r="G582" s="18"/>
       <c r="H582" s="18"/>
       <c r="I582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="19"/>
-      <c r="F583" s="18"/>
+      <c r="A583" s="23"/>
+      <c r="E583" s="21"/>
+      <c r="F583" s="22"/>
       <c r="G583" s="18"/>
       <c r="H583" s="18"/>
       <c r="I583" s="18"/>
     </row>
     <row r="584">
-      <c r="A584" s="19"/>
-      <c r="F584" s="18"/>
+      <c r="A584" s="23"/>
+      <c r="E584" s="21"/>
+      <c r="F584" s="22"/>
       <c r="G584" s="18"/>
       <c r="H584" s="18"/>
       <c r="I584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="19"/>
-      <c r="F585" s="18"/>
+      <c r="A585" s="23"/>
+      <c r="E585" s="21"/>
+      <c r="F585" s="22"/>
       <c r="G585" s="18"/>
       <c r="H585" s="18"/>
       <c r="I585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="19"/>
-      <c r="F586" s="18"/>
+      <c r="A586" s="23"/>
+      <c r="E586" s="21"/>
+      <c r="F586" s="22"/>
       <c r="G586" s="18"/>
       <c r="H586" s="18"/>
       <c r="I586" s="18"/>
     </row>
     <row r="587">
-      <c r="A587" s="19"/>
-      <c r="F587" s="18"/>
+      <c r="A587" s="23"/>
+      <c r="E587" s="21"/>
+      <c r="F587" s="22"/>
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
       <c r="I587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="19"/>
-      <c r="F588" s="18"/>
+      <c r="A588" s="23"/>
+      <c r="E588" s="21"/>
+      <c r="F588" s="22"/>
       <c r="G588" s="18"/>
       <c r="H588" s="18"/>
       <c r="I588" s="18"/>
     </row>
     <row r="589">
-      <c r="A589" s="19"/>
-      <c r="F589" s="18"/>
+      <c r="A589" s="23"/>
+      <c r="E589" s="21"/>
+      <c r="F589" s="22"/>
       <c r="G589" s="18"/>
       <c r="H589" s="18"/>
       <c r="I589" s="18"/>
     </row>
     <row r="590">
-      <c r="A590" s="19"/>
-      <c r="F590" s="18"/>
+      <c r="A590" s="23"/>
+      <c r="E590" s="21"/>
+      <c r="F590" s="22"/>
       <c r="G590" s="18"/>
       <c r="H590" s="18"/>
       <c r="I590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="19"/>
-      <c r="F591" s="18"/>
+      <c r="A591" s="23"/>
+      <c r="E591" s="21"/>
+      <c r="F591" s="22"/>
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
     </row>
     <row r="592">
-      <c r="A592" s="19"/>
-      <c r="F592" s="18"/>
+      <c r="A592" s="23"/>
+      <c r="E592" s="21"/>
+      <c r="F592" s="22"/>
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="19"/>
-      <c r="F593" s="18"/>
+      <c r="A593" s="23"/>
+      <c r="E593" s="21"/>
+      <c r="F593" s="22"/>
       <c r="G593" s="18"/>
       <c r="H593" s="18"/>
       <c r="I593" s="18"/>
     </row>
     <row r="594">
-      <c r="A594" s="19"/>
-      <c r="F594" s="18"/>
+      <c r="A594" s="23"/>
+      <c r="E594" s="21"/>
+      <c r="F594" s="22"/>
       <c r="G594" s="18"/>
       <c r="H594" s="18"/>
       <c r="I594" s="18"/>
     </row>
     <row r="595">
-      <c r="A595" s="19"/>
-      <c r="F595" s="18"/>
+      <c r="A595" s="23"/>
+      <c r="E595" s="21"/>
+      <c r="F595" s="22"/>
       <c r="G595" s="18"/>
       <c r="H595" s="18"/>
       <c r="I595" s="18"/>
     </row>
     <row r="596">
-      <c r="A596" s="19"/>
-      <c r="F596" s="18"/>
+      <c r="A596" s="23"/>
+      <c r="E596" s="21"/>
+      <c r="F596" s="22"/>
       <c r="G596" s="18"/>
       <c r="H596" s="18"/>
       <c r="I596" s="18"/>
     </row>
     <row r="597">
-      <c r="A597" s="19"/>
-      <c r="F597" s="18"/>
+      <c r="A597" s="23"/>
+      <c r="E597" s="21"/>
+      <c r="F597" s="22"/>
       <c r="G597" s="18"/>
       <c r="H597" s="18"/>
       <c r="I597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="19"/>
-      <c r="F598" s="18"/>
+      <c r="A598" s="23"/>
+      <c r="E598" s="21"/>
+      <c r="F598" s="22"/>
       <c r="G598" s="18"/>
       <c r="H598" s="18"/>
       <c r="I598" s="18"/>
     </row>
     <row r="599">
-      <c r="A599" s="19"/>
-      <c r="F599" s="18"/>
+      <c r="A599" s="23"/>
+      <c r="E599" s="21"/>
+      <c r="F599" s="22"/>
       <c r="G599" s="18"/>
       <c r="H599" s="18"/>
       <c r="I599" s="18"/>
     </row>
     <row r="600">
-      <c r="A600" s="19"/>
-      <c r="F600" s="18"/>
+      <c r="A600" s="23"/>
+      <c r="E600" s="21"/>
+      <c r="F600" s="22"/>
       <c r="G600" s="18"/>
       <c r="H600" s="18"/>
       <c r="I600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="19"/>
-      <c r="F601" s="18"/>
+      <c r="A601" s="23"/>
+      <c r="E601" s="21"/>
+      <c r="F601" s="22"/>
       <c r="G601" s="18"/>
       <c r="H601" s="18"/>
       <c r="I601" s="18"/>
     </row>
     <row r="602">
-      <c r="A602" s="19"/>
-      <c r="F602" s="18"/>
+      <c r="A602" s="23"/>
+      <c r="E602" s="21"/>
+      <c r="F602" s="22"/>
       <c r="G602" s="18"/>
       <c r="H602" s="18"/>
       <c r="I602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="19"/>
-      <c r="F603" s="18"/>
+      <c r="A603" s="23"/>
+      <c r="E603" s="21"/>
+      <c r="F603" s="22"/>
       <c r="G603" s="18"/>
       <c r="H603" s="18"/>
       <c r="I603" s="18"/>
     </row>
     <row r="604">
-      <c r="A604" s="19"/>
-      <c r="F604" s="18"/>
+      <c r="A604" s="23"/>
+      <c r="E604" s="21"/>
+      <c r="F604" s="22"/>
       <c r="G604" s="18"/>
       <c r="H604" s="18"/>
       <c r="I604" s="18"/>
     </row>
     <row r="605">
-      <c r="A605" s="19"/>
-      <c r="F605" s="18"/>
+      <c r="A605" s="23"/>
+      <c r="E605" s="21"/>
+      <c r="F605" s="22"/>
       <c r="G605" s="18"/>
       <c r="H605" s="18"/>
       <c r="I605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="19"/>
-      <c r="F606" s="18"/>
+      <c r="A606" s="23"/>
+      <c r="E606" s="21"/>
+      <c r="F606" s="22"/>
       <c r="G606" s="18"/>
       <c r="H606" s="18"/>
       <c r="I606" s="18"/>
     </row>
     <row r="607">
-      <c r="A607" s="19"/>
-      <c r="F607" s="18"/>
+      <c r="A607" s="23"/>
+      <c r="E607" s="21"/>
+      <c r="F607" s="22"/>
       <c r="G607" s="18"/>
       <c r="H607" s="18"/>
       <c r="I607" s="18"/>
     </row>
     <row r="608">
-      <c r="A608" s="19"/>
-      <c r="F608" s="18"/>
+      <c r="A608" s="23"/>
+      <c r="E608" s="21"/>
+      <c r="F608" s="22"/>
       <c r="G608" s="18"/>
       <c r="H608" s="18"/>
       <c r="I608" s="18"/>
     </row>
     <row r="609">
-      <c r="A609" s="19"/>
-      <c r="F609" s="18"/>
+      <c r="A609" s="23"/>
+      <c r="E609" s="21"/>
+      <c r="F609" s="22"/>
       <c r="G609" s="18"/>
       <c r="H609" s="18"/>
       <c r="I609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="19"/>
-      <c r="F610" s="18"/>
+      <c r="A610" s="23"/>
+      <c r="E610" s="21"/>
+      <c r="F610" s="22"/>
       <c r="G610" s="18"/>
       <c r="H610" s="18"/>
       <c r="I610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="19"/>
-      <c r="F611" s="18"/>
+      <c r="A611" s="23"/>
+      <c r="E611" s="21"/>
+      <c r="F611" s="22"/>
       <c r="G611" s="18"/>
       <c r="H611" s="18"/>
       <c r="I611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="19"/>
-      <c r="F612" s="18"/>
+      <c r="A612" s="23"/>
+      <c r="E612" s="21"/>
+      <c r="F612" s="22"/>
       <c r="G612" s="18"/>
       <c r="H612" s="18"/>
       <c r="I612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="19"/>
-      <c r="F613" s="18"/>
+      <c r="A613" s="23"/>
+      <c r="E613" s="21"/>
+      <c r="F613" s="22"/>
       <c r="G613" s="18"/>
       <c r="H613" s="18"/>
       <c r="I613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="19"/>
-      <c r="F614" s="18"/>
+      <c r="A614" s="23"/>
+      <c r="E614" s="21"/>
+      <c r="F614" s="22"/>
       <c r="G614" s="18"/>
       <c r="H614" s="18"/>
       <c r="I614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="19"/>
-      <c r="F615" s="18"/>
+      <c r="A615" s="23"/>
+      <c r="E615" s="21"/>
+      <c r="F615" s="22"/>
       <c r="G615" s="18"/>
       <c r="H615" s="18"/>
       <c r="I615" s="18"/>
     </row>
     <row r="616">
-      <c r="A616" s="19"/>
-      <c r="F616" s="18"/>
+      <c r="A616" s="23"/>
+      <c r="E616" s="21"/>
+      <c r="F616" s="22"/>
       <c r="G616" s="18"/>
       <c r="H616" s="18"/>
       <c r="I616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="19"/>
-      <c r="F617" s="18"/>
+      <c r="A617" s="23"/>
+      <c r="E617" s="21"/>
+      <c r="F617" s="22"/>
       <c r="G617" s="18"/>
       <c r="H617" s="18"/>
       <c r="I617" s="18"/>
     </row>
     <row r="618">
-      <c r="A618" s="19"/>
-      <c r="F618" s="18"/>
+      <c r="A618" s="23"/>
+      <c r="E618" s="21"/>
+      <c r="F618" s="22"/>
       <c r="G618" s="18"/>
       <c r="H618" s="18"/>
       <c r="I618" s="18"/>
     </row>
     <row r="619">
-      <c r="A619" s="19"/>
-      <c r="F619" s="18"/>
+      <c r="A619" s="23"/>
+      <c r="E619" s="21"/>
+      <c r="F619" s="22"/>
       <c r="G619" s="18"/>
       <c r="H619" s="18"/>
       <c r="I619" s="18"/>
     </row>
     <row r="620">
-      <c r="A620" s="19"/>
-      <c r="F620" s="18"/>
+      <c r="A620" s="23"/>
+      <c r="E620" s="21"/>
+      <c r="F620" s="22"/>
       <c r="G620" s="18"/>
       <c r="H620" s="18"/>
       <c r="I620" s="18"/>
     </row>
     <row r="621">
-      <c r="A621" s="19"/>
-      <c r="F621" s="18"/>
+      <c r="A621" s="23"/>
+      <c r="E621" s="21"/>
+      <c r="F621" s="22"/>
       <c r="G621" s="18"/>
       <c r="H621" s="18"/>
       <c r="I621" s="18"/>
     </row>
     <row r="622">
-      <c r="A622" s="19"/>
-      <c r="F622" s="18"/>
+      <c r="A622" s="23"/>
+      <c r="E622" s="21"/>
+      <c r="F622" s="22"/>
       <c r="G622" s="18"/>
       <c r="H622" s="18"/>
       <c r="I622" s="18"/>
     </row>
     <row r="623">
-      <c r="A623" s="19"/>
-      <c r="F623" s="18"/>
+      <c r="A623" s="23"/>
+      <c r="E623" s="21"/>
+      <c r="F623" s="22"/>
       <c r="G623" s="18"/>
       <c r="H623" s="18"/>
       <c r="I623" s="18"/>
     </row>
     <row r="624">
-      <c r="A624" s="19"/>
-      <c r="F624" s="18"/>
+      <c r="A624" s="23"/>
+      <c r="E624" s="21"/>
+      <c r="F624" s="22"/>
       <c r="G624" s="18"/>
       <c r="H624" s="18"/>
       <c r="I624" s="18"/>
     </row>
     <row r="625">
-      <c r="A625" s="19"/>
-      <c r="F625" s="18"/>
+      <c r="A625" s="23"/>
+      <c r="E625" s="21"/>
+      <c r="F625" s="22"/>
       <c r="G625" s="18"/>
       <c r="H625" s="18"/>
       <c r="I625" s="18"/>
     </row>
     <row r="626">
-      <c r="A626" s="19"/>
-      <c r="F626" s="18"/>
+      <c r="A626" s="23"/>
+      <c r="E626" s="21"/>
+      <c r="F626" s="22"/>
       <c r="G626" s="18"/>
       <c r="H626" s="18"/>
       <c r="I626" s="18"/>
     </row>
     <row r="627">
-      <c r="A627" s="19"/>
-      <c r="F627" s="18"/>
+      <c r="A627" s="23"/>
+      <c r="E627" s="21"/>
+      <c r="F627" s="22"/>
       <c r="G627" s="18"/>
       <c r="H627" s="18"/>
       <c r="I627" s="18"/>
     </row>
     <row r="628">
-      <c r="A628" s="19"/>
-      <c r="F628" s="18"/>
+      <c r="A628" s="23"/>
+      <c r="E628" s="21"/>
+      <c r="F628" s="22"/>
       <c r="G628" s="18"/>
       <c r="H628" s="18"/>
       <c r="I628" s="18"/>
     </row>
     <row r="629">
-      <c r="A629" s="19"/>
-      <c r="F629" s="18"/>
+      <c r="A629" s="23"/>
+      <c r="E629" s="21"/>
+      <c r="F629" s="22"/>
       <c r="G629" s="18"/>
       <c r="H629" s="18"/>
       <c r="I629" s="18"/>
     </row>
     <row r="630">
-      <c r="A630" s="19"/>
-      <c r="F630" s="18"/>
+      <c r="A630" s="23"/>
+      <c r="E630" s="21"/>
+      <c r="F630" s="22"/>
       <c r="G630" s="18"/>
       <c r="H630" s="18"/>
       <c r="I630" s="18"/>
     </row>
     <row r="631">
-      <c r="A631" s="19"/>
-      <c r="F631" s="18"/>
+      <c r="A631" s="23"/>
+      <c r="E631" s="21"/>
+      <c r="F631" s="22"/>
       <c r="G631" s="18"/>
       <c r="H631" s="18"/>
       <c r="I631" s="18"/>
     </row>
     <row r="632">
-      <c r="A632" s="19"/>
-      <c r="F632" s="18"/>
+      <c r="A632" s="23"/>
+      <c r="E632" s="21"/>
+      <c r="F632" s="22"/>
       <c r="G632" s="18"/>
       <c r="H632" s="18"/>
       <c r="I632" s="18"/>
     </row>
     <row r="633">
-      <c r="A633" s="19"/>
-      <c r="F633" s="18"/>
+      <c r="A633" s="23"/>
+      <c r="E633" s="21"/>
+      <c r="F633" s="22"/>
       <c r="G633" s="18"/>
       <c r="H633" s="18"/>
       <c r="I633" s="18"/>
     </row>
     <row r="634">
-      <c r="A634" s="19"/>
-      <c r="F634" s="18"/>
+      <c r="A634" s="23"/>
+      <c r="E634" s="21"/>
+      <c r="F634" s="22"/>
       <c r="G634" s="18"/>
       <c r="H634" s="18"/>
       <c r="I634" s="18"/>
     </row>
     <row r="635">
-      <c r="A635" s="19"/>
-      <c r="F635" s="18"/>
+      <c r="A635" s="23"/>
+      <c r="E635" s="21"/>
+      <c r="F635" s="22"/>
       <c r="G635" s="18"/>
       <c r="H635" s="18"/>
       <c r="I635" s="18"/>
     </row>
     <row r="636">
-      <c r="A636" s="19"/>
-      <c r="F636" s="18"/>
+      <c r="A636" s="23"/>
+      <c r="E636" s="21"/>
+      <c r="F636" s="22"/>
       <c r="G636" s="18"/>
       <c r="H636" s="18"/>
       <c r="I636" s="18"/>
     </row>
     <row r="637">
-      <c r="A637" s="19"/>
-      <c r="F637" s="18"/>
+      <c r="A637" s="23"/>
+      <c r="E637" s="21"/>
+      <c r="F637" s="22"/>
       <c r="G637" s="18"/>
       <c r="H637" s="18"/>
       <c r="I637" s="18"/>
     </row>
     <row r="638">
-      <c r="A638" s="19"/>
-      <c r="F638" s="18"/>
+      <c r="A638" s="23"/>
+      <c r="E638" s="21"/>
+      <c r="F638" s="22"/>
       <c r="G638" s="18"/>
       <c r="H638" s="18"/>
       <c r="I638" s="18"/>
     </row>
     <row r="639">
-      <c r="A639" s="19"/>
-      <c r="F639" s="18"/>
+      <c r="A639" s="23"/>
+      <c r="E639" s="21"/>
+      <c r="F639" s="22"/>
       <c r="G639" s="18"/>
       <c r="H639" s="18"/>
       <c r="I639" s="18"/>
     </row>
     <row r="640">
-      <c r="A640" s="19"/>
-      <c r="F640" s="18"/>
+      <c r="A640" s="23"/>
+      <c r="E640" s="21"/>
+      <c r="F640" s="22"/>
       <c r="G640" s="18"/>
       <c r="H640" s="18"/>
       <c r="I640" s="18"/>
     </row>
     <row r="641">
-      <c r="A641" s="19"/>
-      <c r="F641" s="18"/>
+      <c r="A641" s="23"/>
+      <c r="E641" s="21"/>
+      <c r="F641" s="22"/>
       <c r="G641" s="18"/>
       <c r="H641" s="18"/>
       <c r="I641" s="18"/>
     </row>
     <row r="642">
-      <c r="A642" s="19"/>
-      <c r="F642" s="18"/>
+      <c r="A642" s="23"/>
+      <c r="E642" s="21"/>
+      <c r="F642" s="22"/>
       <c r="G642" s="18"/>
       <c r="H642" s="18"/>
       <c r="I642" s="18"/>
     </row>
     <row r="643">
-      <c r="A643" s="19"/>
-      <c r="F643" s="18"/>
+      <c r="A643" s="23"/>
+      <c r="E643" s="21"/>
+      <c r="F643" s="22"/>
       <c r="G643" s="18"/>
       <c r="H643" s="18"/>
       <c r="I643" s="18"/>
     </row>
     <row r="644">
-      <c r="A644" s="19"/>
-      <c r="F644" s="18"/>
+      <c r="A644" s="23"/>
+      <c r="E644" s="21"/>
+      <c r="F644" s="22"/>
       <c r="G644" s="18"/>
       <c r="H644" s="18"/>
       <c r="I644" s="18"/>
     </row>
     <row r="645">
-      <c r="A645" s="19"/>
-      <c r="F645" s="18"/>
+      <c r="A645" s="23"/>
+      <c r="E645" s="21"/>
+      <c r="F645" s="22"/>
       <c r="G645" s="18"/>
       <c r="H645" s="18"/>
       <c r="I645" s="18"/>
     </row>
     <row r="646">
-      <c r="A646" s="19"/>
-      <c r="F646" s="18"/>
+      <c r="A646" s="23"/>
+      <c r="E646" s="21"/>
+      <c r="F646" s="22"/>
       <c r="G646" s="18"/>
       <c r="H646" s="18"/>
       <c r="I646" s="18"/>
     </row>
     <row r="647">
-      <c r="A647" s="19"/>
-      <c r="F647" s="18"/>
+      <c r="A647" s="23"/>
+      <c r="E647" s="21"/>
+      <c r="F647" s="22"/>
       <c r="G647" s="18"/>
       <c r="H647" s="18"/>
       <c r="I647" s="18"/>
     </row>
     <row r="648">
-      <c r="A648" s="19"/>
-      <c r="F648" s="18"/>
+      <c r="A648" s="23"/>
+      <c r="E648" s="21"/>
+      <c r="F648" s="22"/>
       <c r="G648" s="18"/>
       <c r="H648" s="18"/>
       <c r="I648" s="18"/>
     </row>
     <row r="649">
-      <c r="A649" s="19"/>
-      <c r="F649" s="18"/>
+      <c r="A649" s="23"/>
+      <c r="E649" s="21"/>
+      <c r="F649" s="22"/>
       <c r="G649" s="18"/>
       <c r="H649" s="18"/>
       <c r="I649" s="18"/>
     </row>
     <row r="650">
-      <c r="A650" s="19"/>
-      <c r="F650" s="18"/>
+      <c r="A650" s="23"/>
+      <c r="E650" s="21"/>
+      <c r="F650" s="22"/>
       <c r="G650" s="18"/>
       <c r="H650" s="18"/>
       <c r="I650" s="18"/>
     </row>
     <row r="651">
-      <c r="A651" s="19"/>
-      <c r="F651" s="18"/>
+      <c r="A651" s="23"/>
+      <c r="E651" s="21"/>
+      <c r="F651" s="22"/>
       <c r="G651" s="18"/>
       <c r="H651" s="18"/>
       <c r="I651" s="18"/>
     </row>
     <row r="652">
-      <c r="A652" s="19"/>
-      <c r="F652" s="18"/>
+      <c r="A652" s="23"/>
+      <c r="E652" s="21"/>
+      <c r="F652" s="22"/>
       <c r="G652" s="18"/>
       <c r="H652" s="18"/>
       <c r="I652" s="18"/>
     </row>
     <row r="653">
-      <c r="A653" s="19"/>
-      <c r="F653" s="18"/>
+      <c r="A653" s="23"/>
+      <c r="E653" s="21"/>
+      <c r="F653" s="22"/>
       <c r="G653" s="18"/>
       <c r="H653" s="18"/>
       <c r="I653" s="18"/>
     </row>
     <row r="654">
-      <c r="A654" s="19"/>
-      <c r="F654" s="18"/>
+      <c r="A654" s="23"/>
+      <c r="E654" s="21"/>
+      <c r="F654" s="22"/>
       <c r="G654" s="18"/>
       <c r="H654" s="18"/>
       <c r="I654" s="18"/>
     </row>
     <row r="655">
-      <c r="A655" s="19"/>
-      <c r="F655" s="18"/>
+      <c r="A655" s="23"/>
+      <c r="E655" s="21"/>
+      <c r="F655" s="22"/>
       <c r="G655" s="18"/>
       <c r="H655" s="18"/>
       <c r="I655" s="18"/>
     </row>
     <row r="656">
-      <c r="A656" s="19"/>
-      <c r="F656" s="18"/>
+      <c r="A656" s="23"/>
+      <c r="E656" s="21"/>
+      <c r="F656" s="22"/>
       <c r="G656" s="18"/>
       <c r="H656" s="18"/>
       <c r="I656" s="18"/>
     </row>
     <row r="657">
-      <c r="A657" s="19"/>
-      <c r="F657" s="18"/>
+      <c r="A657" s="23"/>
+      <c r="E657" s="21"/>
+      <c r="F657" s="22"/>
       <c r="G657" s="18"/>
       <c r="H657" s="18"/>
       <c r="I657" s="18"/>
     </row>
     <row r="658">
-      <c r="A658" s="19"/>
-      <c r="F658" s="18"/>
+      <c r="A658" s="23"/>
+      <c r="E658" s="21"/>
+      <c r="F658" s="22"/>
       <c r="G658" s="18"/>
       <c r="H658" s="18"/>
       <c r="I658" s="18"/>
     </row>
     <row r="659">
-      <c r="A659" s="19"/>
-      <c r="F659" s="18"/>
+      <c r="A659" s="23"/>
+      <c r="E659" s="21"/>
+      <c r="F659" s="22"/>
       <c r="G659" s="18"/>
       <c r="H659" s="18"/>
       <c r="I659" s="18"/>
     </row>
     <row r="660">
-      <c r="A660" s="19"/>
-      <c r="F660" s="18"/>
+      <c r="A660" s="23"/>
+      <c r="E660" s="21"/>
+      <c r="F660" s="22"/>
       <c r="G660" s="18"/>
       <c r="H660" s="18"/>
       <c r="I660" s="18"/>
     </row>
     <row r="661">
-      <c r="A661" s="19"/>
-      <c r="F661" s="18"/>
+      <c r="A661" s="23"/>
+      <c r="E661" s="21"/>
+      <c r="F661" s="22"/>
       <c r="G661" s="18"/>
       <c r="H661" s="18"/>
       <c r="I661" s="18"/>
     </row>
     <row r="662">
-      <c r="A662" s="19"/>
-      <c r="F662" s="18"/>
+      <c r="A662" s="23"/>
+      <c r="E662" s="21"/>
+      <c r="F662" s="22"/>
       <c r="G662" s="18"/>
       <c r="H662" s="18"/>
       <c r="I662" s="18"/>
     </row>
     <row r="663">
-      <c r="A663" s="19"/>
-      <c r="F663" s="18"/>
+      <c r="A663" s="23"/>
+      <c r="E663" s="21"/>
+      <c r="F663" s="22"/>
       <c r="G663" s="18"/>
       <c r="H663" s="18"/>
       <c r="I663" s="18"/>
     </row>
     <row r="664">
-      <c r="A664" s="19"/>
-      <c r="F664" s="18"/>
+      <c r="A664" s="23"/>
+      <c r="E664" s="21"/>
+      <c r="F664" s="22"/>
       <c r="G664" s="18"/>
       <c r="H664" s="18"/>
       <c r="I664" s="18"/>
     </row>
     <row r="665">
-      <c r="A665" s="19"/>
-      <c r="F665" s="18"/>
+      <c r="A665" s="23"/>
+      <c r="E665" s="21"/>
+      <c r="F665" s="22"/>
       <c r="G665" s="18"/>
       <c r="H665" s="18"/>
       <c r="I665" s="18"/>
     </row>
     <row r="666">
-      <c r="A666" s="19"/>
-      <c r="F666" s="18"/>
+      <c r="A666" s="23"/>
+      <c r="E666" s="21"/>
+      <c r="F666" s="22"/>
       <c r="G666" s="18"/>
       <c r="H666" s="18"/>
       <c r="I666" s="18"/>
     </row>
     <row r="667">
-      <c r="A667" s="19"/>
-      <c r="F667" s="18"/>
+      <c r="A667" s="23"/>
+      <c r="E667" s="21"/>
+      <c r="F667" s="22"/>
       <c r="G667" s="18"/>
       <c r="H667" s="18"/>
       <c r="I667" s="18"/>
     </row>
     <row r="668">
-      <c r="A668" s="19"/>
-      <c r="F668" s="18"/>
+      <c r="A668" s="23"/>
+      <c r="E668" s="21"/>
+      <c r="F668" s="22"/>
       <c r="G668" s="18"/>
       <c r="H668" s="18"/>
       <c r="I668" s="18"/>
     </row>
     <row r="669">
-      <c r="A669" s="19"/>
-      <c r="F669" s="18"/>
+      <c r="A669" s="23"/>
+      <c r="E669" s="21"/>
+      <c r="F669" s="22"/>
       <c r="G669" s="18"/>
       <c r="H669" s="18"/>
       <c r="I669" s="18"/>
     </row>
     <row r="670">
-      <c r="A670" s="19"/>
-      <c r="F670" s="18"/>
+      <c r="A670" s="23"/>
+      <c r="E670" s="21"/>
+      <c r="F670" s="22"/>
       <c r="G670" s="18"/>
       <c r="H670" s="18"/>
       <c r="I670" s="18"/>
     </row>
     <row r="671">
-      <c r="A671" s="19"/>
-      <c r="F671" s="18"/>
+      <c r="A671" s="23"/>
+      <c r="E671" s="21"/>
+      <c r="F671" s="22"/>
       <c r="G671" s="18"/>
       <c r="H671" s="18"/>
       <c r="I671" s="18"/>
     </row>
     <row r="672">
-      <c r="A672" s="19"/>
-      <c r="F672" s="18"/>
+      <c r="A672" s="23"/>
+      <c r="E672" s="21"/>
+      <c r="F672" s="22"/>
       <c r="G672" s="18"/>
       <c r="H672" s="18"/>
       <c r="I672" s="18"/>
     </row>
     <row r="673">
-      <c r="A673" s="19"/>
-      <c r="F673" s="18"/>
+      <c r="A673" s="23"/>
+      <c r="E673" s="21"/>
+      <c r="F673" s="22"/>
       <c r="G673" s="18"/>
       <c r="H673" s="18"/>
       <c r="I673" s="18"/>
     </row>
     <row r="674">
-      <c r="A674" s="19"/>
-      <c r="F674" s="18"/>
+      <c r="A674" s="23"/>
+      <c r="E674" s="21"/>
+      <c r="F674" s="22"/>
       <c r="G674" s="18"/>
       <c r="H674" s="18"/>
       <c r="I674" s="18"/>
     </row>
     <row r="675">
-      <c r="A675" s="19"/>
-      <c r="F675" s="18"/>
+      <c r="A675" s="23"/>
+      <c r="E675" s="21"/>
+      <c r="F675" s="22"/>
       <c r="G675" s="18"/>
       <c r="H675" s="18"/>
       <c r="I675" s="18"/>
     </row>
     <row r="676">
-      <c r="A676" s="19"/>
-      <c r="F676" s="18"/>
+      <c r="A676" s="23"/>
+      <c r="E676" s="21"/>
+      <c r="F676" s="22"/>
       <c r="G676" s="18"/>
       <c r="H676" s="18"/>
       <c r="I676" s="18"/>
     </row>
     <row r="677">
-      <c r="A677" s="19"/>
-      <c r="F677" s="18"/>
+      <c r="A677" s="23"/>
+      <c r="E677" s="21"/>
+      <c r="F677" s="22"/>
       <c r="G677" s="18"/>
       <c r="H677" s="18"/>
       <c r="I677" s="18"/>
     </row>
     <row r="678">
-      <c r="A678" s="19"/>
-      <c r="F678" s="18"/>
+      <c r="A678" s="23"/>
+      <c r="E678" s="21"/>
+      <c r="F678" s="22"/>
       <c r="G678" s="18"/>
       <c r="H678" s="18"/>
       <c r="I678" s="18"/>
     </row>
     <row r="679">
-      <c r="A679" s="19"/>
-      <c r="F679" s="18"/>
+      <c r="A679" s="23"/>
+      <c r="E679" s="21"/>
+      <c r="F679" s="22"/>
       <c r="G679" s="18"/>
       <c r="H679" s="18"/>
       <c r="I679" s="18"/>
     </row>
     <row r="680">
-      <c r="A680" s="19"/>
-      <c r="F680" s="18"/>
+      <c r="A680" s="23"/>
+      <c r="E680" s="21"/>
+      <c r="F680" s="22"/>
       <c r="G680" s="18"/>
       <c r="H680" s="18"/>
       <c r="I680" s="18"/>
     </row>
     <row r="681">
-      <c r="A681" s="19"/>
-      <c r="F681" s="18"/>
+      <c r="A681" s="23"/>
+      <c r="E681" s="21"/>
+      <c r="F681" s="22"/>
       <c r="G681" s="18"/>
       <c r="H681" s="18"/>
       <c r="I681" s="18"/>
     </row>
     <row r="682">
-      <c r="A682" s="19"/>
-      <c r="F682" s="18"/>
+      <c r="A682" s="23"/>
+      <c r="E682" s="21"/>
+      <c r="F682" s="22"/>
       <c r="G682" s="18"/>
       <c r="H682" s="18"/>
       <c r="I682" s="18"/>
     </row>
     <row r="683">
-      <c r="A683" s="19"/>
-      <c r="F683" s="18"/>
+      <c r="A683" s="23"/>
+      <c r="E683" s="21"/>
+      <c r="F683" s="22"/>
       <c r="G683" s="18"/>
       <c r="H683" s="18"/>
       <c r="I683" s="18"/>
     </row>
     <row r="684">
-      <c r="A684" s="19"/>
-      <c r="F684" s="18"/>
+      <c r="A684" s="23"/>
+      <c r="E684" s="21"/>
+      <c r="F684" s="22"/>
       <c r="G684" s="18"/>
       <c r="H684" s="18"/>
       <c r="I684" s="18"/>
     </row>
     <row r="685">
-      <c r="A685" s="19"/>
-      <c r="F685" s="18"/>
+      <c r="A685" s="23"/>
+      <c r="E685" s="21"/>
+      <c r="F685" s="22"/>
       <c r="G685" s="18"/>
       <c r="H685" s="18"/>
       <c r="I685" s="18"/>
     </row>
     <row r="686">
-      <c r="A686" s="19"/>
-      <c r="F686" s="18"/>
+      <c r="A686" s="23"/>
+      <c r="E686" s="21"/>
+      <c r="F686" s="22"/>
       <c r="G686" s="18"/>
       <c r="H686" s="18"/>
       <c r="I686" s="18"/>
     </row>
     <row r="687">
-      <c r="A687" s="19"/>
-      <c r="F687" s="18"/>
+      <c r="A687" s="23"/>
+      <c r="E687" s="21"/>
+      <c r="F687" s="22"/>
       <c r="G687" s="18"/>
       <c r="H687" s="18"/>
       <c r="I687" s="18"/>
     </row>
     <row r="688">
-      <c r="A688" s="19"/>
-      <c r="F688" s="18"/>
+      <c r="A688" s="23"/>
+      <c r="E688" s="21"/>
+      <c r="F688" s="22"/>
       <c r="G688" s="18"/>
       <c r="H688" s="18"/>
       <c r="I688" s="18"/>
     </row>
     <row r="689">
-      <c r="A689" s="19"/>
-      <c r="F689" s="18"/>
+      <c r="A689" s="23"/>
+      <c r="E689" s="21"/>
+      <c r="F689" s="22"/>
       <c r="G689" s="18"/>
       <c r="H689" s="18"/>
       <c r="I689" s="18"/>
     </row>
     <row r="690">
-      <c r="A690" s="19"/>
-      <c r="F690" s="18"/>
+      <c r="A690" s="23"/>
+      <c r="E690" s="21"/>
+      <c r="F690" s="22"/>
       <c r="G690" s="18"/>
       <c r="H690" s="18"/>
       <c r="I690" s="18"/>
     </row>
     <row r="691">
-      <c r="A691" s="19"/>
-      <c r="F691" s="18"/>
+      <c r="A691" s="23"/>
+      <c r="E691" s="21"/>
+      <c r="F691" s="22"/>
       <c r="G691" s="18"/>
       <c r="H691" s="18"/>
       <c r="I691" s="18"/>
     </row>
     <row r="692">
-      <c r="A692" s="19"/>
-      <c r="F692" s="18"/>
+      <c r="A692" s="23"/>
+      <c r="E692" s="21"/>
+      <c r="F692" s="22"/>
       <c r="G692" s="18"/>
       <c r="H692" s="18"/>
       <c r="I692" s="18"/>
     </row>
     <row r="693">
-      <c r="A693" s="19"/>
-      <c r="F693" s="18"/>
+      <c r="A693" s="23"/>
+      <c r="E693" s="21"/>
+      <c r="F693" s="22"/>
       <c r="G693" s="18"/>
       <c r="H693" s="18"/>
       <c r="I693" s="18"/>
     </row>
     <row r="694">
-      <c r="A694" s="19"/>
-      <c r="F694" s="18"/>
+      <c r="A694" s="23"/>
+      <c r="E694" s="21"/>
+      <c r="F694" s="22"/>
       <c r="G694" s="18"/>
       <c r="H694" s="18"/>
       <c r="I694" s="18"/>
     </row>
     <row r="695">
-      <c r="A695" s="19"/>
-      <c r="F695" s="18"/>
+      <c r="A695" s="23"/>
+      <c r="E695" s="21"/>
+      <c r="F695" s="22"/>
       <c r="G695" s="18"/>
       <c r="H695" s="18"/>
       <c r="I695" s="18"/>
     </row>
     <row r="696">
-      <c r="A696" s="19"/>
-      <c r="F696" s="18"/>
+      <c r="A696" s="23"/>
+      <c r="E696" s="21"/>
+      <c r="F696" s="22"/>
       <c r="G696" s="18"/>
       <c r="H696" s="18"/>
       <c r="I696" s="18"/>
     </row>
     <row r="697">
-      <c r="A697" s="19"/>
-      <c r="F697" s="18"/>
+      <c r="A697" s="23"/>
+      <c r="E697" s="21"/>
+      <c r="F697" s="22"/>
       <c r="G697" s="18"/>
       <c r="H697" s="18"/>
       <c r="I697" s="18"/>
     </row>
     <row r="698">
-      <c r="A698" s="19"/>
-      <c r="F698" s="18"/>
+      <c r="A698" s="23"/>
+      <c r="E698" s="21"/>
+      <c r="F698" s="22"/>
       <c r="G698" s="18"/>
       <c r="H698" s="18"/>
       <c r="I698" s="18"/>
     </row>
     <row r="699">
-      <c r="A699" s="19"/>
-      <c r="F699" s="18"/>
+      <c r="A699" s="23"/>
+      <c r="E699" s="21"/>
+      <c r="F699" s="22"/>
       <c r="G699" s="18"/>
       <c r="H699" s="18"/>
       <c r="I699" s="18"/>
     </row>
     <row r="700">
-      <c r="A700" s="19"/>
-      <c r="F700" s="18"/>
+      <c r="A700" s="23"/>
+      <c r="E700" s="21"/>
+      <c r="F700" s="22"/>
       <c r="G700" s="18"/>
       <c r="H700" s="18"/>
       <c r="I700" s="18"/>
     </row>
     <row r="701">
-      <c r="A701" s="19"/>
-      <c r="F701" s="18"/>
+      <c r="A701" s="23"/>
+      <c r="E701" s="21"/>
+      <c r="F701" s="22"/>
       <c r="G701" s="18"/>
       <c r="H701" s="18"/>
       <c r="I701" s="18"/>
     </row>
     <row r="702">
-      <c r="A702" s="19"/>
-      <c r="F702" s="18"/>
+      <c r="A702" s="23"/>
+      <c r="E702" s="21"/>
+      <c r="F702" s="22"/>
       <c r="G702" s="18"/>
       <c r="H702" s="18"/>
       <c r="I702" s="18"/>
     </row>
     <row r="703">
-      <c r="A703" s="19"/>
-      <c r="F703" s="18"/>
+      <c r="A703" s="23"/>
+      <c r="E703" s="21"/>
+      <c r="F703" s="22"/>
       <c r="G703" s="18"/>
       <c r="H703" s="18"/>
       <c r="I703" s="18"/>
     </row>
     <row r="704">
-      <c r="A704" s="19"/>
-      <c r="F704" s="18"/>
+      <c r="A704" s="23"/>
+      <c r="E704" s="21"/>
+      <c r="F704" s="22"/>
       <c r="G704" s="18"/>
       <c r="H704" s="18"/>
       <c r="I704" s="18"/>
     </row>
     <row r="705">
-      <c r="A705" s="19"/>
-      <c r="F705" s="18"/>
+      <c r="A705" s="23"/>
+      <c r="E705" s="21"/>
+      <c r="F705" s="22"/>
       <c r="G705" s="18"/>
       <c r="H705" s="18"/>
       <c r="I705" s="18"/>
     </row>
     <row r="706">
-      <c r="A706" s="19"/>
-      <c r="F706" s="18"/>
+      <c r="A706" s="23"/>
+      <c r="E706" s="21"/>
+      <c r="F706" s="22"/>
       <c r="G706" s="18"/>
       <c r="H706" s="18"/>
       <c r="I706" s="18"/>
     </row>
     <row r="707">
-      <c r="A707" s="19"/>
-      <c r="F707" s="18"/>
+      <c r="A707" s="23"/>
+      <c r="E707" s="21"/>
+      <c r="F707" s="22"/>
       <c r="G707" s="18"/>
       <c r="H707" s="18"/>
       <c r="I707" s="18"/>
     </row>
     <row r="708">
-      <c r="A708" s="19"/>
-      <c r="F708" s="18"/>
+      <c r="A708" s="23"/>
+      <c r="E708" s="21"/>
+      <c r="F708" s="22"/>
       <c r="G708" s="18"/>
       <c r="H708" s="18"/>
       <c r="I708" s="18"/>
     </row>
     <row r="709">
-      <c r="A709" s="19"/>
-      <c r="F709" s="18"/>
+      <c r="A709" s="23"/>
+      <c r="E709" s="21"/>
+      <c r="F709" s="22"/>
       <c r="G709" s="18"/>
       <c r="H709" s="18"/>
       <c r="I709" s="18"/>
     </row>
     <row r="710">
-      <c r="A710" s="19"/>
-      <c r="F710" s="18"/>
+      <c r="A710" s="23"/>
+      <c r="E710" s="21"/>
+      <c r="F710" s="22"/>
       <c r="G710" s="18"/>
       <c r="H710" s="18"/>
       <c r="I710" s="18"/>
     </row>
     <row r="711">
-      <c r="A711" s="19"/>
-      <c r="F711" s="18"/>
+      <c r="A711" s="23"/>
+      <c r="E711" s="21"/>
+      <c r="F711" s="22"/>
       <c r="G711" s="18"/>
       <c r="H711" s="18"/>
       <c r="I711" s="18"/>
     </row>
     <row r="712">
-      <c r="A712" s="19"/>
-      <c r="F712" s="18"/>
+      <c r="A712" s="23"/>
+      <c r="E712" s="21"/>
+      <c r="F712" s="22"/>
       <c r="G712" s="18"/>
       <c r="H712" s="18"/>
       <c r="I712" s="18"/>
     </row>
     <row r="713">
-      <c r="A713" s="19"/>
-      <c r="F713" s="18"/>
+      <c r="A713" s="23"/>
+      <c r="E713" s="21"/>
+      <c r="F713" s="22"/>
       <c r="G713" s="18"/>
       <c r="H713" s="18"/>
       <c r="I713" s="18"/>
     </row>
     <row r="714">
-      <c r="A714" s="19"/>
-      <c r="F714" s="18"/>
+      <c r="A714" s="23"/>
+      <c r="E714" s="21"/>
+      <c r="F714" s="22"/>
       <c r="G714" s="18"/>
       <c r="H714" s="18"/>
       <c r="I714" s="18"/>
     </row>
     <row r="715">
-      <c r="A715" s="19"/>
-      <c r="F715" s="18"/>
+      <c r="A715" s="23"/>
+      <c r="E715" s="21"/>
+      <c r="F715" s="22"/>
       <c r="G715" s="18"/>
       <c r="H715" s="18"/>
       <c r="I715" s="18"/>
     </row>
     <row r="716">
-      <c r="A716" s="19"/>
-      <c r="F716" s="18"/>
+      <c r="A716" s="23"/>
+      <c r="E716" s="21"/>
+      <c r="F716" s="22"/>
       <c r="G716" s="18"/>
       <c r="H716" s="18"/>
       <c r="I716" s="18"/>
     </row>
     <row r="717">
-      <c r="A717" s="19"/>
-      <c r="F717" s="18"/>
+      <c r="A717" s="23"/>
+      <c r="E717" s="21"/>
+      <c r="F717" s="22"/>
       <c r="G717" s="18"/>
       <c r="H717" s="18"/>
       <c r="I717" s="18"/>
     </row>
     <row r="718">
-      <c r="A718" s="19"/>
-      <c r="F718" s="18"/>
+      <c r="A718" s="23"/>
+      <c r="E718" s="21"/>
+      <c r="F718" s="22"/>
       <c r="G718" s="18"/>
       <c r="H718" s="18"/>
       <c r="I718" s="18"/>
     </row>
     <row r="719">
-      <c r="A719" s="19"/>
-      <c r="F719" s="18"/>
+      <c r="A719" s="23"/>
+      <c r="E719" s="21"/>
+      <c r="F719" s="22"/>
       <c r="G719" s="18"/>
       <c r="H719" s="18"/>
       <c r="I719" s="18"/>
     </row>
     <row r="720">
-      <c r="A720" s="19"/>
-      <c r="F720" s="18"/>
+      <c r="A720" s="23"/>
+      <c r="E720" s="21"/>
+      <c r="F720" s="22"/>
       <c r="G720" s="18"/>
       <c r="H720" s="18"/>
       <c r="I720" s="18"/>
     </row>
     <row r="721">
-      <c r="A721" s="19"/>
-      <c r="F721" s="18"/>
+      <c r="A721" s="23"/>
+      <c r="E721" s="21"/>
+      <c r="F721" s="22"/>
       <c r="G721" s="18"/>
       <c r="H721" s="18"/>
       <c r="I721" s="18"/>
     </row>
     <row r="722">
-      <c r="A722" s="19"/>
-      <c r="F722" s="18"/>
+      <c r="A722" s="23"/>
+      <c r="E722" s="21"/>
+      <c r="F722" s="22"/>
       <c r="G722" s="18"/>
       <c r="H722" s="18"/>
       <c r="I722" s="18"/>
     </row>
     <row r="723">
-      <c r="A723" s="19"/>
-      <c r="F723" s="18"/>
+      <c r="A723" s="23"/>
+      <c r="E723" s="21"/>
+      <c r="F723" s="22"/>
       <c r="G723" s="18"/>
       <c r="H723" s="18"/>
       <c r="I723" s="18"/>
     </row>
     <row r="724">
-      <c r="A724" s="19"/>
-      <c r="F724" s="18"/>
+      <c r="A724" s="23"/>
+      <c r="E724" s="21"/>
+      <c r="F724" s="22"/>
       <c r="G724" s="18"/>
       <c r="H724" s="18"/>
       <c r="I724" s="18"/>
     </row>
     <row r="725">
-      <c r="A725" s="19"/>
-      <c r="F725" s="18"/>
+      <c r="A725" s="23"/>
+      <c r="E725" s="21"/>
+      <c r="F725" s="22"/>
       <c r="G725" s="18"/>
       <c r="H725" s="18"/>
       <c r="I725" s="18"/>
     </row>
     <row r="726">
-      <c r="A726" s="19"/>
-      <c r="F726" s="18"/>
+      <c r="A726" s="23"/>
+      <c r="E726" s="21"/>
+      <c r="F726" s="22"/>
       <c r="G726" s="18"/>
       <c r="H726" s="18"/>
       <c r="I726" s="18"/>
     </row>
     <row r="727">
-      <c r="A727" s="19"/>
-      <c r="F727" s="18"/>
+      <c r="A727" s="23"/>
+      <c r="E727" s="21"/>
+      <c r="F727" s="22"/>
       <c r="G727" s="18"/>
       <c r="H727" s="18"/>
       <c r="I727" s="18"/>
     </row>
     <row r="728">
-      <c r="A728" s="19"/>
-      <c r="F728" s="18"/>
+      <c r="A728" s="23"/>
+      <c r="E728" s="21"/>
+      <c r="F728" s="22"/>
       <c r="G728" s="18"/>
       <c r="H728" s="18"/>
       <c r="I728" s="18"/>
     </row>
     <row r="729">
-      <c r="A729" s="19"/>
-      <c r="F729" s="18"/>
+      <c r="A729" s="23"/>
+      <c r="E729" s="21"/>
+      <c r="F729" s="22"/>
       <c r="G729" s="18"/>
       <c r="H729" s="18"/>
       <c r="I729" s="18"/>
     </row>
     <row r="730">
-      <c r="A730" s="19"/>
-      <c r="F730" s="18"/>
+      <c r="A730" s="23"/>
+      <c r="E730" s="21"/>
+      <c r="F730" s="22"/>
       <c r="G730" s="18"/>
       <c r="H730" s="18"/>
       <c r="I730" s="18"/>
     </row>
     <row r="731">
-      <c r="A731" s="19"/>
-      <c r="F731" s="18"/>
+      <c r="A731" s="23"/>
+      <c r="E731" s="21"/>
+      <c r="F731" s="22"/>
       <c r="G731" s="18"/>
       <c r="H731" s="18"/>
       <c r="I731" s="18"/>
     </row>
     <row r="732">
-      <c r="A732" s="19"/>
-      <c r="F732" s="18"/>
+      <c r="A732" s="23"/>
+      <c r="E732" s="21"/>
+      <c r="F732" s="22"/>
       <c r="G732" s="18"/>
       <c r="H732" s="18"/>
       <c r="I732" s="18"/>
     </row>
     <row r="733">
-      <c r="A733" s="19"/>
-      <c r="F733" s="18"/>
+      <c r="A733" s="23"/>
+      <c r="E733" s="21"/>
+      <c r="F733" s="22"/>
       <c r="G733" s="18"/>
       <c r="H733" s="18"/>
       <c r="I733" s="18"/>
     </row>
     <row r="734">
-      <c r="A734" s="19"/>
-      <c r="F734" s="18"/>
+      <c r="A734" s="23"/>
+      <c r="E734" s="21"/>
+      <c r="F734" s="22"/>
       <c r="G734" s="18"/>
       <c r="H734" s="18"/>
       <c r="I734" s="18"/>
     </row>
     <row r="735">
-      <c r="A735" s="19"/>
-      <c r="F735" s="18"/>
+      <c r="A735" s="23"/>
+      <c r="E735" s="21"/>
+      <c r="F735" s="22"/>
       <c r="G735" s="18"/>
       <c r="H735" s="18"/>
       <c r="I735" s="18"/>
     </row>
     <row r="736">
-      <c r="A736" s="19"/>
-      <c r="F736" s="18"/>
+      <c r="A736" s="23"/>
+      <c r="E736" s="21"/>
+      <c r="F736" s="22"/>
       <c r="G736" s="18"/>
       <c r="H736" s="18"/>
       <c r="I736" s="18"/>
     </row>
     <row r="737">
-      <c r="A737" s="19"/>
-      <c r="F737" s="18"/>
+      <c r="A737" s="23"/>
+      <c r="E737" s="21"/>
+      <c r="F737" s="22"/>
       <c r="G737" s="18"/>
       <c r="H737" s="18"/>
       <c r="I737" s="18"/>
     </row>
     <row r="738">
-      <c r="A738" s="19"/>
-      <c r="F738" s="18"/>
+      <c r="A738" s="23"/>
+      <c r="E738" s="21"/>
+      <c r="F738" s="22"/>
       <c r="G738" s="18"/>
       <c r="H738" s="18"/>
       <c r="I738" s="18"/>
     </row>
     <row r="739">
-      <c r="A739" s="19"/>
-      <c r="F739" s="18"/>
+      <c r="A739" s="23"/>
+      <c r="E739" s="21"/>
+      <c r="F739" s="22"/>
       <c r="G739" s="18"/>
       <c r="H739" s="18"/>
       <c r="I739" s="18"/>
     </row>
     <row r="740">
-      <c r="A740" s="19"/>
-      <c r="F740" s="18"/>
+      <c r="A740" s="23"/>
+      <c r="E740" s="21"/>
+      <c r="F740" s="22"/>
       <c r="G740" s="18"/>
       <c r="H740" s="18"/>
       <c r="I740" s="18"/>
     </row>
     <row r="741">
-      <c r="A741" s="19"/>
-      <c r="F741" s="18"/>
+      <c r="A741" s="23"/>
+      <c r="E741" s="21"/>
+      <c r="F741" s="22"/>
       <c r="G741" s="18"/>
       <c r="H741" s="18"/>
       <c r="I741" s="18"/>
     </row>
     <row r="742">
-      <c r="A742" s="19"/>
-      <c r="F742" s="18"/>
+      <c r="A742" s="23"/>
+      <c r="E742" s="21"/>
+      <c r="F742" s="22"/>
       <c r="G742" s="18"/>
       <c r="H742" s="18"/>
       <c r="I742" s="18"/>
     </row>
     <row r="743">
-      <c r="A743" s="19"/>
-      <c r="F743" s="18"/>
+      <c r="A743" s="23"/>
+      <c r="E743" s="21"/>
+      <c r="F743" s="22"/>
       <c r="G743" s="18"/>
       <c r="H743" s="18"/>
       <c r="I743" s="18"/>
     </row>
     <row r="744">
-      <c r="A744" s="19"/>
-      <c r="F744" s="18"/>
+      <c r="A744" s="23"/>
+      <c r="E744" s="21"/>
+      <c r="F744" s="22"/>
       <c r="G744" s="18"/>
       <c r="H744" s="18"/>
       <c r="I744" s="18"/>
     </row>
     <row r="745">
-      <c r="A745" s="19"/>
-      <c r="F745" s="18"/>
+      <c r="A745" s="23"/>
+      <c r="E745" s="21"/>
+      <c r="F745" s="22"/>
       <c r="G745" s="18"/>
       <c r="H745" s="18"/>
       <c r="I745" s="18"/>
     </row>
     <row r="746">
-      <c r="A746" s="19"/>
-      <c r="F746" s="18"/>
+      <c r="A746" s="23"/>
+      <c r="E746" s="21"/>
+      <c r="F746" s="22"/>
       <c r="G746" s="18"/>
       <c r="H746" s="18"/>
       <c r="I746" s="18"/>
     </row>
     <row r="747">
-      <c r="A747" s="19"/>
-      <c r="F747" s="18"/>
+      <c r="A747" s="23"/>
+      <c r="E747" s="21"/>
+      <c r="F747" s="22"/>
       <c r="G747" s="18"/>
       <c r="H747" s="18"/>
       <c r="I747" s="18"/>
     </row>
     <row r="748">
-      <c r="A748" s="19"/>
-      <c r="F748" s="18"/>
+      <c r="A748" s="23"/>
+      <c r="E748" s="21"/>
+      <c r="F748" s="22"/>
       <c r="G748" s="18"/>
       <c r="H748" s="18"/>
       <c r="I748" s="18"/>
     </row>
     <row r="749">
-      <c r="A749" s="19"/>
-      <c r="F749" s="18"/>
+      <c r="A749" s="23"/>
+      <c r="E749" s="21"/>
+      <c r="F749" s="22"/>
       <c r="G749" s="18"/>
       <c r="H749" s="18"/>
       <c r="I749" s="18"/>
     </row>
     <row r="750">
-      <c r="A750" s="19"/>
-      <c r="F750" s="18"/>
+      <c r="A750" s="23"/>
+      <c r="E750" s="21"/>
+      <c r="F750" s="22"/>
       <c r="G750" s="18"/>
       <c r="H750" s="18"/>
       <c r="I750" s="18"/>
     </row>
     <row r="751">
-      <c r="A751" s="19"/>
-      <c r="F751" s="18"/>
+      <c r="A751" s="23"/>
+      <c r="E751" s="21"/>
+      <c r="F751" s="22"/>
       <c r="G751" s="18"/>
       <c r="H751" s="18"/>
       <c r="I751" s="18"/>
     </row>
     <row r="752">
-      <c r="A752" s="19"/>
-      <c r="F752" s="18"/>
+      <c r="A752" s="23"/>
+      <c r="E752" s="21"/>
+      <c r="F752" s="22"/>
       <c r="G752" s="18"/>
       <c r="H752" s="18"/>
       <c r="I752" s="18"/>
     </row>
     <row r="753">
-      <c r="A753" s="19"/>
-      <c r="F753" s="18"/>
+      <c r="A753" s="23"/>
+      <c r="E753" s="21"/>
+      <c r="F753" s="22"/>
       <c r="G753" s="18"/>
       <c r="H753" s="18"/>
       <c r="I753" s="18"/>
     </row>
     <row r="754">
-      <c r="A754" s="19"/>
-      <c r="F754" s="18"/>
+      <c r="A754" s="23"/>
+      <c r="E754" s="21"/>
+      <c r="F754" s="22"/>
       <c r="G754" s="18"/>
       <c r="H754" s="18"/>
       <c r="I754" s="18"/>
     </row>
     <row r="755">
-      <c r="A755" s="19"/>
-      <c r="F755" s="18"/>
+      <c r="A755" s="23"/>
+      <c r="E755" s="21"/>
+      <c r="F755" s="22"/>
       <c r="G755" s="18"/>
       <c r="H755" s="18"/>
       <c r="I755" s="18"/>
     </row>
     <row r="756">
-      <c r="A756" s="19"/>
-      <c r="F756" s="18"/>
+      <c r="A756" s="23"/>
+      <c r="E756" s="21"/>
+      <c r="F756" s="22"/>
       <c r="G756" s="18"/>
       <c r="H756" s="18"/>
       <c r="I756" s="18"/>
     </row>
     <row r="757">
-      <c r="A757" s="19"/>
-      <c r="F757" s="18"/>
+      <c r="A757" s="23"/>
+      <c r="E757" s="21"/>
+      <c r="F757" s="22"/>
       <c r="G757" s="18"/>
       <c r="H757" s="18"/>
       <c r="I757" s="18"/>
     </row>
     <row r="758">
-      <c r="A758" s="19"/>
-      <c r="F758" s="18"/>
+      <c r="A758" s="23"/>
+      <c r="E758" s="21"/>
+      <c r="F758" s="22"/>
       <c r="G758" s="18"/>
       <c r="H758" s="18"/>
       <c r="I758" s="18"/>
     </row>
     <row r="759">
-      <c r="A759" s="19"/>
-      <c r="F759" s="18"/>
+      <c r="A759" s="23"/>
+      <c r="E759" s="21"/>
+      <c r="F759" s="22"/>
       <c r="G759" s="18"/>
       <c r="H759" s="18"/>
       <c r="I759" s="18"/>
     </row>
     <row r="760">
-      <c r="A760" s="19"/>
-      <c r="F760" s="18"/>
+      <c r="A760" s="23"/>
+      <c r="E760" s="21"/>
+      <c r="F760" s="22"/>
       <c r="G760" s="18"/>
       <c r="H760" s="18"/>
       <c r="I760" s="18"/>
     </row>
     <row r="761">
-      <c r="A761" s="19"/>
-      <c r="F761" s="18"/>
+      <c r="A761" s="23"/>
+      <c r="E761" s="21"/>
+      <c r="F761" s="22"/>
       <c r="G761" s="18"/>
       <c r="H761" s="18"/>
       <c r="I761" s="18"/>
     </row>
     <row r="762">
-      <c r="A762" s="19"/>
-      <c r="F762" s="18"/>
+      <c r="A762" s="23"/>
+      <c r="E762" s="21"/>
+      <c r="F762" s="22"/>
       <c r="G762" s="18"/>
       <c r="H762" s="18"/>
       <c r="I762" s="18"/>
     </row>
     <row r="763">
-      <c r="A763" s="19"/>
-      <c r="F763" s="18"/>
+      <c r="A763" s="23"/>
+      <c r="E763" s="21"/>
+      <c r="F763" s="22"/>
       <c r="G763" s="18"/>
       <c r="H763" s="18"/>
       <c r="I763" s="18"/>
     </row>
     <row r="764">
-      <c r="A764" s="19"/>
-      <c r="F764" s="18"/>
+      <c r="A764" s="23"/>
+      <c r="E764" s="21"/>
+      <c r="F764" s="22"/>
       <c r="G764" s="18"/>
       <c r="H764" s="18"/>
       <c r="I764" s="18"/>
     </row>
     <row r="765">
-      <c r="A765" s="19"/>
-      <c r="F765" s="18"/>
+      <c r="A765" s="23"/>
+      <c r="E765" s="21"/>
+      <c r="F765" s="22"/>
       <c r="G765" s="18"/>
       <c r="H765" s="18"/>
       <c r="I765" s="18"/>
     </row>
     <row r="766">
-      <c r="A766" s="19"/>
-      <c r="F766" s="18"/>
+      <c r="A766" s="23"/>
+      <c r="E766" s="21"/>
+      <c r="F766" s="22"/>
       <c r="G766" s="18"/>
       <c r="H766" s="18"/>
       <c r="I766" s="18"/>
     </row>
     <row r="767">
-      <c r="A767" s="19"/>
-      <c r="F767" s="18"/>
+      <c r="A767" s="23"/>
+      <c r="E767" s="21"/>
+      <c r="F767" s="22"/>
       <c r="G767" s="18"/>
       <c r="H767" s="18"/>
       <c r="I767" s="18"/>
     </row>
     <row r="768">
-      <c r="A768" s="19"/>
-      <c r="F768" s="18"/>
+      <c r="A768" s="23"/>
+      <c r="E768" s="21"/>
+      <c r="F768" s="22"/>
       <c r="G768" s="18"/>
       <c r="H768" s="18"/>
       <c r="I768" s="18"/>
     </row>
     <row r="769">
-      <c r="A769" s="19"/>
-      <c r="F769" s="18"/>
+      <c r="A769" s="23"/>
+      <c r="E769" s="21"/>
+      <c r="F769" s="22"/>
       <c r="G769" s="18"/>
       <c r="H769" s="18"/>
       <c r="I769" s="18"/>
     </row>
     <row r="770">
-      <c r="A770" s="19"/>
-      <c r="F770" s="18"/>
+      <c r="A770" s="23"/>
+      <c r="E770" s="21"/>
+      <c r="F770" s="22"/>
       <c r="G770" s="18"/>
       <c r="H770" s="18"/>
       <c r="I770" s="18"/>
     </row>
     <row r="771">
-      <c r="A771" s="19"/>
-      <c r="F771" s="18"/>
+      <c r="A771" s="23"/>
+      <c r="E771" s="21"/>
+      <c r="F771" s="22"/>
       <c r="G771" s="18"/>
       <c r="H771" s="18"/>
       <c r="I771" s="18"/>
     </row>
     <row r="772">
-      <c r="A772" s="19"/>
-      <c r="F772" s="18"/>
+      <c r="A772" s="23"/>
+      <c r="E772" s="21"/>
+      <c r="F772" s="22"/>
       <c r="G772" s="18"/>
       <c r="H772" s="18"/>
       <c r="I772" s="18"/>
     </row>
     <row r="773">
-      <c r="A773" s="19"/>
-      <c r="F773" s="18"/>
+      <c r="A773" s="23"/>
+      <c r="E773" s="21"/>
+      <c r="F773" s="22"/>
       <c r="G773" s="18"/>
       <c r="H773" s="18"/>
       <c r="I773" s="18"/>
     </row>
     <row r="774">
-      <c r="A774" s="19"/>
-      <c r="F774" s="18"/>
+      <c r="A774" s="23"/>
+      <c r="E774" s="21"/>
+      <c r="F774" s="22"/>
       <c r="G774" s="18"/>
       <c r="H774" s="18"/>
       <c r="I774" s="18"/>
     </row>
     <row r="775">
-      <c r="A775" s="19"/>
-      <c r="F775" s="18"/>
+      <c r="A775" s="23"/>
+      <c r="E775" s="21"/>
+      <c r="F775" s="22"/>
       <c r="G775" s="18"/>
       <c r="H775" s="18"/>
       <c r="I775" s="18"/>
     </row>
     <row r="776">
-      <c r="A776" s="19"/>
-      <c r="F776" s="18"/>
+      <c r="A776" s="23"/>
+      <c r="E776" s="21"/>
+      <c r="F776" s="22"/>
       <c r="G776" s="18"/>
       <c r="H776" s="18"/>
       <c r="I776" s="18"/>
     </row>
     <row r="777">
-      <c r="A777" s="19"/>
-      <c r="F777" s="18"/>
+      <c r="A777" s="23"/>
+      <c r="E777" s="21"/>
+      <c r="F777" s="22"/>
       <c r="G777" s="18"/>
       <c r="H777" s="18"/>
       <c r="I777" s="18"/>
     </row>
     <row r="778">
-      <c r="A778" s="19"/>
-      <c r="F778" s="18"/>
+      <c r="A778" s="23"/>
+      <c r="E778" s="21"/>
+      <c r="F778" s="22"/>
       <c r="G778" s="18"/>
       <c r="H778" s="18"/>
       <c r="I778" s="18"/>
     </row>
     <row r="779">
-      <c r="A779" s="19"/>
-      <c r="F779" s="18"/>
+      <c r="A779" s="23"/>
+      <c r="E779" s="21"/>
+      <c r="F779" s="22"/>
       <c r="G779" s="18"/>
       <c r="H779" s="18"/>
       <c r="I779" s="18"/>
     </row>
     <row r="780">
-      <c r="A780" s="19"/>
-      <c r="F780" s="18"/>
+      <c r="A780" s="23"/>
+      <c r="E780" s="21"/>
+      <c r="F780" s="22"/>
       <c r="G780" s="18"/>
       <c r="H780" s="18"/>
       <c r="I780" s="18"/>
     </row>
     <row r="781">
-      <c r="A781" s="19"/>
-      <c r="F781" s="18"/>
+      <c r="A781" s="23"/>
+      <c r="E781" s="21"/>
+      <c r="F781" s="22"/>
       <c r="G781" s="18"/>
       <c r="H781" s="18"/>
       <c r="I781" s="18"/>
     </row>
     <row r="782">
-      <c r="A782" s="19"/>
-      <c r="F782" s="18"/>
+      <c r="A782" s="23"/>
+      <c r="E782" s="21"/>
+      <c r="F782" s="22"/>
       <c r="G782" s="18"/>
       <c r="H782" s="18"/>
       <c r="I782" s="18"/>
     </row>
     <row r="783">
-      <c r="A783" s="19"/>
-      <c r="F783" s="18"/>
+      <c r="A783" s="23"/>
+      <c r="E783" s="21"/>
+      <c r="F783" s="22"/>
       <c r="G783" s="18"/>
       <c r="H783" s="18"/>
       <c r="I783" s="18"/>
     </row>
     <row r="784">
-      <c r="A784" s="19"/>
-      <c r="F784" s="18"/>
+      <c r="A784" s="23"/>
+      <c r="E784" s="21"/>
+      <c r="F784" s="22"/>
       <c r="G784" s="18"/>
       <c r="H784" s="18"/>
       <c r="I784" s="18"/>
     </row>
     <row r="785">
-      <c r="A785" s="19"/>
-      <c r="F785" s="18"/>
+      <c r="A785" s="23"/>
+      <c r="E785" s="21"/>
+      <c r="F785" s="22"/>
       <c r="G785" s="18"/>
       <c r="H785" s="18"/>
       <c r="I785" s="18"/>
     </row>
     <row r="786">
-      <c r="A786" s="19"/>
-      <c r="F786" s="18"/>
+      <c r="A786" s="23"/>
+      <c r="E786" s="21"/>
+      <c r="F786" s="22"/>
       <c r="G786" s="18"/>
       <c r="H786" s="18"/>
       <c r="I786" s="18"/>
     </row>
     <row r="787">
-      <c r="A787" s="19"/>
-      <c r="F787" s="18"/>
+      <c r="A787" s="23"/>
+      <c r="E787" s="21"/>
+      <c r="F787" s="22"/>
       <c r="G787" s="18"/>
       <c r="H787" s="18"/>
       <c r="I787" s="18"/>
     </row>
     <row r="788">
-      <c r="A788" s="19"/>
-      <c r="F788" s="18"/>
+      <c r="A788" s="23"/>
+      <c r="E788" s="21"/>
+      <c r="F788" s="22"/>
       <c r="G788" s="18"/>
       <c r="H788" s="18"/>
       <c r="I788" s="18"/>
     </row>
     <row r="789">
-      <c r="A789" s="19"/>
-      <c r="F789" s="18"/>
+      <c r="A789" s="23"/>
+      <c r="E789" s="21"/>
+      <c r="F789" s="22"/>
       <c r="G789" s="18"/>
       <c r="H789" s="18"/>
       <c r="I789" s="18"/>
     </row>
     <row r="790">
-      <c r="A790" s="19"/>
-      <c r="F790" s="18"/>
+      <c r="A790" s="23"/>
+      <c r="E790" s="21"/>
+      <c r="F790" s="22"/>
       <c r="G790" s="18"/>
       <c r="H790" s="18"/>
       <c r="I790" s="18"/>
     </row>
     <row r="791">
-      <c r="A791" s="19"/>
-      <c r="F791" s="18"/>
+      <c r="A791" s="23"/>
+      <c r="E791" s="21"/>
+      <c r="F791" s="22"/>
       <c r="G791" s="18"/>
       <c r="H791" s="18"/>
       <c r="I791" s="18"/>
     </row>
     <row r="792">
-      <c r="A792" s="19"/>
-      <c r="F792" s="18"/>
+      <c r="A792" s="23"/>
+      <c r="E792" s="21"/>
+      <c r="F792" s="22"/>
       <c r="G792" s="18"/>
       <c r="H792" s="18"/>
       <c r="I792" s="18"/>
     </row>
     <row r="793">
-      <c r="A793" s="19"/>
-      <c r="F793" s="18"/>
+      <c r="A793" s="23"/>
+      <c r="E793" s="21"/>
+      <c r="F793" s="22"/>
       <c r="G793" s="18"/>
       <c r="H793" s="18"/>
       <c r="I793" s="18"/>
     </row>
     <row r="794">
-      <c r="A794" s="19"/>
-      <c r="F794" s="18"/>
+      <c r="A794" s="23"/>
+      <c r="E794" s="21"/>
+      <c r="F794" s="22"/>
       <c r="G794" s="18"/>
       <c r="H794" s="18"/>
       <c r="I794" s="18"/>
     </row>
     <row r="795">
-      <c r="A795" s="19"/>
-      <c r="F795" s="18"/>
+      <c r="A795" s="23"/>
+      <c r="E795" s="21"/>
+      <c r="F795" s="22"/>
       <c r="G795" s="18"/>
       <c r="H795" s="18"/>
       <c r="I795" s="18"/>
     </row>
     <row r="796">
-      <c r="A796" s="19"/>
-      <c r="F796" s="18"/>
+      <c r="A796" s="23"/>
+      <c r="E796" s="21"/>
+      <c r="F796" s="22"/>
       <c r="G796" s="18"/>
       <c r="H796" s="18"/>
       <c r="I796" s="18"/>
     </row>
     <row r="797">
-      <c r="A797" s="19"/>
-      <c r="F797" s="18"/>
+      <c r="A797" s="23"/>
+      <c r="E797" s="21"/>
+      <c r="F797" s="22"/>
       <c r="G797" s="18"/>
       <c r="H797" s="18"/>
       <c r="I797" s="18"/>
     </row>
     <row r="798">
-      <c r="A798" s="19"/>
-      <c r="F798" s="18"/>
+      <c r="A798" s="23"/>
+      <c r="E798" s="21"/>
+      <c r="F798" s="22"/>
       <c r="G798" s="18"/>
       <c r="H798" s="18"/>
       <c r="I798" s="18"/>
     </row>
     <row r="799">
-      <c r="A799" s="19"/>
-      <c r="F799" s="18"/>
+      <c r="A799" s="23"/>
+      <c r="E799" s="21"/>
+      <c r="F799" s="22"/>
       <c r="G799" s="18"/>
       <c r="H799" s="18"/>
       <c r="I799" s="18"/>
     </row>
     <row r="800">
-      <c r="A800" s="19"/>
-      <c r="F800" s="18"/>
+      <c r="A800" s="23"/>
+      <c r="E800" s="21"/>
+      <c r="F800" s="22"/>
       <c r="G800" s="18"/>
       <c r="H800" s="18"/>
       <c r="I800" s="18"/>
     </row>
     <row r="801">
-      <c r="A801" s="19"/>
-      <c r="F801" s="18"/>
+      <c r="A801" s="23"/>
+      <c r="E801" s="21"/>
+      <c r="F801" s="22"/>
       <c r="G801" s="18"/>
       <c r="H801" s="18"/>
       <c r="I801" s="18"/>
     </row>
     <row r="802">
-      <c r="A802" s="19"/>
-      <c r="F802" s="18"/>
+      <c r="A802" s="23"/>
+      <c r="E802" s="21"/>
+      <c r="F802" s="22"/>
       <c r="G802" s="18"/>
       <c r="H802" s="18"/>
       <c r="I802" s="18"/>
     </row>
     <row r="803">
-      <c r="A803" s="19"/>
-      <c r="F803" s="18"/>
+      <c r="A803" s="23"/>
+      <c r="E803" s="21"/>
+      <c r="F803" s="22"/>
       <c r="G803" s="18"/>
       <c r="H803" s="18"/>
       <c r="I803" s="18"/>
     </row>
     <row r="804">
-      <c r="A804" s="19"/>
-      <c r="F804" s="18"/>
+      <c r="A804" s="23"/>
+      <c r="E804" s="21"/>
+      <c r="F804" s="22"/>
       <c r="G804" s="18"/>
       <c r="H804" s="18"/>
       <c r="I804" s="18"/>
     </row>
     <row r="805">
-      <c r="A805" s="19"/>
-      <c r="F805" s="18"/>
+      <c r="A805" s="23"/>
+      <c r="E805" s="21"/>
+      <c r="F805" s="22"/>
       <c r="G805" s="18"/>
       <c r="H805" s="18"/>
       <c r="I805" s="18"/>
     </row>
     <row r="806">
-      <c r="A806" s="19"/>
-      <c r="F806" s="18"/>
+      <c r="A806" s="23"/>
+      <c r="E806" s="21"/>
+      <c r="F806" s="22"/>
       <c r="G806" s="18"/>
       <c r="H806" s="18"/>
       <c r="I806" s="18"/>
     </row>
     <row r="807">
-      <c r="A807" s="19"/>
-      <c r="F807" s="18"/>
+      <c r="A807" s="23"/>
+      <c r="E807" s="21"/>
+      <c r="F807" s="22"/>
       <c r="G807" s="18"/>
       <c r="H807" s="18"/>
       <c r="I807" s="18"/>
     </row>
     <row r="808">
-      <c r="A808" s="19"/>
-      <c r="F808" s="18"/>
+      <c r="A808" s="23"/>
+      <c r="E808" s="21"/>
+      <c r="F808" s="22"/>
       <c r="G808" s="18"/>
       <c r="H808" s="18"/>
       <c r="I808" s="18"/>
     </row>
     <row r="809">
-      <c r="A809" s="19"/>
-      <c r="F809" s="18"/>
+      <c r="A809" s="23"/>
+      <c r="E809" s="21"/>
+      <c r="F809" s="22"/>
       <c r="G809" s="18"/>
       <c r="H809" s="18"/>
       <c r="I809" s="18"/>
     </row>
     <row r="810">
-      <c r="A810" s="19"/>
-      <c r="F810" s="18"/>
+      <c r="A810" s="23"/>
+      <c r="E810" s="21"/>
+      <c r="F810" s="22"/>
       <c r="G810" s="18"/>
       <c r="H810" s="18"/>
       <c r="I810" s="18"/>
     </row>
     <row r="811">
-      <c r="A811" s="19"/>
-      <c r="F811" s="18"/>
+      <c r="A811" s="23"/>
+      <c r="E811" s="21"/>
+      <c r="F811" s="22"/>
       <c r="G811" s="18"/>
       <c r="H811" s="18"/>
       <c r="I811" s="18"/>
     </row>
     <row r="812">
-      <c r="A812" s="19"/>
-      <c r="F812" s="18"/>
+      <c r="A812" s="23"/>
+      <c r="E812" s="21"/>
+      <c r="F812" s="22"/>
       <c r="G812" s="18"/>
       <c r="H812" s="18"/>
       <c r="I812" s="18"/>
     </row>
     <row r="813">
-      <c r="A813" s="19"/>
-      <c r="F813" s="18"/>
+      <c r="A813" s="23"/>
+      <c r="E813" s="21"/>
+      <c r="F813" s="22"/>
       <c r="G813" s="18"/>
       <c r="H813" s="18"/>
       <c r="I813" s="18"/>
     </row>
     <row r="814">
-      <c r="A814" s="19"/>
-      <c r="F814" s="18"/>
+      <c r="A814" s="23"/>
+      <c r="E814" s="21"/>
+      <c r="F814" s="22"/>
       <c r="G814" s="18"/>
       <c r="H814" s="18"/>
       <c r="I814" s="18"/>
     </row>
     <row r="815">
-      <c r="A815" s="19"/>
-      <c r="F815" s="18"/>
+      <c r="A815" s="23"/>
+      <c r="E815" s="21"/>
+      <c r="F815" s="22"/>
       <c r="G815" s="18"/>
       <c r="H815" s="18"/>
       <c r="I815" s="18"/>
     </row>
     <row r="816">
-      <c r="A816" s="19"/>
-      <c r="F816" s="18"/>
+      <c r="A816" s="23"/>
+      <c r="E816" s="21"/>
+      <c r="F816" s="22"/>
       <c r="G816" s="18"/>
       <c r="H816" s="18"/>
       <c r="I816" s="18"/>
     </row>
     <row r="817">
-      <c r="A817" s="19"/>
-      <c r="F817" s="18"/>
+      <c r="A817" s="23"/>
+      <c r="E817" s="21"/>
+      <c r="F817" s="22"/>
       <c r="G817" s="18"/>
       <c r="H817" s="18"/>
       <c r="I817" s="18"/>
     </row>
     <row r="818">
-      <c r="A818" s="19"/>
-      <c r="F818" s="18"/>
+      <c r="A818" s="23"/>
+      <c r="E818" s="21"/>
+      <c r="F818" s="22"/>
       <c r="G818" s="18"/>
       <c r="H818" s="18"/>
       <c r="I818" s="18"/>
     </row>
     <row r="819">
-      <c r="A819" s="19"/>
-      <c r="F819" s="18"/>
+      <c r="A819" s="23"/>
+      <c r="E819" s="21"/>
+      <c r="F819" s="22"/>
       <c r="G819" s="18"/>
       <c r="H819" s="18"/>
       <c r="I819" s="18"/>
     </row>
     <row r="820">
-      <c r="A820" s="19"/>
-      <c r="F820" s="18"/>
+      <c r="A820" s="23"/>
+      <c r="E820" s="21"/>
+      <c r="F820" s="22"/>
       <c r="G820" s="18"/>
       <c r="H820" s="18"/>
       <c r="I820" s="18"/>
     </row>
     <row r="821">
-      <c r="A821" s="19"/>
-      <c r="F821" s="18"/>
+      <c r="A821" s="23"/>
+      <c r="E821" s="21"/>
+      <c r="F821" s="22"/>
       <c r="G821" s="18"/>
       <c r="H821" s="18"/>
       <c r="I821" s="18"/>
     </row>
     <row r="822">
-      <c r="A822" s="19"/>
-      <c r="F822" s="18"/>
+      <c r="A822" s="23"/>
+      <c r="E822" s="21"/>
+      <c r="F822" s="22"/>
       <c r="G822" s="18"/>
       <c r="H822" s="18"/>
       <c r="I822" s="18"/>
     </row>
     <row r="823">
-      <c r="A823" s="19"/>
-      <c r="F823" s="18"/>
+      <c r="A823" s="23"/>
+      <c r="E823" s="21"/>
+      <c r="F823" s="22"/>
       <c r="G823" s="18"/>
       <c r="H823" s="18"/>
       <c r="I823" s="18"/>
     </row>
     <row r="824">
-      <c r="A824" s="19"/>
-      <c r="F824" s="18"/>
+      <c r="A824" s="23"/>
+      <c r="E824" s="21"/>
+      <c r="F824" s="22"/>
       <c r="G824" s="18"/>
       <c r="H824" s="18"/>
       <c r="I824" s="18"/>
     </row>
     <row r="825">
-      <c r="A825" s="19"/>
-      <c r="F825" s="18"/>
+      <c r="A825" s="23"/>
+      <c r="E825" s="21"/>
+      <c r="F825" s="22"/>
       <c r="G825" s="18"/>
       <c r="H825" s="18"/>
       <c r="I825" s="18"/>
     </row>
     <row r="826">
-      <c r="A826" s="19"/>
-      <c r="F826" s="18"/>
+      <c r="A826" s="23"/>
+      <c r="E826" s="21"/>
+      <c r="F826" s="22"/>
       <c r="G826" s="18"/>
       <c r="H826" s="18"/>
       <c r="I826" s="18"/>
     </row>
     <row r="827">
-      <c r="A827" s="19"/>
-      <c r="F827" s="18"/>
+      <c r="A827" s="23"/>
+      <c r="E827" s="21"/>
+      <c r="F827" s="22"/>
       <c r="G827" s="18"/>
       <c r="H827" s="18"/>
       <c r="I827" s="18"/>
     </row>
     <row r="828">
-      <c r="A828" s="19"/>
-      <c r="F828" s="18"/>
+      <c r="A828" s="23"/>
+      <c r="E828" s="21"/>
+      <c r="F828" s="22"/>
       <c r="G828" s="18"/>
       <c r="H828" s="18"/>
       <c r="I828" s="18"/>
     </row>
     <row r="829">
-      <c r="A829" s="19"/>
-      <c r="F829" s="18"/>
+      <c r="A829" s="23"/>
+      <c r="E829" s="21"/>
+      <c r="F829" s="22"/>
       <c r="G829" s="18"/>
       <c r="H829" s="18"/>
       <c r="I829" s="18"/>
     </row>
     <row r="830">
-      <c r="A830" s="19"/>
-      <c r="F830" s="18"/>
+      <c r="A830" s="23"/>
+      <c r="E830" s="21"/>
+      <c r="F830" s="22"/>
       <c r="G830" s="18"/>
       <c r="H830" s="18"/>
       <c r="I830" s="18"/>
     </row>
     <row r="831">
-      <c r="A831" s="19"/>
-      <c r="F831" s="18"/>
+      <c r="A831" s="23"/>
+      <c r="E831" s="21"/>
+      <c r="F831" s="22"/>
       <c r="G831" s="18"/>
       <c r="H831" s="18"/>
       <c r="I831" s="18"/>
     </row>
     <row r="832">
-      <c r="A832" s="19"/>
-      <c r="F832" s="18"/>
+      <c r="A832" s="23"/>
+      <c r="E832" s="21"/>
+      <c r="F832" s="22"/>
       <c r="G832" s="18"/>
       <c r="H832" s="18"/>
       <c r="I832" s="18"/>
     </row>
     <row r="833">
-      <c r="A833" s="19"/>
-      <c r="F833" s="18"/>
+      <c r="A833" s="23"/>
+      <c r="E833" s="21"/>
+      <c r="F833" s="22"/>
       <c r="G833" s="18"/>
       <c r="H833" s="18"/>
       <c r="I833" s="18"/>
     </row>
     <row r="834">
-      <c r="A834" s="19"/>
-      <c r="F834" s="18"/>
+      <c r="A834" s="23"/>
+      <c r="E834" s="21"/>
+      <c r="F834" s="22"/>
       <c r="G834" s="18"/>
       <c r="H834" s="18"/>
       <c r="I834" s="18"/>
     </row>
     <row r="835">
-      <c r="A835" s="19"/>
-      <c r="F835" s="18"/>
+      <c r="A835" s="23"/>
+      <c r="E835" s="21"/>
+      <c r="F835" s="22"/>
       <c r="G835" s="18"/>
       <c r="H835" s="18"/>
       <c r="I835" s="18"/>
     </row>
     <row r="836">
-      <c r="A836" s="19"/>
-      <c r="F836" s="18"/>
+      <c r="A836" s="23"/>
+      <c r="E836" s="21"/>
+      <c r="F836" s="22"/>
       <c r="G836" s="18"/>
       <c r="H836" s="18"/>
       <c r="I836" s="18"/>
     </row>
     <row r="837">
-      <c r="A837" s="19"/>
-      <c r="F837" s="18"/>
+      <c r="A837" s="23"/>
+      <c r="E837" s="21"/>
+      <c r="F837" s="22"/>
       <c r="G837" s="18"/>
       <c r="H837" s="18"/>
       <c r="I837" s="18"/>
     </row>
     <row r="838">
-      <c r="A838" s="19"/>
-      <c r="F838" s="18"/>
+      <c r="A838" s="23"/>
+      <c r="E838" s="21"/>
+      <c r="F838" s="22"/>
       <c r="G838" s="18"/>
       <c r="H838" s="18"/>
       <c r="I838" s="18"/>
     </row>
     <row r="839">
-      <c r="A839" s="19"/>
-      <c r="F839" s="18"/>
+      <c r="A839" s="23"/>
+      <c r="E839" s="21"/>
+      <c r="F839" s="22"/>
       <c r="G839" s="18"/>
       <c r="H839" s="18"/>
       <c r="I839" s="18"/>
     </row>
     <row r="840">
-      <c r="A840" s="19"/>
-      <c r="F840" s="18"/>
+      <c r="A840" s="23"/>
+      <c r="E840" s="21"/>
+      <c r="F840" s="22"/>
       <c r="G840" s="18"/>
       <c r="H840" s="18"/>
       <c r="I840" s="18"/>
     </row>
     <row r="841">
-      <c r="A841" s="19"/>
-      <c r="F841" s="18"/>
+      <c r="A841" s="23"/>
+      <c r="E841" s="21"/>
+      <c r="F841" s="22"/>
       <c r="G841" s="18"/>
       <c r="H841" s="18"/>
       <c r="I841" s="18"/>
     </row>
     <row r="842">
-      <c r="A842" s="19"/>
-      <c r="F842" s="18"/>
+      <c r="A842" s="23"/>
+      <c r="E842" s="21"/>
+      <c r="F842" s="22"/>
       <c r="G842" s="18"/>
       <c r="H842" s="18"/>
       <c r="I842" s="18"/>
     </row>
     <row r="843">
-      <c r="A843" s="19"/>
-      <c r="F843" s="18"/>
+      <c r="A843" s="23"/>
+      <c r="E843" s="21"/>
+      <c r="F843" s="22"/>
       <c r="G843" s="18"/>
       <c r="H843" s="18"/>
       <c r="I843" s="18"/>
     </row>
     <row r="844">
-      <c r="A844" s="19"/>
-      <c r="F844" s="18"/>
+      <c r="A844" s="23"/>
+      <c r="E844" s="21"/>
+      <c r="F844" s="22"/>
       <c r="G844" s="18"/>
       <c r="H844" s="18"/>
       <c r="I844" s="18"/>
     </row>
     <row r="845">
-      <c r="A845" s="19"/>
-      <c r="F845" s="18"/>
+      <c r="A845" s="23"/>
+      <c r="E845" s="21"/>
+      <c r="F845" s="22"/>
       <c r="G845" s="18"/>
       <c r="H845" s="18"/>
       <c r="I845" s="18"/>
     </row>
     <row r="846">
-      <c r="A846" s="19"/>
-      <c r="F846" s="18"/>
+      <c r="A846" s="23"/>
+      <c r="E846" s="21"/>
+      <c r="F846" s="22"/>
       <c r="G846" s="18"/>
       <c r="H846" s="18"/>
       <c r="I846" s="18"/>
     </row>
     <row r="847">
-      <c r="A847" s="19"/>
-      <c r="F847" s="18"/>
+      <c r="A847" s="23"/>
+      <c r="E847" s="21"/>
+      <c r="F847" s="22"/>
       <c r="G847" s="18"/>
       <c r="H847" s="18"/>
       <c r="I847" s="18"/>
     </row>
     <row r="848">
-      <c r="A848" s="19"/>
-      <c r="F848" s="18"/>
+      <c r="A848" s="23"/>
+      <c r="E848" s="21"/>
+      <c r="F848" s="22"/>
       <c r="G848" s="18"/>
       <c r="H848" s="18"/>
       <c r="I848" s="18"/>
     </row>
     <row r="849">
-      <c r="A849" s="19"/>
-      <c r="F849" s="18"/>
+      <c r="A849" s="23"/>
+      <c r="E849" s="21"/>
+      <c r="F849" s="22"/>
       <c r="G849" s="18"/>
       <c r="H849" s="18"/>
       <c r="I849" s="18"/>
     </row>
     <row r="850">
-      <c r="A850" s="19"/>
-      <c r="F850" s="18"/>
+      <c r="A850" s="23"/>
+      <c r="E850" s="21"/>
+      <c r="F850" s="22"/>
       <c r="G850" s="18"/>
       <c r="H850" s="18"/>
       <c r="I850" s="18"/>
     </row>
     <row r="851">
-      <c r="A851" s="19"/>
-      <c r="F851" s="18"/>
+      <c r="A851" s="23"/>
+      <c r="E851" s="21"/>
+      <c r="F851" s="22"/>
       <c r="G851" s="18"/>
       <c r="H851" s="18"/>
       <c r="I851" s="18"/>
     </row>
     <row r="852">
-      <c r="A852" s="19"/>
-      <c r="F852" s="18"/>
+      <c r="A852" s="23"/>
+      <c r="E852" s="21"/>
+      <c r="F852" s="22"/>
       <c r="G852" s="18"/>
       <c r="H852" s="18"/>
       <c r="I852" s="18"/>
     </row>
     <row r="853">
-      <c r="A853" s="19"/>
-      <c r="F853" s="18"/>
+      <c r="A853" s="23"/>
+      <c r="E853" s="21"/>
+      <c r="F853" s="22"/>
       <c r="G853" s="18"/>
       <c r="H853" s="18"/>
       <c r="I853" s="18"/>
     </row>
     <row r="854">
-      <c r="A854" s="19"/>
-      <c r="F854" s="18"/>
+      <c r="A854" s="23"/>
+      <c r="E854" s="21"/>
+      <c r="F854" s="22"/>
       <c r="G854" s="18"/>
       <c r="H854" s="18"/>
       <c r="I854" s="18"/>
     </row>
     <row r="855">
-      <c r="A855" s="19"/>
-      <c r="F855" s="18"/>
+      <c r="A855" s="23"/>
+      <c r="E855" s="21"/>
+      <c r="F855" s="22"/>
       <c r="G855" s="18"/>
       <c r="H855" s="18"/>
       <c r="I855" s="18"/>
     </row>
     <row r="856">
-      <c r="A856" s="19"/>
-      <c r="F856" s="18"/>
+      <c r="A856" s="23"/>
+      <c r="E856" s="21"/>
+      <c r="F856" s="22"/>
       <c r="G856" s="18"/>
       <c r="H856" s="18"/>
       <c r="I856" s="18"/>
     </row>
     <row r="857">
-      <c r="A857" s="19"/>
-      <c r="F857" s="18"/>
+      <c r="A857" s="23"/>
+      <c r="E857" s="21"/>
+      <c r="F857" s="22"/>
       <c r="G857" s="18"/>
       <c r="H857" s="18"/>
       <c r="I857" s="18"/>
     </row>
     <row r="858">
-      <c r="A858" s="19"/>
-      <c r="F858" s="18"/>
+      <c r="A858" s="23"/>
+      <c r="E858" s="21"/>
+      <c r="F858" s="22"/>
       <c r="G858" s="18"/>
       <c r="H858" s="18"/>
       <c r="I858" s="18"/>
     </row>
     <row r="859">
-      <c r="A859" s="19"/>
-      <c r="F859" s="18"/>
+      <c r="A859" s="23"/>
+      <c r="E859" s="21"/>
+      <c r="F859" s="22"/>
       <c r="G859" s="18"/>
       <c r="H859" s="18"/>
       <c r="I859" s="18"/>
     </row>
     <row r="860">
-      <c r="A860" s="19"/>
-      <c r="F860" s="18"/>
+      <c r="A860" s="23"/>
+      <c r="E860" s="21"/>
+      <c r="F860" s="22"/>
       <c r="G860" s="18"/>
       <c r="H860" s="18"/>
       <c r="I860" s="18"/>
     </row>
     <row r="861">
-      <c r="A861" s="19"/>
-      <c r="F861" s="18"/>
+      <c r="A861" s="23"/>
+      <c r="E861" s="21"/>
+      <c r="F861" s="22"/>
       <c r="G861" s="18"/>
       <c r="H861" s="18"/>
       <c r="I861" s="18"/>
     </row>
     <row r="862">
-      <c r="A862" s="19"/>
-      <c r="F862" s="18"/>
+      <c r="A862" s="23"/>
+      <c r="E862" s="21"/>
+      <c r="F862" s="22"/>
       <c r="G862" s="18"/>
       <c r="H862" s="18"/>
       <c r="I862" s="18"/>
     </row>
     <row r="863">
-      <c r="A863" s="19"/>
-      <c r="F863" s="18"/>
+      <c r="A863" s="23"/>
+      <c r="E863" s="21"/>
+      <c r="F863" s="22"/>
       <c r="G863" s="18"/>
       <c r="H863" s="18"/>
       <c r="I863" s="18"/>
     </row>
     <row r="864">
-      <c r="A864" s="19"/>
-      <c r="F864" s="18"/>
+      <c r="A864" s="23"/>
+      <c r="E864" s="21"/>
+      <c r="F864" s="22"/>
       <c r="G864" s="18"/>
       <c r="H864" s="18"/>
       <c r="I864" s="18"/>
     </row>
     <row r="865">
-      <c r="A865" s="19"/>
-      <c r="F865" s="18"/>
+      <c r="A865" s="23"/>
+      <c r="E865" s="21"/>
+      <c r="F865" s="22"/>
       <c r="G865" s="18"/>
       <c r="H865" s="18"/>
       <c r="I865" s="18"/>
     </row>
     <row r="866">
-      <c r="A866" s="19"/>
-      <c r="F866" s="18"/>
+      <c r="A866" s="23"/>
+      <c r="E866" s="21"/>
+      <c r="F866" s="22"/>
       <c r="G866" s="18"/>
       <c r="H866" s="18"/>
       <c r="I866" s="18"/>
     </row>
     <row r="867">
-      <c r="A867" s="19"/>
-      <c r="F867" s="18"/>
+      <c r="A867" s="23"/>
+      <c r="E867" s="21"/>
+      <c r="F867" s="22"/>
       <c r="G867" s="18"/>
       <c r="H867" s="18"/>
       <c r="I867" s="18"/>
     </row>
     <row r="868">
-      <c r="A868" s="19"/>
-      <c r="F868" s="18"/>
+      <c r="A868" s="23"/>
+      <c r="E868" s="21"/>
+      <c r="F868" s="22"/>
       <c r="G868" s="18"/>
       <c r="H868" s="18"/>
       <c r="I868" s="18"/>
     </row>
     <row r="869">
-      <c r="A869" s="19"/>
-      <c r="F869" s="18"/>
+      <c r="A869" s="23"/>
+      <c r="E869" s="21"/>
+      <c r="F869" s="22"/>
       <c r="G869" s="18"/>
       <c r="H869" s="18"/>
       <c r="I869" s="18"/>
     </row>
     <row r="870">
-      <c r="A870" s="19"/>
-      <c r="F870" s="18"/>
+      <c r="A870" s="23"/>
+      <c r="E870" s="21"/>
+      <c r="F870" s="22"/>
       <c r="G870" s="18"/>
       <c r="H870" s="18"/>
       <c r="I870" s="18"/>
     </row>
     <row r="871">
-      <c r="A871" s="19"/>
-      <c r="F871" s="18"/>
+      <c r="A871" s="23"/>
+      <c r="E871" s="21"/>
+      <c r="F871" s="22"/>
       <c r="G871" s="18"/>
       <c r="H871" s="18"/>
       <c r="I871" s="18"/>
     </row>
     <row r="872">
-      <c r="A872" s="19"/>
-      <c r="F872" s="18"/>
+      <c r="A872" s="23"/>
+      <c r="E872" s="21"/>
+      <c r="F872" s="22"/>
       <c r="G872" s="18"/>
       <c r="H872" s="18"/>
       <c r="I872" s="18"/>
     </row>
     <row r="873">
-      <c r="A873" s="19"/>
-      <c r="F873" s="18"/>
+      <c r="A873" s="23"/>
+      <c r="E873" s="21"/>
+      <c r="F873" s="22"/>
       <c r="G873" s="18"/>
       <c r="H873" s="18"/>
       <c r="I873" s="18"/>
     </row>
     <row r="874">
-      <c r="A874" s="19"/>
-      <c r="F874" s="18"/>
+      <c r="A874" s="23"/>
+      <c r="E874" s="21"/>
+      <c r="F874" s="22"/>
       <c r="G874" s="18"/>
       <c r="H874" s="18"/>
       <c r="I874" s="18"/>
     </row>
     <row r="875">
-      <c r="A875" s="19"/>
-      <c r="F875" s="18"/>
+      <c r="A875" s="23"/>
+      <c r="E875" s="21"/>
+      <c r="F875" s="22"/>
       <c r="G875" s="18"/>
       <c r="H875" s="18"/>
       <c r="I875" s="18"/>
     </row>
     <row r="876">
-      <c r="A876" s="19"/>
-      <c r="F876" s="18"/>
+      <c r="A876" s="23"/>
+      <c r="E876" s="21"/>
+      <c r="F876" s="22"/>
       <c r="G876" s="18"/>
       <c r="H876" s="18"/>
       <c r="I876" s="18"/>
     </row>
     <row r="877">
-      <c r="A877" s="19"/>
-      <c r="F877" s="18"/>
+      <c r="A877" s="23"/>
+      <c r="E877" s="21"/>
+      <c r="F877" s="22"/>
       <c r="G877" s="18"/>
       <c r="H877" s="18"/>
       <c r="I877" s="18"/>
     </row>
     <row r="878">
-      <c r="A878" s="19"/>
-      <c r="F878" s="18"/>
+      <c r="A878" s="23"/>
+      <c r="E878" s="21"/>
+      <c r="F878" s="22"/>
       <c r="G878" s="18"/>
       <c r="H878" s="18"/>
       <c r="I878" s="18"/>
     </row>
     <row r="879">
-      <c r="A879" s="19"/>
-      <c r="F879" s="18"/>
+      <c r="A879" s="23"/>
+      <c r="E879" s="21"/>
+      <c r="F879" s="22"/>
       <c r="G879" s="18"/>
       <c r="H879" s="18"/>
       <c r="I879" s="18"/>
     </row>
     <row r="880">
-      <c r="A880" s="19"/>
-      <c r="F880" s="18"/>
+      <c r="A880" s="23"/>
+      <c r="E880" s="21"/>
+      <c r="F880" s="22"/>
       <c r="G880" s="18"/>
       <c r="H880" s="18"/>
       <c r="I880" s="18"/>
     </row>
     <row r="881">
-      <c r="A881" s="19"/>
-      <c r="F881" s="18"/>
+      <c r="A881" s="23"/>
+      <c r="E881" s="21"/>
+      <c r="F881" s="22"/>
       <c r="G881" s="18"/>
       <c r="H881" s="18"/>
       <c r="I881" s="18"/>
     </row>
     <row r="882">
-      <c r="A882" s="19"/>
-      <c r="F882" s="18"/>
+      <c r="A882" s="23"/>
+      <c r="E882" s="21"/>
+      <c r="F882" s="22"/>
       <c r="G882" s="18"/>
       <c r="H882" s="18"/>
       <c r="I882" s="18"/>
     </row>
     <row r="883">
-      <c r="A883" s="19"/>
-      <c r="F883" s="18"/>
+      <c r="A883" s="23"/>
+      <c r="E883" s="21"/>
+      <c r="F883" s="22"/>
       <c r="G883" s="18"/>
       <c r="H883" s="18"/>
       <c r="I883" s="18"/>
     </row>
     <row r="884">
-      <c r="A884" s="19"/>
-      <c r="F884" s="18"/>
+      <c r="A884" s="23"/>
+      <c r="E884" s="21"/>
+      <c r="F884" s="22"/>
       <c r="G884" s="18"/>
       <c r="H884" s="18"/>
       <c r="I884" s="18"/>
     </row>
     <row r="885">
-      <c r="A885" s="19"/>
-      <c r="F885" s="18"/>
+      <c r="A885" s="23"/>
+      <c r="E885" s="21"/>
+      <c r="F885" s="22"/>
       <c r="G885" s="18"/>
       <c r="H885" s="18"/>
       <c r="I885" s="18"/>
     </row>
     <row r="886">
-      <c r="A886" s="19"/>
-      <c r="F886" s="18"/>
+      <c r="A886" s="23"/>
+      <c r="E886" s="21"/>
+      <c r="F886" s="22"/>
       <c r="G886" s="18"/>
       <c r="H886" s="18"/>
       <c r="I886" s="18"/>
     </row>
     <row r="887">
-      <c r="A887" s="19"/>
-      <c r="F887" s="18"/>
+      <c r="A887" s="23"/>
+      <c r="E887" s="21"/>
+      <c r="F887" s="22"/>
       <c r="G887" s="18"/>
       <c r="H887" s="18"/>
       <c r="I887" s="18"/>
     </row>
     <row r="888">
-      <c r="A888" s="19"/>
-      <c r="F888" s="18"/>
+      <c r="A888" s="23"/>
+      <c r="E888" s="21"/>
+      <c r="F888" s="22"/>
       <c r="G888" s="18"/>
       <c r="H888" s="18"/>
       <c r="I888" s="18"/>
     </row>
     <row r="889">
-      <c r="A889" s="19"/>
-      <c r="F889" s="18"/>
+      <c r="A889" s="23"/>
+      <c r="E889" s="21"/>
+      <c r="F889" s="22"/>
       <c r="G889" s="18"/>
       <c r="H889" s="18"/>
       <c r="I889" s="18"/>
     </row>
     <row r="890">
-      <c r="A890" s="19"/>
-      <c r="F890" s="18"/>
+      <c r="A890" s="23"/>
+      <c r="E890" s="21"/>
+      <c r="F890" s="22"/>
       <c r="G890" s="18"/>
       <c r="H890" s="18"/>
       <c r="I890" s="18"/>
     </row>
     <row r="891">
-      <c r="A891" s="19"/>
-      <c r="F891" s="18"/>
+      <c r="A891" s="23"/>
+      <c r="E891" s="21"/>
+      <c r="F891" s="22"/>
       <c r="G891" s="18"/>
       <c r="H891" s="18"/>
       <c r="I891" s="18"/>
     </row>
     <row r="892">
-      <c r="A892" s="19"/>
-      <c r="F892" s="18"/>
+      <c r="A892" s="23"/>
+      <c r="E892" s="21"/>
+      <c r="F892" s="22"/>
       <c r="G892" s="18"/>
       <c r="H892" s="18"/>
       <c r="I892" s="18"/>
     </row>
     <row r="893">
-      <c r="A893" s="19"/>
-      <c r="F893" s="18"/>
+      <c r="A893" s="23"/>
+      <c r="E893" s="21"/>
+      <c r="F893" s="22"/>
       <c r="G893" s="18"/>
       <c r="H893" s="18"/>
       <c r="I893" s="18"/>
     </row>
     <row r="894">
-      <c r="A894" s="19"/>
-      <c r="F894" s="18"/>
+      <c r="A894" s="23"/>
+      <c r="E894" s="21"/>
+      <c r="F894" s="22"/>
       <c r="G894" s="18"/>
       <c r="H894" s="18"/>
       <c r="I894" s="18"/>
     </row>
     <row r="895">
-      <c r="A895" s="19"/>
-      <c r="F895" s="18"/>
+      <c r="A895" s="23"/>
+      <c r="E895" s="21"/>
+      <c r="F895" s="22"/>
       <c r="G895" s="18"/>
       <c r="H895" s="18"/>
       <c r="I895" s="18"/>
     </row>
     <row r="896">
-      <c r="A896" s="19"/>
-      <c r="F896" s="18"/>
+      <c r="A896" s="23"/>
+      <c r="E896" s="21"/>
+      <c r="F896" s="22"/>
       <c r="G896" s="18"/>
       <c r="H896" s="18"/>
       <c r="I896" s="18"/>
     </row>
     <row r="897">
-      <c r="A897" s="19"/>
-      <c r="F897" s="18"/>
+      <c r="A897" s="23"/>
+      <c r="E897" s="21"/>
+      <c r="F897" s="22"/>
       <c r="G897" s="18"/>
       <c r="H897" s="18"/>
       <c r="I897" s="18"/>
     </row>
     <row r="898">
-      <c r="A898" s="19"/>
-      <c r="F898" s="18"/>
+      <c r="A898" s="23"/>
+      <c r="E898" s="21"/>
+      <c r="F898" s="22"/>
       <c r="G898" s="18"/>
       <c r="H898" s="18"/>
       <c r="I898" s="18"/>
     </row>
     <row r="899">
-      <c r="A899" s="19"/>
-      <c r="F899" s="18"/>
+      <c r="A899" s="23"/>
+      <c r="E899" s="21"/>
+      <c r="F899" s="22"/>
       <c r="G899" s="18"/>
       <c r="H899" s="18"/>
       <c r="I899" s="18"/>
     </row>
     <row r="900">
-      <c r="A900" s="19"/>
-      <c r="F900" s="18"/>
+      <c r="A900" s="23"/>
+      <c r="E900" s="21"/>
+      <c r="F900" s="22"/>
       <c r="G900" s="18"/>
       <c r="H900" s="18"/>
       <c r="I900" s="18"/>
     </row>
     <row r="901">
-      <c r="A901" s="19"/>
-      <c r="F901" s="18"/>
+      <c r="A901" s="23"/>
+      <c r="E901" s="21"/>
+      <c r="F901" s="22"/>
       <c r="G901" s="18"/>
       <c r="H901" s="18"/>
       <c r="I901" s="18"/>
     </row>
     <row r="902">
-      <c r="A902" s="19"/>
-      <c r="F902" s="18"/>
+      <c r="A902" s="23"/>
+      <c r="E902" s="21"/>
+      <c r="F902" s="22"/>
       <c r="G902" s="18"/>
       <c r="H902" s="18"/>
       <c r="I902" s="18"/>
     </row>
     <row r="903">
-      <c r="A903" s="19"/>
-      <c r="F903" s="18"/>
+      <c r="A903" s="23"/>
+      <c r="E903" s="21"/>
+      <c r="F903" s="22"/>
       <c r="G903" s="18"/>
       <c r="H903" s="18"/>
       <c r="I903" s="18"/>
     </row>
     <row r="904">
-      <c r="A904" s="19"/>
-      <c r="F904" s="18"/>
+      <c r="A904" s="23"/>
+      <c r="E904" s="21"/>
+      <c r="F904" s="22"/>
       <c r="G904" s="18"/>
       <c r="H904" s="18"/>
       <c r="I904" s="18"/>
     </row>
     <row r="905">
-      <c r="A905" s="19"/>
-      <c r="F905" s="18"/>
+      <c r="A905" s="23"/>
+      <c r="E905" s="21"/>
+      <c r="F905" s="22"/>
       <c r="G905" s="18"/>
       <c r="H905" s="18"/>
       <c r="I905" s="18"/>
     </row>
     <row r="906">
-      <c r="A906" s="19"/>
-      <c r="F906" s="18"/>
+      <c r="A906" s="23"/>
+      <c r="E906" s="21"/>
+      <c r="F906" s="22"/>
       <c r="G906" s="18"/>
       <c r="H906" s="18"/>
       <c r="I906" s="18"/>
     </row>
     <row r="907">
-      <c r="A907" s="19"/>
-      <c r="F907" s="18"/>
+      <c r="A907" s="23"/>
+      <c r="E907" s="21"/>
+      <c r="F907" s="22"/>
       <c r="G907" s="18"/>
       <c r="H907" s="18"/>
       <c r="I907" s="18"/>
     </row>
     <row r="908">
-      <c r="A908" s="19"/>
-      <c r="F908" s="18"/>
+      <c r="A908" s="23"/>
+      <c r="E908" s="21"/>
+      <c r="F908" s="22"/>
       <c r="G908" s="18"/>
       <c r="H908" s="18"/>
       <c r="I908" s="18"/>
     </row>
     <row r="909">
-      <c r="A909" s="19"/>
-      <c r="F909" s="18"/>
+      <c r="A909" s="23"/>
+      <c r="E909" s="21"/>
+      <c r="F909" s="22"/>
       <c r="G909" s="18"/>
       <c r="H909" s="18"/>
       <c r="I909" s="18"/>
     </row>
     <row r="910">
-      <c r="A910" s="19"/>
-      <c r="F910" s="18"/>
+      <c r="A910" s="23"/>
+      <c r="E910" s="21"/>
+      <c r="F910" s="22"/>
       <c r="G910" s="18"/>
       <c r="H910" s="18"/>
       <c r="I910" s="18"/>
     </row>
     <row r="911">
-      <c r="A911" s="19"/>
-      <c r="F911" s="18"/>
+      <c r="A911" s="23"/>
+      <c r="E911" s="21"/>
+      <c r="F911" s="22"/>
       <c r="G911" s="18"/>
       <c r="H911" s="18"/>
       <c r="I911" s="18"/>
     </row>
     <row r="912">
-      <c r="A912" s="19"/>
-      <c r="F912" s="18"/>
+      <c r="A912" s="23"/>
+      <c r="E912" s="21"/>
+      <c r="F912" s="22"/>
       <c r="G912" s="18"/>
       <c r="H912" s="18"/>
       <c r="I912" s="18"/>
     </row>
     <row r="913">
-      <c r="A913" s="19"/>
-      <c r="F913" s="18"/>
+      <c r="A913" s="23"/>
+      <c r="E913" s="21"/>
+      <c r="F913" s="22"/>
       <c r="G913" s="18"/>
       <c r="H913" s="18"/>
       <c r="I913" s="18"/>
     </row>
     <row r="914">
-      <c r="A914" s="19"/>
-      <c r="F914" s="18"/>
+      <c r="A914" s="23"/>
+      <c r="E914" s="21"/>
+      <c r="F914" s="22"/>
       <c r="G914" s="18"/>
       <c r="H914" s="18"/>
       <c r="I914" s="18"/>
     </row>
     <row r="915">
-      <c r="A915" s="19"/>
-      <c r="F915" s="18"/>
+      <c r="A915" s="23"/>
+      <c r="E915" s="21"/>
+      <c r="F915" s="22"/>
       <c r="G915" s="18"/>
       <c r="H915" s="18"/>
       <c r="I915" s="18"/>
     </row>
     <row r="916">
-      <c r="A916" s="19"/>
-      <c r="F916" s="18"/>
+      <c r="A916" s="23"/>
+      <c r="E916" s="21"/>
+      <c r="F916" s="22"/>
       <c r="G916" s="18"/>
       <c r="H916" s="18"/>
       <c r="I916" s="18"/>
     </row>
     <row r="917">
-      <c r="A917" s="19"/>
-      <c r="F917" s="18"/>
+      <c r="A917" s="23"/>
+      <c r="E917" s="21"/>
+      <c r="F917" s="22"/>
       <c r="G917" s="18"/>
       <c r="H917" s="18"/>
       <c r="I917" s="18"/>
     </row>
     <row r="918">
-      <c r="A918" s="19"/>
-      <c r="F918" s="18"/>
+      <c r="A918" s="23"/>
+      <c r="E918" s="21"/>
+      <c r="F918" s="22"/>
       <c r="G918" s="18"/>
       <c r="H918" s="18"/>
       <c r="I918" s="18"/>
     </row>
     <row r="919">
-      <c r="A919" s="19"/>
-      <c r="F919" s="18"/>
+      <c r="A919" s="23"/>
+      <c r="E919" s="21"/>
+      <c r="F919" s="22"/>
       <c r="G919" s="18"/>
       <c r="H919" s="18"/>
       <c r="I919" s="18"/>
     </row>
     <row r="920">
-      <c r="A920" s="19"/>
-      <c r="F920" s="18"/>
+      <c r="A920" s="23"/>
+      <c r="E920" s="21"/>
+      <c r="F920" s="22"/>
       <c r="G920" s="18"/>
       <c r="H920" s="18"/>
       <c r="I920" s="18"/>
     </row>
     <row r="921">
-      <c r="A921" s="19"/>
-      <c r="F921" s="18"/>
+      <c r="A921" s="23"/>
+      <c r="E921" s="21"/>
+      <c r="F921" s="22"/>
       <c r="G921" s="18"/>
       <c r="H921" s="18"/>
       <c r="I921" s="18"/>
     </row>
     <row r="922">
-      <c r="A922" s="19"/>
-      <c r="F922" s="18"/>
+      <c r="A922" s="23"/>
+      <c r="E922" s="21"/>
+      <c r="F922" s="22"/>
       <c r="G922" s="18"/>
       <c r="H922" s="18"/>
       <c r="I922" s="18"/>
     </row>
     <row r="923">
-      <c r="A923" s="19"/>
-      <c r="F923" s="18"/>
+      <c r="A923" s="23"/>
+      <c r="E923" s="21"/>
+      <c r="F923" s="22"/>
       <c r="G923" s="18"/>
       <c r="H923" s="18"/>
       <c r="I923" s="18"/>
     </row>
     <row r="924">
-      <c r="A924" s="19"/>
-      <c r="F924" s="18"/>
+      <c r="A924" s="23"/>
+      <c r="E924" s="21"/>
+      <c r="F924" s="22"/>
       <c r="G924" s="18"/>
       <c r="H924" s="18"/>
       <c r="I924" s="18"/>
     </row>
     <row r="925">
-      <c r="A925" s="19"/>
-      <c r="F925" s="18"/>
+      <c r="A925" s="23"/>
+      <c r="E925" s="21"/>
+      <c r="F925" s="22"/>
       <c r="G925" s="18"/>
       <c r="H925" s="18"/>
       <c r="I925" s="18"/>
     </row>
     <row r="926">
-      <c r="A926" s="19"/>
-      <c r="F926" s="18"/>
+      <c r="A926" s="23"/>
+      <c r="E926" s="21"/>
+      <c r="F926" s="22"/>
       <c r="G926" s="18"/>
       <c r="H926" s="18"/>
       <c r="I926" s="18"/>
     </row>
     <row r="927">
-      <c r="A927" s="19"/>
-      <c r="F927" s="18"/>
+      <c r="A927" s="23"/>
+      <c r="E927" s="21"/>
+      <c r="F927" s="22"/>
       <c r="G927" s="18"/>
       <c r="H927" s="18"/>
       <c r="I927" s="18"/>
     </row>
     <row r="928">
-      <c r="A928" s="19"/>
-      <c r="F928" s="18"/>
+      <c r="A928" s="23"/>
+      <c r="E928" s="21"/>
+      <c r="F928" s="22"/>
       <c r="G928" s="18"/>
       <c r="H928" s="18"/>
       <c r="I928" s="18"/>
     </row>
     <row r="929">
-      <c r="A929" s="19"/>
-      <c r="F929" s="18"/>
+      <c r="A929" s="23"/>
+      <c r="E929" s="21"/>
+      <c r="F929" s="22"/>
       <c r="G929" s="18"/>
       <c r="H929" s="18"/>
       <c r="I929" s="18"/>
     </row>
     <row r="930">
-      <c r="A930" s="19"/>
-      <c r="F930" s="18"/>
+      <c r="A930" s="23"/>
+      <c r="E930" s="21"/>
+      <c r="F930" s="22"/>
       <c r="G930" s="18"/>
       <c r="H930" s="18"/>
       <c r="I930" s="18"/>
     </row>
     <row r="931">
-      <c r="A931" s="19"/>
-      <c r="F931" s="18"/>
+      <c r="A931" s="23"/>
+      <c r="E931" s="21"/>
+      <c r="F931" s="22"/>
       <c r="G931" s="18"/>
       <c r="H931" s="18"/>
       <c r="I931" s="18"/>
     </row>
     <row r="932">
-      <c r="A932" s="19"/>
-      <c r="F932" s="18"/>
+      <c r="A932" s="23"/>
+      <c r="E932" s="21"/>
+      <c r="F932" s="22"/>
       <c r="G932" s="18"/>
       <c r="H932" s="18"/>
       <c r="I932" s="18"/>
     </row>
     <row r="933">
-      <c r="A933" s="19"/>
-      <c r="F933" s="18"/>
+      <c r="A933" s="23"/>
+      <c r="E933" s="21"/>
+      <c r="F933" s="22"/>
       <c r="G933" s="18"/>
       <c r="H933" s="18"/>
       <c r="I933" s="18"/>
     </row>
     <row r="934">
-      <c r="A934" s="19"/>
-      <c r="F934" s="18"/>
+      <c r="A934" s="23"/>
+      <c r="E934" s="21"/>
+      <c r="F934" s="22"/>
       <c r="G934" s="18"/>
       <c r="H934" s="18"/>
       <c r="I934" s="18"/>
     </row>
     <row r="935">
-      <c r="A935" s="19"/>
-      <c r="F935" s="18"/>
+      <c r="A935" s="23"/>
+      <c r="E935" s="21"/>
+      <c r="F935" s="22"/>
       <c r="G935" s="18"/>
       <c r="H935" s="18"/>
       <c r="I935" s="18"/>
     </row>
     <row r="936">
-      <c r="A936" s="19"/>
-      <c r="F936" s="18"/>
+      <c r="A936" s="23"/>
+      <c r="E936" s="21"/>
+      <c r="F936" s="22"/>
       <c r="G936" s="18"/>
       <c r="H936" s="18"/>
       <c r="I936" s="18"/>
     </row>
     <row r="937">
-      <c r="A937" s="19"/>
-      <c r="F937" s="18"/>
+      <c r="A937" s="23"/>
+      <c r="E937" s="21"/>
+      <c r="F937" s="22"/>
       <c r="G937" s="18"/>
       <c r="H937" s="18"/>
       <c r="I937" s="18"/>
     </row>
     <row r="938">
-      <c r="A938" s="19"/>
-      <c r="F938" s="18"/>
+      <c r="A938" s="23"/>
+      <c r="E938" s="21"/>
+      <c r="F938" s="22"/>
       <c r="G938" s="18"/>
       <c r="H938" s="18"/>
       <c r="I938" s="18"/>
     </row>
     <row r="939">
-      <c r="A939" s="19"/>
-      <c r="F939" s="18"/>
+      <c r="A939" s="23"/>
+      <c r="E939" s="21"/>
+      <c r="F939" s="22"/>
       <c r="G939" s="18"/>
       <c r="H939" s="18"/>
       <c r="I939" s="18"/>
     </row>
     <row r="940">
-      <c r="A940" s="19"/>
-      <c r="F940" s="18"/>
+      <c r="A940" s="23"/>
+      <c r="E940" s="21"/>
+      <c r="F940" s="22"/>
       <c r="G940" s="18"/>
       <c r="H940" s="18"/>
       <c r="I940" s="18"/>
     </row>
     <row r="941">
-      <c r="A941" s="19"/>
-      <c r="F941" s="18"/>
+      <c r="A941" s="23"/>
+      <c r="E941" s="21"/>
+      <c r="F941" s="22"/>
       <c r="G941" s="18"/>
       <c r="H941" s="18"/>
       <c r="I941" s="18"/>
     </row>
     <row r="942">
-      <c r="A942" s="19"/>
-      <c r="F942" s="18"/>
+      <c r="A942" s="23"/>
+      <c r="E942" s="21"/>
+      <c r="F942" s="22"/>
       <c r="G942" s="18"/>
       <c r="H942" s="18"/>
       <c r="I942" s="18"/>
     </row>
     <row r="943">
-      <c r="A943" s="19"/>
-      <c r="F943" s="18"/>
+      <c r="A943" s="23"/>
+      <c r="E943" s="21"/>
+      <c r="F943" s="22"/>
       <c r="G943" s="18"/>
       <c r="H943" s="18"/>
       <c r="I943" s="18"/>
     </row>
     <row r="944">
-      <c r="A944" s="19"/>
-      <c r="F944" s="18"/>
+      <c r="A944" s="23"/>
+      <c r="E944" s="21"/>
+      <c r="F944" s="22"/>
       <c r="G944" s="18"/>
       <c r="H944" s="18"/>
       <c r="I944" s="18"/>
     </row>
     <row r="945">
-      <c r="A945" s="19"/>
-      <c r="F945" s="18"/>
+      <c r="A945" s="23"/>
+      <c r="E945" s="21"/>
+      <c r="F945" s="22"/>
       <c r="G945" s="18"/>
       <c r="H945" s="18"/>
       <c r="I945" s="18"/>
     </row>
     <row r="946">
-      <c r="A946" s="19"/>
-      <c r="F946" s="18"/>
+      <c r="A946" s="23"/>
+      <c r="E946" s="21"/>
+      <c r="F946" s="22"/>
       <c r="G946" s="18"/>
       <c r="H946" s="18"/>
       <c r="I946" s="18"/>
     </row>
     <row r="947">
-      <c r="A947" s="19"/>
-      <c r="F947" s="18"/>
+      <c r="A947" s="23"/>
+      <c r="E947" s="21"/>
+      <c r="F947" s="22"/>
       <c r="G947" s="18"/>
       <c r="H947" s="18"/>
       <c r="I947" s="18"/>
     </row>
     <row r="948">
-      <c r="A948" s="19"/>
-      <c r="F948" s="18"/>
+      <c r="A948" s="23"/>
+      <c r="E948" s="21"/>
+      <c r="F948" s="22"/>
       <c r="G948" s="18"/>
       <c r="H948" s="18"/>
       <c r="I948" s="18"/>
     </row>
     <row r="949">
-      <c r="A949" s="19"/>
-      <c r="F949" s="18"/>
+      <c r="A949" s="23"/>
+      <c r="E949" s="21"/>
+      <c r="F949" s="22"/>
       <c r="G949" s="18"/>
       <c r="H949" s="18"/>
       <c r="I949" s="18"/>
     </row>
     <row r="950">
-      <c r="A950" s="19"/>
-      <c r="F950" s="18"/>
+      <c r="A950" s="23"/>
+      <c r="E950" s="21"/>
+      <c r="F950" s="22"/>
       <c r="G950" s="18"/>
       <c r="H950" s="18"/>
       <c r="I950" s="18"/>
     </row>
     <row r="951">
-      <c r="A951" s="19"/>
-      <c r="F951" s="18"/>
+      <c r="A951" s="23"/>
+      <c r="E951" s="21"/>
+      <c r="F951" s="22"/>
       <c r="G951" s="18"/>
       <c r="H951" s="18"/>
       <c r="I951" s="18"/>
     </row>
     <row r="952">
-      <c r="A952" s="19"/>
-      <c r="F952" s="18"/>
+      <c r="A952" s="23"/>
+      <c r="E952" s="21"/>
+      <c r="F952" s="22"/>
       <c r="G952" s="18"/>
       <c r="H952" s="18"/>
       <c r="I952" s="18"/>
     </row>
     <row r="953">
-      <c r="A953" s="19"/>
-      <c r="F953" s="18"/>
+      <c r="A953" s="23"/>
+      <c r="E953" s="21"/>
+      <c r="F953" s="22"/>
       <c r="G953" s="18"/>
       <c r="H953" s="18"/>
       <c r="I953" s="18"/>
     </row>
     <row r="954">
-      <c r="A954" s="19"/>
-      <c r="F954" s="18"/>
+      <c r="A954" s="23"/>
+      <c r="E954" s="21"/>
+      <c r="F954" s="22"/>
       <c r="G954" s="18"/>
       <c r="H954" s="18"/>
       <c r="I954" s="18"/>
     </row>
     <row r="955">
-      <c r="A955" s="19"/>
-      <c r="F955" s="18"/>
+      <c r="A955" s="23"/>
+      <c r="E955" s="21"/>
+      <c r="F955" s="22"/>
       <c r="G955" s="18"/>
       <c r="H955" s="18"/>
       <c r="I955" s="18"/>
     </row>
     <row r="956">
-      <c r="A956" s="19"/>
-      <c r="F956" s="18"/>
+      <c r="A956" s="23"/>
+      <c r="E956" s="21"/>
+      <c r="F956" s="22"/>
       <c r="G956" s="18"/>
       <c r="H956" s="18"/>
       <c r="I956" s="18"/>
     </row>
     <row r="957">
-      <c r="A957" s="19"/>
-      <c r="F957" s="18"/>
+      <c r="A957" s="23"/>
+      <c r="E957" s="21"/>
+      <c r="F957" s="22"/>
       <c r="G957" s="18"/>
       <c r="H957" s="18"/>
       <c r="I957" s="18"/>
     </row>
     <row r="958">
-      <c r="A958" s="19"/>
-      <c r="F958" s="18"/>
+      <c r="A958" s="23"/>
+      <c r="E958" s="21"/>
+      <c r="F958" s="22"/>
       <c r="G958" s="18"/>
       <c r="H958" s="18"/>
       <c r="I958" s="18"/>
     </row>
     <row r="959">
-      <c r="A959" s="19"/>
-      <c r="F959" s="18"/>
+      <c r="A959" s="23"/>
+      <c r="E959" s="21"/>
+      <c r="F959" s="22"/>
       <c r="G959" s="18"/>
       <c r="H959" s="18"/>
       <c r="I959" s="18"/>
     </row>
     <row r="960">
-      <c r="A960" s="19"/>
-      <c r="F960" s="18"/>
+      <c r="A960" s="23"/>
+      <c r="E960" s="21"/>
+      <c r="F960" s="22"/>
       <c r="G960" s="18"/>
       <c r="H960" s="18"/>
       <c r="I960" s="18"/>
     </row>
     <row r="961">
-      <c r="A961" s="19"/>
-      <c r="F961" s="18"/>
+      <c r="A961" s="23"/>
+      <c r="E961" s="21"/>
+      <c r="F961" s="22"/>
       <c r="G961" s="18"/>
       <c r="H961" s="18"/>
       <c r="I961" s="18"/>
     </row>
     <row r="962">
-      <c r="A962" s="19"/>
-      <c r="F962" s="18"/>
+      <c r="A962" s="23"/>
+      <c r="E962" s="21"/>
+      <c r="F962" s="22"/>
       <c r="G962" s="18"/>
       <c r="H962" s="18"/>
       <c r="I962" s="18"/>
     </row>
     <row r="963">
-      <c r="A963" s="19"/>
-      <c r="F963" s="18"/>
+      <c r="A963" s="23"/>
+      <c r="E963" s="21"/>
+      <c r="F963" s="22"/>
       <c r="G963" s="18"/>
       <c r="H963" s="18"/>
       <c r="I963" s="18"/>
     </row>
     <row r="964">
-      <c r="A964" s="19"/>
-      <c r="F964" s="18"/>
+      <c r="A964" s="23"/>
+      <c r="E964" s="21"/>
+      <c r="F964" s="22"/>
       <c r="G964" s="18"/>
       <c r="H964" s="18"/>
       <c r="I964" s="18"/>
     </row>
     <row r="965">
-      <c r="A965" s="19"/>
-      <c r="F965" s="18"/>
+      <c r="A965" s="23"/>
+      <c r="E965" s="21"/>
+      <c r="F965" s="22"/>
       <c r="G965" s="18"/>
       <c r="H965" s="18"/>
       <c r="I965" s="18"/>
     </row>
     <row r="966">
-      <c r="A966" s="19"/>
-      <c r="F966" s="18"/>
+      <c r="A966" s="23"/>
+      <c r="E966" s="21"/>
+      <c r="F966" s="22"/>
       <c r="G966" s="18"/>
       <c r="H966" s="18"/>
       <c r="I966" s="18"/>
     </row>
     <row r="967">
-      <c r="A967" s="19"/>
-      <c r="F967" s="18"/>
+      <c r="A967" s="23"/>
+      <c r="E967" s="21"/>
+      <c r="F967" s="22"/>
       <c r="G967" s="18"/>
       <c r="H967" s="18"/>
       <c r="I967" s="18"/>
     </row>
     <row r="968">
-      <c r="A968" s="19"/>
-      <c r="F968" s="18"/>
+      <c r="A968" s="23"/>
+      <c r="E968" s="21"/>
+      <c r="F968" s="22"/>
       <c r="G968" s="18"/>
       <c r="H968" s="18"/>
       <c r="I968" s="18"/>
     </row>
     <row r="969">
-      <c r="A969" s="19"/>
-      <c r="F969" s="18"/>
+      <c r="A969" s="23"/>
+      <c r="E969" s="21"/>
+      <c r="F969" s="22"/>
       <c r="G969" s="18"/>
       <c r="H969" s="18"/>
       <c r="I969" s="18"/>
     </row>
     <row r="970">
-      <c r="A970" s="19"/>
-      <c r="F970" s="18"/>
+      <c r="A970" s="23"/>
+      <c r="E970" s="21"/>
+      <c r="F970" s="22"/>
       <c r="G970" s="18"/>
       <c r="H970" s="18"/>
       <c r="I970" s="18"/>
     </row>
     <row r="971">
-      <c r="A971" s="19"/>
-      <c r="F971" s="18"/>
+      <c r="A971" s="23"/>
+      <c r="E971" s="21"/>
+      <c r="F971" s="22"/>
       <c r="G971" s="18"/>
       <c r="H971" s="18"/>
       <c r="I971" s="18"/>
     </row>
     <row r="972">
-      <c r="A972" s="19"/>
-      <c r="F972" s="18"/>
+      <c r="A972" s="23"/>
+      <c r="E972" s="21"/>
+      <c r="F972" s="22"/>
       <c r="G972" s="18"/>
       <c r="H972" s="18"/>
       <c r="I972" s="18"/>
     </row>
     <row r="973">
-      <c r="A973" s="19"/>
-      <c r="F973" s="18"/>
+      <c r="A973" s="23"/>
+      <c r="E973" s="21"/>
+      <c r="F973" s="22"/>
       <c r="G973" s="18"/>
       <c r="H973" s="18"/>
       <c r="I973" s="18"/>
     </row>
     <row r="974">
-      <c r="A974" s="19"/>
-      <c r="F974" s="18"/>
+      <c r="A974" s="23"/>
+      <c r="E974" s="21"/>
+      <c r="F974" s="22"/>
       <c r="G974" s="18"/>
       <c r="H974" s="18"/>
       <c r="I974" s="18"/>
     </row>
     <row r="975">
-      <c r="A975" s="19"/>
-      <c r="F975" s="18"/>
+      <c r="A975" s="23"/>
+      <c r="E975" s="21"/>
+      <c r="F975" s="22"/>
       <c r="G975" s="18"/>
       <c r="H975" s="18"/>
       <c r="I975" s="18"/>
     </row>
     <row r="976">
-      <c r="A976" s="19"/>
-      <c r="F976" s="18"/>
+      <c r="A976" s="23"/>
+      <c r="E976" s="21"/>
+      <c r="F976" s="22"/>
       <c r="G976" s="18"/>
       <c r="H976" s="18"/>
       <c r="I976" s="18"/>
     </row>
     <row r="977">
-      <c r="A977" s="19"/>
-      <c r="F977" s="18"/>
+      <c r="A977" s="23"/>
+      <c r="E977" s="21"/>
+      <c r="F977" s="22"/>
       <c r="G977" s="18"/>
       <c r="H977" s="18"/>
       <c r="I977" s="18"/>
     </row>
     <row r="978">
-      <c r="A978" s="19"/>
-      <c r="F978" s="18"/>
+      <c r="A978" s="23"/>
+      <c r="E978" s="21"/>
+      <c r="F978" s="22"/>
       <c r="G978" s="18"/>
       <c r="H978" s="18"/>
       <c r="I978" s="18"/>
     </row>
     <row r="979">
-      <c r="A979" s="19"/>
-      <c r="F979" s="18"/>
+      <c r="A979" s="23"/>
+      <c r="E979" s="21"/>
+      <c r="F979" s="22"/>
       <c r="G979" s="18"/>
       <c r="H979" s="18"/>
       <c r="I979" s="18"/>
     </row>
     <row r="980">
-      <c r="A980" s="19"/>
-      <c r="F980" s="18"/>
+      <c r="A980" s="23"/>
+      <c r="E980" s="21"/>
+      <c r="F980" s="22"/>
       <c r="G980" s="18"/>
       <c r="H980" s="18"/>
       <c r="I980" s="18"/>
     </row>
     <row r="981">
-      <c r="A981" s="19"/>
-      <c r="F981" s="18"/>
+      <c r="A981" s="23"/>
+      <c r="E981" s="21"/>
+      <c r="F981" s="22"/>
       <c r="G981" s="18"/>
       <c r="H981" s="18"/>
       <c r="I981" s="18"/>
     </row>
     <row r="982">
-      <c r="A982" s="19"/>
-      <c r="F982" s="18"/>
+      <c r="A982" s="23"/>
+      <c r="E982" s="21"/>
+      <c r="F982" s="22"/>
       <c r="G982" s="18"/>
       <c r="H982" s="18"/>
       <c r="I982" s="18"/>
     </row>
     <row r="983">
-      <c r="A983" s="19"/>
-      <c r="F983" s="18"/>
+      <c r="A983" s="23"/>
+      <c r="E983" s="21"/>
+      <c r="F983" s="22"/>
       <c r="G983" s="18"/>
       <c r="H983" s="18"/>
       <c r="I983" s="18"/>
     </row>
     <row r="984">
-      <c r="A984" s="19"/>
-      <c r="F984" s="18"/>
+      <c r="A984" s="23"/>
+      <c r="E984" s="21"/>
+      <c r="F984" s="22"/>
       <c r="G984" s="18"/>
       <c r="H984" s="18"/>
       <c r="I984" s="18"/>
     </row>
     <row r="985">
-      <c r="A985" s="19"/>
-      <c r="F985" s="18"/>
+      <c r="A985" s="23"/>
+      <c r="E985" s="21"/>
+      <c r="F985" s="22"/>
       <c r="G985" s="18"/>
       <c r="H985" s="18"/>
       <c r="I985" s="18"/>
     </row>
     <row r="986">
-      <c r="A986" s="19"/>
-      <c r="F986" s="18"/>
+      <c r="A986" s="23"/>
+      <c r="E986" s="21"/>
+      <c r="F986" s="22"/>
       <c r="G986" s="18"/>
       <c r="H986" s="18"/>
       <c r="I986" s="18"/>
     </row>
     <row r="987">
-      <c r="A987" s="19"/>
-      <c r="F987" s="18"/>
+      <c r="A987" s="23"/>
+      <c r="E987" s="21"/>
+      <c r="F987" s="22"/>
       <c r="G987" s="18"/>
       <c r="H987" s="18"/>
       <c r="I987" s="18"/>
     </row>
     <row r="988">
-      <c r="A988" s="19"/>
-      <c r="F988" s="18"/>
+      <c r="A988" s="23"/>
+      <c r="E988" s="21"/>
+      <c r="F988" s="22"/>
       <c r="G988" s="18"/>
       <c r="H988" s="18"/>
       <c r="I988" s="18"/>
     </row>
     <row r="989">
-      <c r="A989" s="19"/>
-      <c r="F989" s="18"/>
+      <c r="A989" s="23"/>
+      <c r="E989" s="21"/>
+      <c r="F989" s="22"/>
       <c r="G989" s="18"/>
       <c r="H989" s="18"/>
       <c r="I989" s="18"/>
     </row>
     <row r="990">
-      <c r="A990" s="19"/>
-      <c r="F990" s="18"/>
+      <c r="A990" s="23"/>
+      <c r="E990" s="21"/>
+      <c r="F990" s="22"/>
       <c r="G990" s="18"/>
       <c r="H990" s="18"/>
       <c r="I990" s="18"/>
     </row>
     <row r="991">
-      <c r="A991" s="19"/>
-      <c r="F991" s="18"/>
+      <c r="A991" s="23"/>
+      <c r="E991" s="21"/>
+      <c r="F991" s="22"/>
       <c r="G991" s="18"/>
       <c r="H991" s="18"/>
       <c r="I991" s="18"/>
     </row>
     <row r="992">
-      <c r="A992" s="19"/>
-      <c r="F992" s="18"/>
+      <c r="A992" s="23"/>
+      <c r="E992" s="21"/>
+      <c r="F992" s="22"/>
       <c r="G992" s="18"/>
       <c r="H992" s="18"/>
       <c r="I992" s="18"/>
     </row>
     <row r="993">
-      <c r="A993" s="19"/>
-      <c r="F993" s="18"/>
+      <c r="A993" s="23"/>
+      <c r="E993" s="21"/>
+      <c r="F993" s="22"/>
       <c r="G993" s="18"/>
       <c r="H993" s="18"/>
       <c r="I993" s="18"/>
     </row>
     <row r="994">
-      <c r="A994" s="19"/>
-      <c r="F994" s="18"/>
+      <c r="A994" s="23"/>
+      <c r="E994" s="21"/>
+      <c r="F994" s="22"/>
       <c r="G994" s="18"/>
       <c r="H994" s="18"/>
       <c r="I994" s="18"/>
     </row>
     <row r="995">
-      <c r="A995" s="19"/>
-      <c r="F995" s="18"/>
+      <c r="A995" s="23"/>
+      <c r="E995" s="21"/>
+      <c r="F995" s="22"/>
       <c r="G995" s="18"/>
       <c r="H995" s="18"/>
       <c r="I995" s="18"/>
     </row>
     <row r="996">
-      <c r="A996" s="19"/>
-      <c r="F996" s="18"/>
+      <c r="A996" s="23"/>
+      <c r="E996" s="21"/>
+      <c r="F996" s="22"/>
       <c r="G996" s="18"/>
       <c r="H996" s="18"/>
       <c r="I996" s="18"/>
     </row>
     <row r="997">
-      <c r="A997" s="19"/>
-      <c r="F997" s="18"/>
+      <c r="A997" s="23"/>
+      <c r="E997" s="21"/>
+      <c r="F997" s="22"/>
       <c r="G997" s="18"/>
       <c r="H997" s="18"/>
       <c r="I997" s="18"/>
     </row>
     <row r="998">
-      <c r="A998" s="19"/>
-      <c r="F998" s="18"/>
+      <c r="A998" s="23"/>
+      <c r="E998" s="21"/>
+      <c r="F998" s="22"/>
       <c r="G998" s="18"/>
       <c r="H998" s="18"/>
       <c r="I998" s="18"/>
     </row>
     <row r="999">
-      <c r="A999" s="19"/>
-      <c r="F999" s="18"/>
+      <c r="A999" s="23"/>
+      <c r="E999" s="21"/>
+      <c r="F999" s="22"/>
       <c r="G999" s="18"/>
       <c r="H999" s="18"/>
       <c r="I999" s="18"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="19"/>
-      <c r="F1000" s="18"/>
+      <c r="A1000" s="23"/>
+      <c r="E1000" s="21"/>
+      <c r="F1000" s="22"/>
       <c r="G1000" s="18"/>
       <c r="H1000" s="18"/>
       <c r="I1000" s="18"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="19"/>
-      <c r="F1001" s="18"/>
+      <c r="A1001" s="23"/>
+      <c r="E1001" s="21"/>
+      <c r="F1001" s="22"/>
       <c r="G1001" s="18"/>
       <c r="H1001" s="18"/>
       <c r="I1001" s="18"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="19"/>
-      <c r="F1002" s="18"/>
+      <c r="A1002" s="23"/>
+      <c r="E1002" s="21"/>
+      <c r="F1002" s="22"/>
       <c r="G1002" s="18"/>
       <c r="H1002" s="18"/>
       <c r="I1002" s="18"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="19"/>
-      <c r="F1003" s="18"/>
+      <c r="A1003" s="23"/>
+      <c r="E1003" s="21"/>
+      <c r="F1003" s="22"/>
       <c r="G1003" s="18"/>
       <c r="H1003" s="18"/>
       <c r="I1003" s="18"/>
